--- a/doc/Development_Spec.xlsx
+++ b/doc/Development_Spec.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kota_ly/work/TsuriMapMaker/doc/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kota_ly/work/KokoDokoMapMaker/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{749BE9D6-9BBD-D348-899A-794100078F6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E340A896-14E8-6845-ABC4-A240E5309D77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" activeTab="13" xr2:uid="{2C8663B7-A646-664E-AD48-D017962260BA}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" firstSheet="8" activeTab="13" xr2:uid="{2C8663B7-A646-664E-AD48-D017962260BA}"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="1" r:id="rId1"/>
@@ -27,6 +27,7 @@
     <sheet name="遷移図=&gt;" sheetId="13" r:id="rId12"/>
     <sheet name="遷移図1" sheetId="14" r:id="rId13"/>
     <sheet name="Asset.js" sheetId="18" r:id="rId14"/>
+    <sheet name="Sheet1" sheetId="20" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -48,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1051" uniqueCount="403">
   <si>
     <t>Tsuri Map Maker</t>
     <phoneticPr fontId="1"/>
@@ -1915,6 +1916,568 @@
     <t>const images : any = {</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>├──</t>
+  </si>
+  <si>
+    <t>Asset0_00000.png</t>
+  </si>
+  <si>
+    <t>Asset0_00001.png</t>
+  </si>
+  <si>
+    <t>Asset0_00002.png</t>
+  </si>
+  <si>
+    <t>Asset0_00003.png</t>
+  </si>
+  <si>
+    <t>Asset0_00004.png</t>
+  </si>
+  <si>
+    <t>Asset0_00005.png</t>
+  </si>
+  <si>
+    <t>Asset0_00006.png</t>
+  </si>
+  <si>
+    <t>Asset0_00007.png</t>
+  </si>
+  <si>
+    <t>Asset0_00008.png</t>
+  </si>
+  <si>
+    <t>Asset0_00009.png</t>
+  </si>
+  <si>
+    <t>Asset0_00010.png</t>
+  </si>
+  <si>
+    <t>Asset0_00011.png</t>
+  </si>
+  <si>
+    <t>Asset0_00012.png</t>
+  </si>
+  <si>
+    <t>Asset0_00013.png</t>
+  </si>
+  <si>
+    <t>Asset0_00014.png</t>
+  </si>
+  <si>
+    <t>Asset0_00015.png</t>
+  </si>
+  <si>
+    <t>Asset0_00016.png</t>
+  </si>
+  <si>
+    <t>Asset0_00017.png</t>
+  </si>
+  <si>
+    <t>Asset0_00018.png</t>
+  </si>
+  <si>
+    <t>Asset0_00019.png</t>
+  </si>
+  <si>
+    <t>Asset0_00020.png</t>
+  </si>
+  <si>
+    <t>Asset0_00021.png</t>
+  </si>
+  <si>
+    <t>Asset0_00022.png</t>
+  </si>
+  <si>
+    <t>Asset0_00023.png</t>
+  </si>
+  <si>
+    <t>Asset0_00024.png</t>
+  </si>
+  <si>
+    <t>Asset0_00025.png</t>
+  </si>
+  <si>
+    <t>Asset0_00026.png</t>
+  </si>
+  <si>
+    <t>Asset0_00027.png</t>
+  </si>
+  <si>
+    <t>Asset0_00028.png</t>
+  </si>
+  <si>
+    <t>Asset0_00029.png</t>
+  </si>
+  <si>
+    <t>Asset0_00030.png</t>
+  </si>
+  <si>
+    <t>Asset0_00031.png</t>
+  </si>
+  <si>
+    <t>Asset0_00032.png</t>
+  </si>
+  <si>
+    <t>Asset0_00033.png</t>
+  </si>
+  <si>
+    <t>Asset0_00034.png</t>
+  </si>
+  <si>
+    <t>Asset0_00035.png</t>
+  </si>
+  <si>
+    <t>Asset0_00036.png</t>
+  </si>
+  <si>
+    <t>Asset0_00037.png</t>
+  </si>
+  <si>
+    <t>Asset0_00038.png</t>
+  </si>
+  <si>
+    <t>Asset0_00039.png</t>
+  </si>
+  <si>
+    <t>Asset0_00040.png</t>
+  </si>
+  <si>
+    <t>Asset0_00041.png</t>
+  </si>
+  <si>
+    <t>Asset0_00042.png</t>
+  </si>
+  <si>
+    <t>Asset0_00043.png</t>
+  </si>
+  <si>
+    <t>Asset0_00044.png</t>
+  </si>
+  <si>
+    <t>Asset0_00045.png</t>
+  </si>
+  <si>
+    <t>Asset0_00046.png</t>
+  </si>
+  <si>
+    <t>Asset0_00047.png</t>
+  </si>
+  <si>
+    <t>Asset0_00048.png</t>
+  </si>
+  <si>
+    <t>Asset0_00049.png</t>
+  </si>
+  <si>
+    <t>Asset0_00050.png</t>
+  </si>
+  <si>
+    <t>Asset0_00051.png</t>
+  </si>
+  <si>
+    <t>Asset0_00052.png</t>
+  </si>
+  <si>
+    <t>Asset0_00053.png</t>
+  </si>
+  <si>
+    <t>Asset0_00054.png</t>
+  </si>
+  <si>
+    <t>Asset0_00055.png</t>
+  </si>
+  <si>
+    <t>Asset0_00056.png</t>
+  </si>
+  <si>
+    <t>Asset0_00057.png</t>
+  </si>
+  <si>
+    <t>Asset0_00058.png</t>
+  </si>
+  <si>
+    <t>Asset0_00059.png</t>
+  </si>
+  <si>
+    <t>Asset0_00060.png</t>
+  </si>
+  <si>
+    <t>Asset0_00061.png</t>
+  </si>
+  <si>
+    <t>Asset0_00062.png</t>
+  </si>
+  <si>
+    <t>Asset0_00063.png</t>
+  </si>
+  <si>
+    <t>Asset0_00064.png</t>
+  </si>
+  <si>
+    <t>Asset0_00065.png</t>
+  </si>
+  <si>
+    <t>Asset0_00066.png</t>
+  </si>
+  <si>
+    <t>Asset0_00067.png</t>
+  </si>
+  <si>
+    <t>Asset0_00068.png</t>
+  </si>
+  <si>
+    <t>Asset0_00069.png</t>
+  </si>
+  <si>
+    <t>Asset0_00070.png</t>
+  </si>
+  <si>
+    <t>Asset0_00071.png</t>
+  </si>
+  <si>
+    <t>Asset0_00072.png</t>
+  </si>
+  <si>
+    <t>Asset0_00073.png</t>
+  </si>
+  <si>
+    <t>Asset0_00074.png</t>
+  </si>
+  <si>
+    <t>Asset0_00075.png</t>
+  </si>
+  <si>
+    <t>Asset0_00076.png</t>
+  </si>
+  <si>
+    <t>Asset0_00077.png</t>
+  </si>
+  <si>
+    <t>Asset0_00078.png</t>
+  </si>
+  <si>
+    <t>Asset0_00079.png</t>
+  </si>
+  <si>
+    <t>Asset0_00080.png</t>
+  </si>
+  <si>
+    <t>Asset0_00081.png</t>
+  </si>
+  <si>
+    <t>Asset0_00082.png</t>
+  </si>
+  <si>
+    <t>Asset0_00083.png</t>
+  </si>
+  <si>
+    <t>Asset0_00084.png</t>
+  </si>
+  <si>
+    <t>Asset0_00085.png</t>
+  </si>
+  <si>
+    <t>Asset0_00086.png</t>
+  </si>
+  <si>
+    <t>Asset0_00087.png</t>
+  </si>
+  <si>
+    <t>Asset0_00088.png</t>
+  </si>
+  <si>
+    <t>Asset0_00089.png</t>
+  </si>
+  <si>
+    <t>Asset0_00090.png</t>
+  </si>
+  <si>
+    <t>Asset0_00091.png</t>
+  </si>
+  <si>
+    <t>Asset0_00092.png</t>
+  </si>
+  <si>
+    <t>Asset0_00093.png</t>
+  </si>
+  <si>
+    <t>Asset0_00094.png</t>
+  </si>
+  <si>
+    <t>Asset0_00095.png</t>
+  </si>
+  <si>
+    <t>Asset0_00096.png</t>
+  </si>
+  <si>
+    <t>Asset0_00097.png</t>
+  </si>
+  <si>
+    <t>Asset0_00098.png</t>
+  </si>
+  <si>
+    <t>Asset0_00099.png</t>
+  </si>
+  <si>
+    <t>Asset0_00100.png</t>
+  </si>
+  <si>
+    <t>Asset0_00101.png</t>
+  </si>
+  <si>
+    <t>Asset0_00102.png</t>
+  </si>
+  <si>
+    <t>Asset0_00103.png</t>
+  </si>
+  <si>
+    <t>Asset0_00104.png</t>
+  </si>
+  <si>
+    <t>Asset0_00105.png</t>
+  </si>
+  <si>
+    <t>Asset0_00106.png</t>
+  </si>
+  <si>
+    <t>Asset0_00107.png</t>
+  </si>
+  <si>
+    <t>Asset0_00108.png</t>
+  </si>
+  <si>
+    <t>Asset0_00109.png</t>
+  </si>
+  <si>
+    <t>Asset0_00110.png</t>
+  </si>
+  <si>
+    <t>Asset0_00111.png</t>
+  </si>
+  <si>
+    <t>Asset0_00112.png</t>
+  </si>
+  <si>
+    <t>Asset0_00113.png</t>
+  </si>
+  <si>
+    <t>Asset0_00114.png</t>
+  </si>
+  <si>
+    <t>Asset0_00115.png</t>
+  </si>
+  <si>
+    <t>Asset0_00116.png</t>
+  </si>
+  <si>
+    <t>Asset0_00117.png</t>
+  </si>
+  <si>
+    <t>Asset0_00118.png</t>
+  </si>
+  <si>
+    <t>Asset0_00119.png</t>
+  </si>
+  <si>
+    <t>Asset0_00120.png</t>
+  </si>
+  <si>
+    <t>Asset0_00121.png</t>
+  </si>
+  <si>
+    <t>Asset0_00122.png</t>
+  </si>
+  <si>
+    <t>└──</t>
+  </si>
+  <si>
+    <t>Asset0_00123.png</t>
+  </si>
+  <si>
+    <t>blue1.png</t>
+  </si>
+  <si>
+    <t>blue2.png</t>
+  </si>
+  <si>
+    <t>boat_1_1.png</t>
+  </si>
+  <si>
+    <t>bridge_1_1.png</t>
+  </si>
+  <si>
+    <t>bridge_1_2.jpeg</t>
+  </si>
+  <si>
+    <t>bridge_1_3.png</t>
+  </si>
+  <si>
+    <t>embankment_1_1.png</t>
+  </si>
+  <si>
+    <t>embankment_1_10.png</t>
+  </si>
+  <si>
+    <t>embankment_1_11.png</t>
+  </si>
+  <si>
+    <t>embankment_1_2.png</t>
+  </si>
+  <si>
+    <t>embankment_1_3.png</t>
+  </si>
+  <si>
+    <t>embankment_1_4.png</t>
+  </si>
+  <si>
+    <t>embankment_1_5.png</t>
+  </si>
+  <si>
+    <t>embankment_1_6.png</t>
+  </si>
+  <si>
+    <t>embankment_1_7.png</t>
+  </si>
+  <si>
+    <t>embankment_1_8.png</t>
+  </si>
+  <si>
+    <t>embankment_1_9.png</t>
+  </si>
+  <si>
+    <t>prohibit.png</t>
+  </si>
+  <si>
+    <t>prohibit_human.png</t>
+  </si>
+  <si>
+    <t>river_1_1.png</t>
+  </si>
+  <si>
+    <t>river_1_2.png</t>
+  </si>
+  <si>
+    <t>river_1_3.png</t>
+  </si>
+  <si>
+    <t>river_1_4.png</t>
+  </si>
+  <si>
+    <t>river_1_5.png</t>
+  </si>
+  <si>
+    <t>river_1_6.png</t>
+  </si>
+  <si>
+    <t>river_1_7.png</t>
+  </si>
+  <si>
+    <t>river_1_8.png</t>
+  </si>
+  <si>
+    <t>river_2_1.png</t>
+  </si>
+  <si>
+    <t>river_2_10.png</t>
+  </si>
+  <si>
+    <t>river_2_2.png</t>
+  </si>
+  <si>
+    <t>river_2_3.png</t>
+  </si>
+  <si>
+    <t>river_2_4.png</t>
+  </si>
+  <si>
+    <t>river_2_5.png</t>
+  </si>
+  <si>
+    <t>river_2_6.png</t>
+  </si>
+  <si>
+    <t>river_2_7.png</t>
+  </si>
+  <si>
+    <t>river_2_8.png</t>
+  </si>
+  <si>
+    <t>river_2_9.png</t>
+  </si>
+  <si>
+    <t>rock_shore1.png</t>
+  </si>
+  <si>
+    <t>rock_shore10.png</t>
+  </si>
+  <si>
+    <t>rock_shore11.png</t>
+  </si>
+  <si>
+    <t>rock_shore12.png</t>
+  </si>
+  <si>
+    <t>rock_shore2.png</t>
+  </si>
+  <si>
+    <t>rock_shore3.png</t>
+  </si>
+  <si>
+    <t>rock_shore4.png</t>
+  </si>
+  <si>
+    <t>rock_shore5.png</t>
+  </si>
+  <si>
+    <t>rock_shore6.png</t>
+  </si>
+  <si>
+    <t>rock_shore7.png</t>
+  </si>
+  <si>
+    <t>rock_shore8.png</t>
+  </si>
+  <si>
+    <t>rock_shore9.png</t>
+  </si>
+  <si>
+    <t>tetora.png</t>
+  </si>
+  <si>
+    <t>trash.png</t>
+  </si>
+  <si>
+    <t>wakame.png</t>
+  </si>
+  <si>
+    <t>white_solt_water1.png</t>
+  </si>
+  <si>
+    <t>white_solt_water2.png</t>
+  </si>
+  <si>
+    <t>white_solt_water3.png</t>
+  </si>
+  <si>
+    <t>white_solt_water4.png</t>
+  </si>
+  <si>
+    <t>white_solt_water5.png</t>
+  </si>
+  <si>
+    <t>white_solt_water6.png</t>
+  </si>
+  <si>
+    <t>white_solt_water7.png</t>
+  </si>
+  <si>
+    <t>yellow_tail_fish.png</t>
+  </si>
+  <si>
+    <t>fileName</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -1925,7 +2488,7 @@
     <numFmt numFmtId="177" formatCode="yyyy"/>
     <numFmt numFmtId="178" formatCode="mm"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1969,6 +2532,12 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Menlo"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -2158,7 +2727,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2365,6 +2934,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -20589,27 +21161,30 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{687D7CDE-3391-9D46-8031-EC40E3D62D72}">
-  <dimension ref="B1:G160"/>
+  <dimension ref="B1:M188"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
+      <selection activeCell="C187" sqref="C187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="3" width="10.7109375" style="40"/>
-    <col min="4" max="4" width="1.7109375" style="42" customWidth="1"/>
-    <col min="5" max="5" width="7.140625" style="40" customWidth="1"/>
-    <col min="6" max="6" width="40.7109375" style="40" customWidth="1"/>
-    <col min="7" max="7" width="1.85546875" style="42" customWidth="1"/>
-    <col min="8" max="16384" width="10.7109375" style="40"/>
+    <col min="1" max="2" width="10.7109375" style="40"/>
+    <col min="3" max="3" width="26.7109375" style="40" customWidth="1"/>
+    <col min="4" max="4" width="8" style="40" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" style="40" customWidth="1"/>
+    <col min="6" max="6" width="1.7109375" style="42" customWidth="1"/>
+    <col min="7" max="7" width="7.140625" style="40" customWidth="1"/>
+    <col min="8" max="8" width="65.5703125" style="40" customWidth="1"/>
+    <col min="9" max="9" width="1.85546875" style="42" customWidth="1"/>
+    <col min="10" max="16384" width="10.7109375" style="40"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6">
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-    </row>
-    <row r="2" spans="2:6">
+    <row r="1" spans="2:13">
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+    </row>
+    <row r="2" spans="2:13">
       <c r="B2" s="40" t="s">
         <v>173</v>
       </c>
@@ -20617,1892 +21192,4820 @@
         <v>175</v>
       </c>
       <c r="E2" s="40" t="s">
+        <v>402</v>
+      </c>
+      <c r="G2" s="40" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="3" spans="2:6">
+    <row r="3" spans="2:13">
       <c r="B3" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C3" s="40">
-        <v>0</v>
-      </c>
-      <c r="F3" s="40" t="str">
-        <f>B3 &amp; "_" &amp; C3&amp;": "&amp;"require('./" &amp; B3 &amp; "/" &amp; B3 &amp; "_" &amp; C3 &amp; ".png'),"</f>
-        <v>Asset0_0: require('./Asset0/Asset0_0.png'),</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6">
+      <c r="C3" s="40" t="s">
+        <v>217</v>
+      </c>
+      <c r="D3" s="40">
+        <f t="shared" ref="D3:D66" si="0">SEARCH(".",C3,1)</f>
+        <v>13</v>
+      </c>
+      <c r="E3" s="40" t="str">
+        <f>LEFT(C3,D3-1)</f>
+        <v>Asset0_00000</v>
+      </c>
+      <c r="H3" s="40" t="str">
+        <f>E3&amp;": "&amp;"require('./" &amp; B3 &amp; "/" &amp; C3 &amp; "'),"</f>
+        <v>Asset0_00000: require('./Asset0/Asset0_00000.png'),</v>
+      </c>
+      <c r="L3" s="69" t="s">
+        <v>216</v>
+      </c>
+      <c r="M3" s="40" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13">
       <c r="B4" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C4" s="40">
-        <v>1</v>
-      </c>
-      <c r="F4" s="40" t="str">
-        <f t="shared" ref="F4:F67" si="0">B4 &amp; "_" &amp; C4&amp;": "&amp;"require('./" &amp; B4 &amp; "/" &amp; B4 &amp; "_" &amp; C4 &amp; ".png'),"</f>
-        <v>Asset0_1: require('./Asset0/Asset0_1.png'),</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6">
+      <c r="C4" s="40" t="s">
+        <v>218</v>
+      </c>
+      <c r="D4" s="40">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="E4" s="40" t="str">
+        <f t="shared" ref="E4:E67" si="1">LEFT(C4,D4-1)</f>
+        <v>Asset0_00001</v>
+      </c>
+      <c r="H4" s="40" t="str">
+        <f t="shared" ref="H4:H67" si="2">E4&amp;": "&amp;"require('./" &amp; B4 &amp; "/" &amp; C4 &amp; "'),"</f>
+        <v>Asset0_00001: require('./Asset0/Asset0_00001.png'),</v>
+      </c>
+      <c r="L4" s="69" t="s">
+        <v>216</v>
+      </c>
+      <c r="M4" s="40" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13">
       <c r="B5" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C5" s="40">
-        <v>2</v>
-      </c>
-      <c r="F5" s="40" t="str">
+      <c r="C5" s="40" t="s">
+        <v>219</v>
+      </c>
+      <c r="D5" s="40">
         <f t="shared" si="0"/>
-        <v>Asset0_2: require('./Asset0/Asset0_2.png'),</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6">
+        <v>13</v>
+      </c>
+      <c r="E5" s="40" t="str">
+        <f t="shared" si="1"/>
+        <v>Asset0_00002</v>
+      </c>
+      <c r="H5" s="40" t="str">
+        <f t="shared" si="2"/>
+        <v>Asset0_00002: require('./Asset0/Asset0_00002.png'),</v>
+      </c>
+      <c r="L5" s="69" t="s">
+        <v>216</v>
+      </c>
+      <c r="M5" s="40" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13">
       <c r="B6" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C6" s="40">
-        <v>3</v>
-      </c>
-      <c r="F6" s="40" t="str">
+      <c r="C6" s="40" t="s">
+        <v>220</v>
+      </c>
+      <c r="D6" s="40">
         <f t="shared" si="0"/>
-        <v>Asset0_3: require('./Asset0/Asset0_3.png'),</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6">
+        <v>13</v>
+      </c>
+      <c r="E6" s="40" t="str">
+        <f t="shared" si="1"/>
+        <v>Asset0_00003</v>
+      </c>
+      <c r="H6" s="40" t="str">
+        <f t="shared" si="2"/>
+        <v>Asset0_00003: require('./Asset0/Asset0_00003.png'),</v>
+      </c>
+      <c r="L6" s="69" t="s">
+        <v>216</v>
+      </c>
+      <c r="M6" s="40" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13">
       <c r="B7" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C7" s="40">
-        <v>4</v>
-      </c>
-      <c r="F7" s="40" t="str">
+      <c r="C7" s="40" t="s">
+        <v>221</v>
+      </c>
+      <c r="D7" s="40">
         <f t="shared" si="0"/>
-        <v>Asset0_4: require('./Asset0/Asset0_4.png'),</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6">
+        <v>13</v>
+      </c>
+      <c r="E7" s="40" t="str">
+        <f t="shared" si="1"/>
+        <v>Asset0_00004</v>
+      </c>
+      <c r="H7" s="40" t="str">
+        <f t="shared" si="2"/>
+        <v>Asset0_00004: require('./Asset0/Asset0_00004.png'),</v>
+      </c>
+      <c r="L7" s="69" t="s">
+        <v>216</v>
+      </c>
+      <c r="M7" s="40" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13">
       <c r="B8" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C8" s="40">
-        <v>5</v>
-      </c>
-      <c r="F8" s="40" t="str">
+      <c r="C8" s="40" t="s">
+        <v>222</v>
+      </c>
+      <c r="D8" s="40">
         <f t="shared" si="0"/>
-        <v>Asset0_5: require('./Asset0/Asset0_5.png'),</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6">
+        <v>13</v>
+      </c>
+      <c r="E8" s="40" t="str">
+        <f t="shared" si="1"/>
+        <v>Asset0_00005</v>
+      </c>
+      <c r="H8" s="40" t="str">
+        <f t="shared" si="2"/>
+        <v>Asset0_00005: require('./Asset0/Asset0_00005.png'),</v>
+      </c>
+      <c r="L8" s="69" t="s">
+        <v>216</v>
+      </c>
+      <c r="M8" s="40" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13">
       <c r="B9" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C9" s="40">
-        <v>6</v>
-      </c>
-      <c r="F9" s="40" t="str">
+      <c r="C9" s="40" t="s">
+        <v>223</v>
+      </c>
+      <c r="D9" s="40">
         <f t="shared" si="0"/>
-        <v>Asset0_6: require('./Asset0/Asset0_6.png'),</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6">
+        <v>13</v>
+      </c>
+      <c r="E9" s="40" t="str">
+        <f t="shared" si="1"/>
+        <v>Asset0_00006</v>
+      </c>
+      <c r="H9" s="40" t="str">
+        <f t="shared" si="2"/>
+        <v>Asset0_00006: require('./Asset0/Asset0_00006.png'),</v>
+      </c>
+      <c r="L9" s="69" t="s">
+        <v>216</v>
+      </c>
+      <c r="M9" s="40" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13">
       <c r="B10" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C10" s="40">
-        <v>7</v>
-      </c>
-      <c r="F10" s="40" t="str">
+      <c r="C10" s="40" t="s">
+        <v>224</v>
+      </c>
+      <c r="D10" s="40">
         <f t="shared" si="0"/>
-        <v>Asset0_7: require('./Asset0/Asset0_7.png'),</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6">
+        <v>13</v>
+      </c>
+      <c r="E10" s="40" t="str">
+        <f t="shared" si="1"/>
+        <v>Asset0_00007</v>
+      </c>
+      <c r="H10" s="40" t="str">
+        <f t="shared" si="2"/>
+        <v>Asset0_00007: require('./Asset0/Asset0_00007.png'),</v>
+      </c>
+      <c r="L10" s="69" t="s">
+        <v>216</v>
+      </c>
+      <c r="M10" s="40" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13">
       <c r="B11" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C11" s="40">
-        <v>8</v>
-      </c>
-      <c r="F11" s="40" t="str">
+      <c r="C11" s="40" t="s">
+        <v>225</v>
+      </c>
+      <c r="D11" s="40">
         <f t="shared" si="0"/>
-        <v>Asset0_8: require('./Asset0/Asset0_8.png'),</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6">
+        <v>13</v>
+      </c>
+      <c r="E11" s="40" t="str">
+        <f t="shared" si="1"/>
+        <v>Asset0_00008</v>
+      </c>
+      <c r="H11" s="40" t="str">
+        <f t="shared" si="2"/>
+        <v>Asset0_00008: require('./Asset0/Asset0_00008.png'),</v>
+      </c>
+      <c r="L11" s="69" t="s">
+        <v>216</v>
+      </c>
+      <c r="M11" s="40" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13">
       <c r="B12" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C12" s="40">
-        <v>9</v>
-      </c>
-      <c r="F12" s="40" t="str">
+      <c r="C12" s="40" t="s">
+        <v>226</v>
+      </c>
+      <c r="D12" s="40">
         <f t="shared" si="0"/>
-        <v>Asset0_9: require('./Asset0/Asset0_9.png'),</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6">
+        <v>13</v>
+      </c>
+      <c r="E12" s="40" t="str">
+        <f t="shared" si="1"/>
+        <v>Asset0_00009</v>
+      </c>
+      <c r="H12" s="40" t="str">
+        <f t="shared" si="2"/>
+        <v>Asset0_00009: require('./Asset0/Asset0_00009.png'),</v>
+      </c>
+      <c r="L12" s="69" t="s">
+        <v>216</v>
+      </c>
+      <c r="M12" s="40" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13">
       <c r="B13" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C13" s="40">
-        <v>10</v>
-      </c>
-      <c r="F13" s="40" t="str">
+      <c r="C13" s="40" t="s">
+        <v>227</v>
+      </c>
+      <c r="D13" s="40">
         <f t="shared" si="0"/>
-        <v>Asset0_10: require('./Asset0/Asset0_10.png'),</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6">
+        <v>13</v>
+      </c>
+      <c r="E13" s="40" t="str">
+        <f t="shared" si="1"/>
+        <v>Asset0_00010</v>
+      </c>
+      <c r="H13" s="40" t="str">
+        <f t="shared" si="2"/>
+        <v>Asset0_00010: require('./Asset0/Asset0_00010.png'),</v>
+      </c>
+      <c r="L13" s="69" t="s">
+        <v>216</v>
+      </c>
+      <c r="M13" s="40" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13">
       <c r="B14" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C14" s="40">
-        <v>11</v>
-      </c>
-      <c r="F14" s="40" t="str">
+      <c r="C14" s="40" t="s">
+        <v>228</v>
+      </c>
+      <c r="D14" s="40">
         <f t="shared" si="0"/>
-        <v>Asset0_11: require('./Asset0/Asset0_11.png'),</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6">
+        <v>13</v>
+      </c>
+      <c r="E14" s="40" t="str">
+        <f t="shared" si="1"/>
+        <v>Asset0_00011</v>
+      </c>
+      <c r="H14" s="40" t="str">
+        <f t="shared" si="2"/>
+        <v>Asset0_00011: require('./Asset0/Asset0_00011.png'),</v>
+      </c>
+      <c r="L14" s="69" t="s">
+        <v>216</v>
+      </c>
+      <c r="M14" s="40" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13">
       <c r="B15" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C15" s="40">
-        <v>12</v>
-      </c>
-      <c r="F15" s="40" t="str">
+      <c r="C15" s="40" t="s">
+        <v>229</v>
+      </c>
+      <c r="D15" s="40">
         <f t="shared" si="0"/>
-        <v>Asset0_12: require('./Asset0/Asset0_12.png'),</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6">
+        <v>13</v>
+      </c>
+      <c r="E15" s="40" t="str">
+        <f t="shared" si="1"/>
+        <v>Asset0_00012</v>
+      </c>
+      <c r="H15" s="40" t="str">
+        <f t="shared" si="2"/>
+        <v>Asset0_00012: require('./Asset0/Asset0_00012.png'),</v>
+      </c>
+      <c r="L15" s="69" t="s">
+        <v>216</v>
+      </c>
+      <c r="M15" s="40" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13">
       <c r="B16" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C16" s="40">
+      <c r="C16" s="40" t="s">
+        <v>230</v>
+      </c>
+      <c r="D16" s="40">
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="F16" s="40" t="str">
-        <f t="shared" si="0"/>
-        <v>Asset0_13: require('./Asset0/Asset0_13.png'),</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6">
+      <c r="E16" s="40" t="str">
+        <f t="shared" si="1"/>
+        <v>Asset0_00013</v>
+      </c>
+      <c r="H16" s="40" t="str">
+        <f t="shared" si="2"/>
+        <v>Asset0_00013: require('./Asset0/Asset0_00013.png'),</v>
+      </c>
+      <c r="L16" s="69" t="s">
+        <v>216</v>
+      </c>
+      <c r="M16" s="40" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13">
       <c r="B17" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C17" s="40">
-        <v>14</v>
-      </c>
-      <c r="F17" s="40" t="str">
+      <c r="C17" s="40" t="s">
+        <v>231</v>
+      </c>
+      <c r="D17" s="40">
         <f t="shared" si="0"/>
-        <v>Asset0_14: require('./Asset0/Asset0_14.png'),</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6">
+        <v>13</v>
+      </c>
+      <c r="E17" s="40" t="str">
+        <f t="shared" si="1"/>
+        <v>Asset0_00014</v>
+      </c>
+      <c r="H17" s="40" t="str">
+        <f t="shared" si="2"/>
+        <v>Asset0_00014: require('./Asset0/Asset0_00014.png'),</v>
+      </c>
+      <c r="L17" s="69" t="s">
+        <v>216</v>
+      </c>
+      <c r="M17" s="40" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13">
       <c r="B18" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C18" s="40">
-        <v>15</v>
-      </c>
-      <c r="F18" s="40" t="str">
+      <c r="C18" s="40" t="s">
+        <v>232</v>
+      </c>
+      <c r="D18" s="40">
         <f t="shared" si="0"/>
-        <v>Asset0_15: require('./Asset0/Asset0_15.png'),</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6">
+        <v>13</v>
+      </c>
+      <c r="E18" s="40" t="str">
+        <f t="shared" si="1"/>
+        <v>Asset0_00015</v>
+      </c>
+      <c r="H18" s="40" t="str">
+        <f t="shared" si="2"/>
+        <v>Asset0_00015: require('./Asset0/Asset0_00015.png'),</v>
+      </c>
+      <c r="L18" s="69" t="s">
+        <v>216</v>
+      </c>
+      <c r="M18" s="40" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13">
       <c r="B19" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C19" s="40">
-        <v>16</v>
-      </c>
-      <c r="F19" s="40" t="str">
+      <c r="C19" s="40" t="s">
+        <v>233</v>
+      </c>
+      <c r="D19" s="40">
         <f t="shared" si="0"/>
-        <v>Asset0_16: require('./Asset0/Asset0_16.png'),</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6">
+        <v>13</v>
+      </c>
+      <c r="E19" s="40" t="str">
+        <f t="shared" si="1"/>
+        <v>Asset0_00016</v>
+      </c>
+      <c r="H19" s="40" t="str">
+        <f t="shared" si="2"/>
+        <v>Asset0_00016: require('./Asset0/Asset0_00016.png'),</v>
+      </c>
+      <c r="L19" s="69" t="s">
+        <v>216</v>
+      </c>
+      <c r="M19" s="40" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13">
       <c r="B20" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C20" s="40">
-        <v>17</v>
-      </c>
-      <c r="F20" s="40" t="str">
+      <c r="C20" s="40" t="s">
+        <v>234</v>
+      </c>
+      <c r="D20" s="40">
         <f t="shared" si="0"/>
-        <v>Asset0_17: require('./Asset0/Asset0_17.png'),</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6">
+        <v>13</v>
+      </c>
+      <c r="E20" s="40" t="str">
+        <f t="shared" si="1"/>
+        <v>Asset0_00017</v>
+      </c>
+      <c r="H20" s="40" t="str">
+        <f t="shared" si="2"/>
+        <v>Asset0_00017: require('./Asset0/Asset0_00017.png'),</v>
+      </c>
+      <c r="L20" s="69" t="s">
+        <v>216</v>
+      </c>
+      <c r="M20" s="40" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13">
       <c r="B21" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C21" s="40">
-        <v>18</v>
-      </c>
-      <c r="F21" s="40" t="str">
+      <c r="C21" s="40" t="s">
+        <v>235</v>
+      </c>
+      <c r="D21" s="40">
         <f t="shared" si="0"/>
-        <v>Asset0_18: require('./Asset0/Asset0_18.png'),</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6">
+        <v>13</v>
+      </c>
+      <c r="E21" s="40" t="str">
+        <f t="shared" si="1"/>
+        <v>Asset0_00018</v>
+      </c>
+      <c r="H21" s="40" t="str">
+        <f t="shared" si="2"/>
+        <v>Asset0_00018: require('./Asset0/Asset0_00018.png'),</v>
+      </c>
+      <c r="L21" s="69" t="s">
+        <v>216</v>
+      </c>
+      <c r="M21" s="40" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13">
       <c r="B22" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C22" s="40">
-        <v>19</v>
-      </c>
-      <c r="F22" s="40" t="str">
+      <c r="C22" s="40" t="s">
+        <v>236</v>
+      </c>
+      <c r="D22" s="40">
         <f t="shared" si="0"/>
-        <v>Asset0_19: require('./Asset0/Asset0_19.png'),</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6">
+        <v>13</v>
+      </c>
+      <c r="E22" s="40" t="str">
+        <f t="shared" si="1"/>
+        <v>Asset0_00019</v>
+      </c>
+      <c r="H22" s="40" t="str">
+        <f t="shared" si="2"/>
+        <v>Asset0_00019: require('./Asset0/Asset0_00019.png'),</v>
+      </c>
+      <c r="L22" s="69" t="s">
+        <v>216</v>
+      </c>
+      <c r="M22" s="40" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13">
       <c r="B23" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C23" s="40">
-        <v>20</v>
-      </c>
-      <c r="F23" s="40" t="str">
+      <c r="C23" s="40" t="s">
+        <v>237</v>
+      </c>
+      <c r="D23" s="40">
         <f t="shared" si="0"/>
-        <v>Asset0_20: require('./Asset0/Asset0_20.png'),</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6">
+        <v>13</v>
+      </c>
+      <c r="E23" s="40" t="str">
+        <f t="shared" si="1"/>
+        <v>Asset0_00020</v>
+      </c>
+      <c r="H23" s="40" t="str">
+        <f t="shared" si="2"/>
+        <v>Asset0_00020: require('./Asset0/Asset0_00020.png'),</v>
+      </c>
+      <c r="L23" s="69" t="s">
+        <v>216</v>
+      </c>
+      <c r="M23" s="40" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13">
       <c r="B24" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C24" s="40">
-        <v>21</v>
-      </c>
-      <c r="F24" s="40" t="str">
+      <c r="C24" s="40" t="s">
+        <v>238</v>
+      </c>
+      <c r="D24" s="40">
         <f t="shared" si="0"/>
-        <v>Asset0_21: require('./Asset0/Asset0_21.png'),</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6">
+        <v>13</v>
+      </c>
+      <c r="E24" s="40" t="str">
+        <f t="shared" si="1"/>
+        <v>Asset0_00021</v>
+      </c>
+      <c r="H24" s="40" t="str">
+        <f t="shared" si="2"/>
+        <v>Asset0_00021: require('./Asset0/Asset0_00021.png'),</v>
+      </c>
+      <c r="L24" s="69" t="s">
+        <v>216</v>
+      </c>
+      <c r="M24" s="40" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13">
       <c r="B25" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C25" s="40">
-        <v>22</v>
-      </c>
-      <c r="F25" s="40" t="str">
+      <c r="C25" s="40" t="s">
+        <v>239</v>
+      </c>
+      <c r="D25" s="40">
         <f t="shared" si="0"/>
-        <v>Asset0_22: require('./Asset0/Asset0_22.png'),</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6">
+        <v>13</v>
+      </c>
+      <c r="E25" s="40" t="str">
+        <f t="shared" si="1"/>
+        <v>Asset0_00022</v>
+      </c>
+      <c r="H25" s="40" t="str">
+        <f t="shared" si="2"/>
+        <v>Asset0_00022: require('./Asset0/Asset0_00022.png'),</v>
+      </c>
+      <c r="L25" s="69" t="s">
+        <v>216</v>
+      </c>
+      <c r="M25" s="40" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13">
       <c r="B26" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C26" s="40">
-        <v>23</v>
-      </c>
-      <c r="F26" s="40" t="str">
+      <c r="C26" s="40" t="s">
+        <v>240</v>
+      </c>
+      <c r="D26" s="40">
         <f t="shared" si="0"/>
-        <v>Asset0_23: require('./Asset0/Asset0_23.png'),</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6">
+        <v>13</v>
+      </c>
+      <c r="E26" s="40" t="str">
+        <f t="shared" si="1"/>
+        <v>Asset0_00023</v>
+      </c>
+      <c r="H26" s="40" t="str">
+        <f t="shared" si="2"/>
+        <v>Asset0_00023: require('./Asset0/Asset0_00023.png'),</v>
+      </c>
+      <c r="L26" s="69" t="s">
+        <v>216</v>
+      </c>
+      <c r="M26" s="40" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13">
       <c r="B27" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C27" s="40">
-        <v>24</v>
-      </c>
-      <c r="F27" s="40" t="str">
+      <c r="C27" s="40" t="s">
+        <v>241</v>
+      </c>
+      <c r="D27" s="40">
         <f t="shared" si="0"/>
-        <v>Asset0_24: require('./Asset0/Asset0_24.png'),</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6">
+        <v>13</v>
+      </c>
+      <c r="E27" s="40" t="str">
+        <f t="shared" si="1"/>
+        <v>Asset0_00024</v>
+      </c>
+      <c r="H27" s="40" t="str">
+        <f t="shared" si="2"/>
+        <v>Asset0_00024: require('./Asset0/Asset0_00024.png'),</v>
+      </c>
+      <c r="L27" s="69" t="s">
+        <v>216</v>
+      </c>
+      <c r="M27" s="40" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13">
       <c r="B28" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C28" s="40">
-        <v>25</v>
-      </c>
-      <c r="F28" s="40" t="str">
+      <c r="C28" s="40" t="s">
+        <v>242</v>
+      </c>
+      <c r="D28" s="40">
         <f t="shared" si="0"/>
-        <v>Asset0_25: require('./Asset0/Asset0_25.png'),</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6">
+        <v>13</v>
+      </c>
+      <c r="E28" s="40" t="str">
+        <f t="shared" si="1"/>
+        <v>Asset0_00025</v>
+      </c>
+      <c r="H28" s="40" t="str">
+        <f t="shared" si="2"/>
+        <v>Asset0_00025: require('./Asset0/Asset0_00025.png'),</v>
+      </c>
+      <c r="L28" s="69" t="s">
+        <v>216</v>
+      </c>
+      <c r="M28" s="40" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13">
       <c r="B29" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C29" s="40">
-        <v>26</v>
-      </c>
-      <c r="F29" s="40" t="str">
+      <c r="C29" s="40" t="s">
+        <v>243</v>
+      </c>
+      <c r="D29" s="40">
         <f t="shared" si="0"/>
-        <v>Asset0_26: require('./Asset0/Asset0_26.png'),</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6">
+        <v>13</v>
+      </c>
+      <c r="E29" s="40" t="str">
+        <f t="shared" si="1"/>
+        <v>Asset0_00026</v>
+      </c>
+      <c r="H29" s="40" t="str">
+        <f t="shared" si="2"/>
+        <v>Asset0_00026: require('./Asset0/Asset0_00026.png'),</v>
+      </c>
+      <c r="L29" s="69" t="s">
+        <v>216</v>
+      </c>
+      <c r="M29" s="40" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13">
       <c r="B30" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C30" s="40">
-        <v>27</v>
-      </c>
-      <c r="F30" s="40" t="str">
+      <c r="C30" s="40" t="s">
+        <v>244</v>
+      </c>
+      <c r="D30" s="40">
         <f t="shared" si="0"/>
-        <v>Asset0_27: require('./Asset0/Asset0_27.png'),</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6">
+        <v>13</v>
+      </c>
+      <c r="E30" s="40" t="str">
+        <f t="shared" si="1"/>
+        <v>Asset0_00027</v>
+      </c>
+      <c r="H30" s="40" t="str">
+        <f t="shared" si="2"/>
+        <v>Asset0_00027: require('./Asset0/Asset0_00027.png'),</v>
+      </c>
+      <c r="L30" s="69" t="s">
+        <v>216</v>
+      </c>
+      <c r="M30" s="40" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13">
       <c r="B31" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C31" s="40">
-        <v>28</v>
-      </c>
-      <c r="F31" s="40" t="str">
+      <c r="C31" s="40" t="s">
+        <v>245</v>
+      </c>
+      <c r="D31" s="40">
         <f t="shared" si="0"/>
-        <v>Asset0_28: require('./Asset0/Asset0_28.png'),</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6">
+        <v>13</v>
+      </c>
+      <c r="E31" s="40" t="str">
+        <f t="shared" si="1"/>
+        <v>Asset0_00028</v>
+      </c>
+      <c r="H31" s="40" t="str">
+        <f t="shared" si="2"/>
+        <v>Asset0_00028: require('./Asset0/Asset0_00028.png'),</v>
+      </c>
+      <c r="L31" s="69" t="s">
+        <v>216</v>
+      </c>
+      <c r="M31" s="40" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13">
       <c r="B32" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C32" s="40">
-        <v>29</v>
-      </c>
-      <c r="F32" s="40" t="str">
+      <c r="C32" s="40" t="s">
+        <v>246</v>
+      </c>
+      <c r="D32" s="40">
         <f t="shared" si="0"/>
-        <v>Asset0_29: require('./Asset0/Asset0_29.png'),</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6">
+        <v>13</v>
+      </c>
+      <c r="E32" s="40" t="str">
+        <f t="shared" si="1"/>
+        <v>Asset0_00029</v>
+      </c>
+      <c r="H32" s="40" t="str">
+        <f t="shared" si="2"/>
+        <v>Asset0_00029: require('./Asset0/Asset0_00029.png'),</v>
+      </c>
+      <c r="L32" s="69" t="s">
+        <v>216</v>
+      </c>
+      <c r="M32" s="40" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13">
       <c r="B33" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C33" s="40">
-        <v>30</v>
-      </c>
-      <c r="F33" s="40" t="str">
+      <c r="C33" s="40" t="s">
+        <v>247</v>
+      </c>
+      <c r="D33" s="40">
         <f t="shared" si="0"/>
-        <v>Asset0_30: require('./Asset0/Asset0_30.png'),</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6">
+        <v>13</v>
+      </c>
+      <c r="E33" s="40" t="str">
+        <f t="shared" si="1"/>
+        <v>Asset0_00030</v>
+      </c>
+      <c r="H33" s="40" t="str">
+        <f t="shared" si="2"/>
+        <v>Asset0_00030: require('./Asset0/Asset0_00030.png'),</v>
+      </c>
+      <c r="L33" s="69" t="s">
+        <v>216</v>
+      </c>
+      <c r="M33" s="40" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13">
       <c r="B34" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C34" s="40">
-        <v>31</v>
-      </c>
-      <c r="F34" s="40" t="str">
+      <c r="C34" s="40" t="s">
+        <v>248</v>
+      </c>
+      <c r="D34" s="40">
         <f t="shared" si="0"/>
-        <v>Asset0_31: require('./Asset0/Asset0_31.png'),</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6">
+        <v>13</v>
+      </c>
+      <c r="E34" s="40" t="str">
+        <f t="shared" si="1"/>
+        <v>Asset0_00031</v>
+      </c>
+      <c r="H34" s="40" t="str">
+        <f t="shared" si="2"/>
+        <v>Asset0_00031: require('./Asset0/Asset0_00031.png'),</v>
+      </c>
+      <c r="L34" s="69" t="s">
+        <v>216</v>
+      </c>
+      <c r="M34" s="40" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13">
       <c r="B35" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C35" s="40">
-        <v>32</v>
-      </c>
-      <c r="F35" s="40" t="str">
+      <c r="C35" s="40" t="s">
+        <v>249</v>
+      </c>
+      <c r="D35" s="40">
         <f t="shared" si="0"/>
-        <v>Asset0_32: require('./Asset0/Asset0_32.png'),</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6">
+        <v>13</v>
+      </c>
+      <c r="E35" s="40" t="str">
+        <f t="shared" si="1"/>
+        <v>Asset0_00032</v>
+      </c>
+      <c r="H35" s="40" t="str">
+        <f t="shared" si="2"/>
+        <v>Asset0_00032: require('./Asset0/Asset0_00032.png'),</v>
+      </c>
+      <c r="L35" s="69" t="s">
+        <v>216</v>
+      </c>
+      <c r="M35" s="40" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13">
       <c r="B36" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C36" s="40">
-        <v>33</v>
-      </c>
-      <c r="F36" s="40" t="str">
+      <c r="C36" s="40" t="s">
+        <v>250</v>
+      </c>
+      <c r="D36" s="40">
         <f t="shared" si="0"/>
-        <v>Asset0_33: require('./Asset0/Asset0_33.png'),</v>
-      </c>
-    </row>
-    <row r="37" spans="2:6">
+        <v>13</v>
+      </c>
+      <c r="E36" s="40" t="str">
+        <f t="shared" si="1"/>
+        <v>Asset0_00033</v>
+      </c>
+      <c r="H36" s="40" t="str">
+        <f t="shared" si="2"/>
+        <v>Asset0_00033: require('./Asset0/Asset0_00033.png'),</v>
+      </c>
+      <c r="L36" s="69" t="s">
+        <v>216</v>
+      </c>
+      <c r="M36" s="40" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13">
       <c r="B37" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C37" s="40">
-        <v>34</v>
-      </c>
-      <c r="F37" s="40" t="str">
+      <c r="C37" s="40" t="s">
+        <v>251</v>
+      </c>
+      <c r="D37" s="40">
         <f t="shared" si="0"/>
-        <v>Asset0_34: require('./Asset0/Asset0_34.png'),</v>
-      </c>
-    </row>
-    <row r="38" spans="2:6">
+        <v>13</v>
+      </c>
+      <c r="E37" s="40" t="str">
+        <f t="shared" si="1"/>
+        <v>Asset0_00034</v>
+      </c>
+      <c r="H37" s="40" t="str">
+        <f t="shared" si="2"/>
+        <v>Asset0_00034: require('./Asset0/Asset0_00034.png'),</v>
+      </c>
+      <c r="L37" s="69" t="s">
+        <v>216</v>
+      </c>
+      <c r="M37" s="40" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13">
       <c r="B38" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C38" s="40">
-        <v>35</v>
-      </c>
-      <c r="F38" s="40" t="str">
+      <c r="C38" s="40" t="s">
+        <v>252</v>
+      </c>
+      <c r="D38" s="40">
         <f t="shared" si="0"/>
-        <v>Asset0_35: require('./Asset0/Asset0_35.png'),</v>
-      </c>
-    </row>
-    <row r="39" spans="2:6">
+        <v>13</v>
+      </c>
+      <c r="E38" s="40" t="str">
+        <f t="shared" si="1"/>
+        <v>Asset0_00035</v>
+      </c>
+      <c r="H38" s="40" t="str">
+        <f t="shared" si="2"/>
+        <v>Asset0_00035: require('./Asset0/Asset0_00035.png'),</v>
+      </c>
+      <c r="L38" s="69" t="s">
+        <v>216</v>
+      </c>
+      <c r="M38" s="40" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13">
       <c r="B39" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C39" s="40">
-        <v>36</v>
-      </c>
-      <c r="F39" s="40" t="str">
+      <c r="C39" s="40" t="s">
+        <v>253</v>
+      </c>
+      <c r="D39" s="40">
         <f t="shared" si="0"/>
-        <v>Asset0_36: require('./Asset0/Asset0_36.png'),</v>
-      </c>
-    </row>
-    <row r="40" spans="2:6">
+        <v>13</v>
+      </c>
+      <c r="E39" s="40" t="str">
+        <f t="shared" si="1"/>
+        <v>Asset0_00036</v>
+      </c>
+      <c r="H39" s="40" t="str">
+        <f t="shared" si="2"/>
+        <v>Asset0_00036: require('./Asset0/Asset0_00036.png'),</v>
+      </c>
+      <c r="L39" s="69" t="s">
+        <v>216</v>
+      </c>
+      <c r="M39" s="40" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="40" spans="2:13">
       <c r="B40" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C40" s="40">
-        <v>37</v>
-      </c>
-      <c r="F40" s="40" t="str">
+      <c r="C40" s="40" t="s">
+        <v>254</v>
+      </c>
+      <c r="D40" s="40">
         <f t="shared" si="0"/>
-        <v>Asset0_37: require('./Asset0/Asset0_37.png'),</v>
-      </c>
-    </row>
-    <row r="41" spans="2:6">
+        <v>13</v>
+      </c>
+      <c r="E40" s="40" t="str">
+        <f t="shared" si="1"/>
+        <v>Asset0_00037</v>
+      </c>
+      <c r="H40" s="40" t="str">
+        <f t="shared" si="2"/>
+        <v>Asset0_00037: require('./Asset0/Asset0_00037.png'),</v>
+      </c>
+      <c r="L40" s="69" t="s">
+        <v>216</v>
+      </c>
+      <c r="M40" s="40" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13">
       <c r="B41" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C41" s="40">
-        <v>38</v>
-      </c>
-      <c r="F41" s="40" t="str">
+      <c r="C41" s="40" t="s">
+        <v>255</v>
+      </c>
+      <c r="D41" s="40">
         <f t="shared" si="0"/>
-        <v>Asset0_38: require('./Asset0/Asset0_38.png'),</v>
-      </c>
-    </row>
-    <row r="42" spans="2:6">
+        <v>13</v>
+      </c>
+      <c r="E41" s="40" t="str">
+        <f t="shared" si="1"/>
+        <v>Asset0_00038</v>
+      </c>
+      <c r="H41" s="40" t="str">
+        <f t="shared" si="2"/>
+        <v>Asset0_00038: require('./Asset0/Asset0_00038.png'),</v>
+      </c>
+      <c r="L41" s="69" t="s">
+        <v>216</v>
+      </c>
+      <c r="M41" s="40" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13">
       <c r="B42" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C42" s="40">
-        <v>39</v>
-      </c>
-      <c r="F42" s="40" t="str">
+      <c r="C42" s="40" t="s">
+        <v>256</v>
+      </c>
+      <c r="D42" s="40">
         <f t="shared" si="0"/>
-        <v>Asset0_39: require('./Asset0/Asset0_39.png'),</v>
-      </c>
-    </row>
-    <row r="43" spans="2:6">
+        <v>13</v>
+      </c>
+      <c r="E42" s="40" t="str">
+        <f t="shared" si="1"/>
+        <v>Asset0_00039</v>
+      </c>
+      <c r="H42" s="40" t="str">
+        <f t="shared" si="2"/>
+        <v>Asset0_00039: require('./Asset0/Asset0_00039.png'),</v>
+      </c>
+      <c r="L42" s="69" t="s">
+        <v>216</v>
+      </c>
+      <c r="M42" s="40" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13">
       <c r="B43" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C43" s="40">
-        <v>40</v>
-      </c>
-      <c r="F43" s="40" t="str">
+      <c r="C43" s="40" t="s">
+        <v>257</v>
+      </c>
+      <c r="D43" s="40">
         <f t="shared" si="0"/>
-        <v>Asset0_40: require('./Asset0/Asset0_40.png'),</v>
-      </c>
-    </row>
-    <row r="44" spans="2:6">
+        <v>13</v>
+      </c>
+      <c r="E43" s="40" t="str">
+        <f t="shared" si="1"/>
+        <v>Asset0_00040</v>
+      </c>
+      <c r="H43" s="40" t="str">
+        <f t="shared" si="2"/>
+        <v>Asset0_00040: require('./Asset0/Asset0_00040.png'),</v>
+      </c>
+      <c r="L43" s="69" t="s">
+        <v>216</v>
+      </c>
+      <c r="M43" s="40" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13">
       <c r="B44" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C44" s="40">
-        <v>41</v>
-      </c>
-      <c r="F44" s="40" t="str">
+      <c r="C44" s="40" t="s">
+        <v>258</v>
+      </c>
+      <c r="D44" s="40">
         <f t="shared" si="0"/>
-        <v>Asset0_41: require('./Asset0/Asset0_41.png'),</v>
-      </c>
-    </row>
-    <row r="45" spans="2:6">
+        <v>13</v>
+      </c>
+      <c r="E44" s="40" t="str">
+        <f t="shared" si="1"/>
+        <v>Asset0_00041</v>
+      </c>
+      <c r="H44" s="40" t="str">
+        <f t="shared" si="2"/>
+        <v>Asset0_00041: require('./Asset0/Asset0_00041.png'),</v>
+      </c>
+      <c r="L44" s="69" t="s">
+        <v>216</v>
+      </c>
+      <c r="M44" s="40" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13">
       <c r="B45" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C45" s="40">
-        <v>42</v>
-      </c>
-      <c r="F45" s="40" t="str">
+      <c r="C45" s="40" t="s">
+        <v>259</v>
+      </c>
+      <c r="D45" s="40">
         <f t="shared" si="0"/>
-        <v>Asset0_42: require('./Asset0/Asset0_42.png'),</v>
-      </c>
-    </row>
-    <row r="46" spans="2:6">
+        <v>13</v>
+      </c>
+      <c r="E45" s="40" t="str">
+        <f t="shared" si="1"/>
+        <v>Asset0_00042</v>
+      </c>
+      <c r="H45" s="40" t="str">
+        <f t="shared" si="2"/>
+        <v>Asset0_00042: require('./Asset0/Asset0_00042.png'),</v>
+      </c>
+      <c r="L45" s="69" t="s">
+        <v>216</v>
+      </c>
+      <c r="M45" s="40" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13">
       <c r="B46" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C46" s="40">
-        <v>43</v>
-      </c>
-      <c r="F46" s="40" t="str">
+      <c r="C46" s="40" t="s">
+        <v>260</v>
+      </c>
+      <c r="D46" s="40">
         <f t="shared" si="0"/>
-        <v>Asset0_43: require('./Asset0/Asset0_43.png'),</v>
-      </c>
-    </row>
-    <row r="47" spans="2:6">
+        <v>13</v>
+      </c>
+      <c r="E46" s="40" t="str">
+        <f t="shared" si="1"/>
+        <v>Asset0_00043</v>
+      </c>
+      <c r="H46" s="40" t="str">
+        <f t="shared" si="2"/>
+        <v>Asset0_00043: require('./Asset0/Asset0_00043.png'),</v>
+      </c>
+      <c r="L46" s="69" t="s">
+        <v>216</v>
+      </c>
+      <c r="M46" s="40" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13">
       <c r="B47" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C47" s="40">
-        <v>44</v>
-      </c>
-      <c r="F47" s="40" t="str">
+      <c r="C47" s="40" t="s">
+        <v>261</v>
+      </c>
+      <c r="D47" s="40">
         <f t="shared" si="0"/>
-        <v>Asset0_44: require('./Asset0/Asset0_44.png'),</v>
-      </c>
-    </row>
-    <row r="48" spans="2:6">
+        <v>13</v>
+      </c>
+      <c r="E47" s="40" t="str">
+        <f t="shared" si="1"/>
+        <v>Asset0_00044</v>
+      </c>
+      <c r="H47" s="40" t="str">
+        <f t="shared" si="2"/>
+        <v>Asset0_00044: require('./Asset0/Asset0_00044.png'),</v>
+      </c>
+      <c r="L47" s="69" t="s">
+        <v>216</v>
+      </c>
+      <c r="M47" s="40" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13">
       <c r="B48" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C48" s="40">
-        <v>45</v>
-      </c>
-      <c r="F48" s="40" t="str">
+      <c r="C48" s="40" t="s">
+        <v>262</v>
+      </c>
+      <c r="D48" s="40">
         <f t="shared" si="0"/>
-        <v>Asset0_45: require('./Asset0/Asset0_45.png'),</v>
-      </c>
-    </row>
-    <row r="49" spans="2:6">
+        <v>13</v>
+      </c>
+      <c r="E48" s="40" t="str">
+        <f t="shared" si="1"/>
+        <v>Asset0_00045</v>
+      </c>
+      <c r="H48" s="40" t="str">
+        <f t="shared" si="2"/>
+        <v>Asset0_00045: require('./Asset0/Asset0_00045.png'),</v>
+      </c>
+      <c r="L48" s="69" t="s">
+        <v>216</v>
+      </c>
+      <c r="M48" s="40" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="49" spans="2:13">
       <c r="B49" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C49" s="40">
-        <v>46</v>
-      </c>
-      <c r="F49" s="40" t="str">
+      <c r="C49" s="40" t="s">
+        <v>263</v>
+      </c>
+      <c r="D49" s="40">
         <f t="shared" si="0"/>
-        <v>Asset0_46: require('./Asset0/Asset0_46.png'),</v>
-      </c>
-    </row>
-    <row r="50" spans="2:6">
+        <v>13</v>
+      </c>
+      <c r="E49" s="40" t="str">
+        <f t="shared" si="1"/>
+        <v>Asset0_00046</v>
+      </c>
+      <c r="H49" s="40" t="str">
+        <f t="shared" si="2"/>
+        <v>Asset0_00046: require('./Asset0/Asset0_00046.png'),</v>
+      </c>
+      <c r="L49" s="69" t="s">
+        <v>216</v>
+      </c>
+      <c r="M49" s="40" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="50" spans="2:13">
       <c r="B50" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C50" s="40">
-        <v>47</v>
-      </c>
-      <c r="F50" s="40" t="str">
+      <c r="C50" s="40" t="s">
+        <v>264</v>
+      </c>
+      <c r="D50" s="40">
         <f t="shared" si="0"/>
-        <v>Asset0_47: require('./Asset0/Asset0_47.png'),</v>
-      </c>
-    </row>
-    <row r="51" spans="2:6">
+        <v>13</v>
+      </c>
+      <c r="E50" s="40" t="str">
+        <f t="shared" si="1"/>
+        <v>Asset0_00047</v>
+      </c>
+      <c r="H50" s="40" t="str">
+        <f t="shared" si="2"/>
+        <v>Asset0_00047: require('./Asset0/Asset0_00047.png'),</v>
+      </c>
+      <c r="L50" s="69" t="s">
+        <v>216</v>
+      </c>
+      <c r="M50" s="40" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="51" spans="2:13">
       <c r="B51" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C51" s="40">
-        <v>48</v>
-      </c>
-      <c r="F51" s="40" t="str">
+      <c r="C51" s="40" t="s">
+        <v>265</v>
+      </c>
+      <c r="D51" s="40">
         <f t="shared" si="0"/>
-        <v>Asset0_48: require('./Asset0/Asset0_48.png'),</v>
-      </c>
-    </row>
-    <row r="52" spans="2:6">
+        <v>13</v>
+      </c>
+      <c r="E51" s="40" t="str">
+        <f t="shared" si="1"/>
+        <v>Asset0_00048</v>
+      </c>
+      <c r="H51" s="40" t="str">
+        <f t="shared" si="2"/>
+        <v>Asset0_00048: require('./Asset0/Asset0_00048.png'),</v>
+      </c>
+      <c r="L51" s="69" t="s">
+        <v>216</v>
+      </c>
+      <c r="M51" s="40" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="52" spans="2:13">
       <c r="B52" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C52" s="40">
-        <v>49</v>
-      </c>
-      <c r="F52" s="40" t="str">
+      <c r="C52" s="40" t="s">
+        <v>266</v>
+      </c>
+      <c r="D52" s="40">
         <f t="shared" si="0"/>
-        <v>Asset0_49: require('./Asset0/Asset0_49.png'),</v>
-      </c>
-    </row>
-    <row r="53" spans="2:6">
+        <v>13</v>
+      </c>
+      <c r="E52" s="40" t="str">
+        <f t="shared" si="1"/>
+        <v>Asset0_00049</v>
+      </c>
+      <c r="H52" s="40" t="str">
+        <f t="shared" si="2"/>
+        <v>Asset0_00049: require('./Asset0/Asset0_00049.png'),</v>
+      </c>
+      <c r="L52" s="69" t="s">
+        <v>216</v>
+      </c>
+      <c r="M52" s="40" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="53" spans="2:13">
       <c r="B53" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C53" s="40">
-        <v>50</v>
-      </c>
-      <c r="F53" s="40" t="str">
+      <c r="C53" s="40" t="s">
+        <v>267</v>
+      </c>
+      <c r="D53" s="40">
         <f t="shared" si="0"/>
-        <v>Asset0_50: require('./Asset0/Asset0_50.png'),</v>
-      </c>
-    </row>
-    <row r="54" spans="2:6">
+        <v>13</v>
+      </c>
+      <c r="E53" s="40" t="str">
+        <f t="shared" si="1"/>
+        <v>Asset0_00050</v>
+      </c>
+      <c r="H53" s="40" t="str">
+        <f t="shared" si="2"/>
+        <v>Asset0_00050: require('./Asset0/Asset0_00050.png'),</v>
+      </c>
+      <c r="L53" s="69" t="s">
+        <v>216</v>
+      </c>
+      <c r="M53" s="40" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="54" spans="2:13">
       <c r="B54" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C54" s="40">
-        <v>51</v>
-      </c>
-      <c r="F54" s="40" t="str">
+      <c r="C54" s="40" t="s">
+        <v>268</v>
+      </c>
+      <c r="D54" s="40">
         <f t="shared" si="0"/>
-        <v>Asset0_51: require('./Asset0/Asset0_51.png'),</v>
-      </c>
-    </row>
-    <row r="55" spans="2:6">
+        <v>13</v>
+      </c>
+      <c r="E54" s="40" t="str">
+        <f t="shared" si="1"/>
+        <v>Asset0_00051</v>
+      </c>
+      <c r="H54" s="40" t="str">
+        <f t="shared" si="2"/>
+        <v>Asset0_00051: require('./Asset0/Asset0_00051.png'),</v>
+      </c>
+      <c r="L54" s="69" t="s">
+        <v>216</v>
+      </c>
+      <c r="M54" s="40" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="55" spans="2:13">
       <c r="B55" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C55" s="40">
-        <v>52</v>
-      </c>
-      <c r="F55" s="40" t="str">
+      <c r="C55" s="40" t="s">
+        <v>269</v>
+      </c>
+      <c r="D55" s="40">
         <f t="shared" si="0"/>
-        <v>Asset0_52: require('./Asset0/Asset0_52.png'),</v>
-      </c>
-    </row>
-    <row r="56" spans="2:6">
+        <v>13</v>
+      </c>
+      <c r="E55" s="40" t="str">
+        <f t="shared" si="1"/>
+        <v>Asset0_00052</v>
+      </c>
+      <c r="H55" s="40" t="str">
+        <f t="shared" si="2"/>
+        <v>Asset0_00052: require('./Asset0/Asset0_00052.png'),</v>
+      </c>
+      <c r="L55" s="69" t="s">
+        <v>216</v>
+      </c>
+      <c r="M55" s="40" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="56" spans="2:13">
       <c r="B56" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C56" s="40">
-        <v>53</v>
-      </c>
-      <c r="F56" s="40" t="str">
+      <c r="C56" s="40" t="s">
+        <v>270</v>
+      </c>
+      <c r="D56" s="40">
         <f t="shared" si="0"/>
-        <v>Asset0_53: require('./Asset0/Asset0_53.png'),</v>
-      </c>
-    </row>
-    <row r="57" spans="2:6">
+        <v>13</v>
+      </c>
+      <c r="E56" s="40" t="str">
+        <f t="shared" si="1"/>
+        <v>Asset0_00053</v>
+      </c>
+      <c r="H56" s="40" t="str">
+        <f t="shared" si="2"/>
+        <v>Asset0_00053: require('./Asset0/Asset0_00053.png'),</v>
+      </c>
+      <c r="L56" s="69" t="s">
+        <v>216</v>
+      </c>
+      <c r="M56" s="40" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="57" spans="2:13">
       <c r="B57" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C57" s="40">
-        <v>54</v>
-      </c>
-      <c r="F57" s="40" t="str">
+      <c r="C57" s="40" t="s">
+        <v>271</v>
+      </c>
+      <c r="D57" s="40">
         <f t="shared" si="0"/>
-        <v>Asset0_54: require('./Asset0/Asset0_54.png'),</v>
-      </c>
-    </row>
-    <row r="58" spans="2:6">
+        <v>13</v>
+      </c>
+      <c r="E57" s="40" t="str">
+        <f t="shared" si="1"/>
+        <v>Asset0_00054</v>
+      </c>
+      <c r="H57" s="40" t="str">
+        <f t="shared" si="2"/>
+        <v>Asset0_00054: require('./Asset0/Asset0_00054.png'),</v>
+      </c>
+      <c r="L57" s="69" t="s">
+        <v>216</v>
+      </c>
+      <c r="M57" s="40" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="58" spans="2:13">
       <c r="B58" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C58" s="40">
-        <v>55</v>
-      </c>
-      <c r="F58" s="40" t="str">
+      <c r="C58" s="40" t="s">
+        <v>272</v>
+      </c>
+      <c r="D58" s="40">
         <f t="shared" si="0"/>
-        <v>Asset0_55: require('./Asset0/Asset0_55.png'),</v>
-      </c>
-    </row>
-    <row r="59" spans="2:6">
+        <v>13</v>
+      </c>
+      <c r="E58" s="40" t="str">
+        <f t="shared" si="1"/>
+        <v>Asset0_00055</v>
+      </c>
+      <c r="H58" s="40" t="str">
+        <f t="shared" si="2"/>
+        <v>Asset0_00055: require('./Asset0/Asset0_00055.png'),</v>
+      </c>
+      <c r="L58" s="69" t="s">
+        <v>216</v>
+      </c>
+      <c r="M58" s="40" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="59" spans="2:13">
       <c r="B59" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C59" s="40">
-        <v>56</v>
-      </c>
-      <c r="F59" s="40" t="str">
+      <c r="C59" s="40" t="s">
+        <v>273</v>
+      </c>
+      <c r="D59" s="40">
         <f t="shared" si="0"/>
-        <v>Asset0_56: require('./Asset0/Asset0_56.png'),</v>
-      </c>
-    </row>
-    <row r="60" spans="2:6">
+        <v>13</v>
+      </c>
+      <c r="E59" s="40" t="str">
+        <f t="shared" si="1"/>
+        <v>Asset0_00056</v>
+      </c>
+      <c r="H59" s="40" t="str">
+        <f t="shared" si="2"/>
+        <v>Asset0_00056: require('./Asset0/Asset0_00056.png'),</v>
+      </c>
+      <c r="L59" s="69" t="s">
+        <v>216</v>
+      </c>
+      <c r="M59" s="40" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="60" spans="2:13">
       <c r="B60" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C60" s="40">
-        <v>57</v>
-      </c>
-      <c r="F60" s="40" t="str">
+      <c r="C60" s="40" t="s">
+        <v>274</v>
+      </c>
+      <c r="D60" s="40">
         <f t="shared" si="0"/>
-        <v>Asset0_57: require('./Asset0/Asset0_57.png'),</v>
-      </c>
-    </row>
-    <row r="61" spans="2:6">
+        <v>13</v>
+      </c>
+      <c r="E60" s="40" t="str">
+        <f t="shared" si="1"/>
+        <v>Asset0_00057</v>
+      </c>
+      <c r="H60" s="40" t="str">
+        <f t="shared" si="2"/>
+        <v>Asset0_00057: require('./Asset0/Asset0_00057.png'),</v>
+      </c>
+      <c r="L60" s="69" t="s">
+        <v>216</v>
+      </c>
+      <c r="M60" s="40" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="61" spans="2:13">
       <c r="B61" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C61" s="40">
-        <v>58</v>
-      </c>
-      <c r="F61" s="40" t="str">
+      <c r="C61" s="40" t="s">
+        <v>275</v>
+      </c>
+      <c r="D61" s="40">
         <f t="shared" si="0"/>
-        <v>Asset0_58: require('./Asset0/Asset0_58.png'),</v>
-      </c>
-    </row>
-    <row r="62" spans="2:6">
+        <v>13</v>
+      </c>
+      <c r="E61" s="40" t="str">
+        <f t="shared" si="1"/>
+        <v>Asset0_00058</v>
+      </c>
+      <c r="H61" s="40" t="str">
+        <f t="shared" si="2"/>
+        <v>Asset0_00058: require('./Asset0/Asset0_00058.png'),</v>
+      </c>
+      <c r="L61" s="69" t="s">
+        <v>216</v>
+      </c>
+      <c r="M61" s="40" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="62" spans="2:13">
       <c r="B62" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C62" s="40">
-        <v>59</v>
-      </c>
-      <c r="F62" s="40" t="str">
+      <c r="C62" s="40" t="s">
+        <v>276</v>
+      </c>
+      <c r="D62" s="40">
         <f t="shared" si="0"/>
-        <v>Asset0_59: require('./Asset0/Asset0_59.png'),</v>
-      </c>
-    </row>
-    <row r="63" spans="2:6">
+        <v>13</v>
+      </c>
+      <c r="E62" s="40" t="str">
+        <f t="shared" si="1"/>
+        <v>Asset0_00059</v>
+      </c>
+      <c r="H62" s="40" t="str">
+        <f t="shared" si="2"/>
+        <v>Asset0_00059: require('./Asset0/Asset0_00059.png'),</v>
+      </c>
+      <c r="L62" s="69" t="s">
+        <v>216</v>
+      </c>
+      <c r="M62" s="40" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="63" spans="2:13">
       <c r="B63" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C63" s="40">
-        <v>60</v>
-      </c>
-      <c r="F63" s="40" t="str">
+      <c r="C63" s="40" t="s">
+        <v>277</v>
+      </c>
+      <c r="D63" s="40">
         <f t="shared" si="0"/>
-        <v>Asset0_60: require('./Asset0/Asset0_60.png'),</v>
-      </c>
-    </row>
-    <row r="64" spans="2:6">
+        <v>13</v>
+      </c>
+      <c r="E63" s="40" t="str">
+        <f t="shared" si="1"/>
+        <v>Asset0_00060</v>
+      </c>
+      <c r="H63" s="40" t="str">
+        <f t="shared" si="2"/>
+        <v>Asset0_00060: require('./Asset0/Asset0_00060.png'),</v>
+      </c>
+      <c r="L63" s="69" t="s">
+        <v>216</v>
+      </c>
+      <c r="M63" s="40" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="64" spans="2:13">
       <c r="B64" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C64" s="40">
-        <v>61</v>
-      </c>
-      <c r="F64" s="40" t="str">
+      <c r="C64" s="40" t="s">
+        <v>278</v>
+      </c>
+      <c r="D64" s="40">
         <f t="shared" si="0"/>
-        <v>Asset0_61: require('./Asset0/Asset0_61.png'),</v>
-      </c>
-    </row>
-    <row r="65" spans="2:6">
+        <v>13</v>
+      </c>
+      <c r="E64" s="40" t="str">
+        <f t="shared" si="1"/>
+        <v>Asset0_00061</v>
+      </c>
+      <c r="H64" s="40" t="str">
+        <f t="shared" si="2"/>
+        <v>Asset0_00061: require('./Asset0/Asset0_00061.png'),</v>
+      </c>
+      <c r="L64" s="69" t="s">
+        <v>216</v>
+      </c>
+      <c r="M64" s="40" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13">
       <c r="B65" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C65" s="40">
-        <v>62</v>
-      </c>
-      <c r="F65" s="40" t="str">
+      <c r="C65" s="40" t="s">
+        <v>279</v>
+      </c>
+      <c r="D65" s="40">
         <f t="shared" si="0"/>
-        <v>Asset0_62: require('./Asset0/Asset0_62.png'),</v>
-      </c>
-    </row>
-    <row r="66" spans="2:6">
+        <v>13</v>
+      </c>
+      <c r="E65" s="40" t="str">
+        <f t="shared" si="1"/>
+        <v>Asset0_00062</v>
+      </c>
+      <c r="H65" s="40" t="str">
+        <f t="shared" si="2"/>
+        <v>Asset0_00062: require('./Asset0/Asset0_00062.png'),</v>
+      </c>
+      <c r="L65" s="69" t="s">
+        <v>216</v>
+      </c>
+      <c r="M65" s="40" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13">
       <c r="B66" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C66" s="40">
-        <v>63</v>
-      </c>
-      <c r="F66" s="40" t="str">
+      <c r="C66" s="40" t="s">
+        <v>280</v>
+      </c>
+      <c r="D66" s="40">
         <f t="shared" si="0"/>
-        <v>Asset0_63: require('./Asset0/Asset0_63.png'),</v>
-      </c>
-    </row>
-    <row r="67" spans="2:6">
+        <v>13</v>
+      </c>
+      <c r="E66" s="40" t="str">
+        <f t="shared" si="1"/>
+        <v>Asset0_00063</v>
+      </c>
+      <c r="H66" s="40" t="str">
+        <f t="shared" si="2"/>
+        <v>Asset0_00063: require('./Asset0/Asset0_00063.png'),</v>
+      </c>
+      <c r="L66" s="69" t="s">
+        <v>216</v>
+      </c>
+      <c r="M66" s="40" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13">
       <c r="B67" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C67" s="40">
-        <v>64</v>
-      </c>
-      <c r="F67" s="40" t="str">
-        <f t="shared" si="0"/>
-        <v>Asset0_64: require('./Asset0/Asset0_64.png'),</v>
-      </c>
-    </row>
-    <row r="68" spans="2:6">
+      <c r="C67" s="40" t="s">
+        <v>281</v>
+      </c>
+      <c r="D67" s="40">
+        <f t="shared" ref="D67:D130" si="3">SEARCH(".",C67,1)</f>
+        <v>13</v>
+      </c>
+      <c r="E67" s="40" t="str">
+        <f t="shared" si="1"/>
+        <v>Asset0_00064</v>
+      </c>
+      <c r="H67" s="40" t="str">
+        <f t="shared" si="2"/>
+        <v>Asset0_00064: require('./Asset0/Asset0_00064.png'),</v>
+      </c>
+      <c r="L67" s="69" t="s">
+        <v>216</v>
+      </c>
+      <c r="M67" s="40" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="68" spans="2:13">
       <c r="B68" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C68" s="40">
-        <v>65</v>
-      </c>
-      <c r="F68" s="40" t="str">
-        <f t="shared" ref="F68:F131" si="1">B68 &amp; "_" &amp; C68&amp;": "&amp;"require('./" &amp; B68 &amp; "/" &amp; B68 &amp; "_" &amp; C68 &amp; ".png'),"</f>
-        <v>Asset0_65: require('./Asset0/Asset0_65.png'),</v>
-      </c>
-    </row>
-    <row r="69" spans="2:6">
+      <c r="C68" s="40" t="s">
+        <v>282</v>
+      </c>
+      <c r="D68" s="40">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="E68" s="40" t="str">
+        <f t="shared" ref="E68:E131" si="4">LEFT(C68,D68-1)</f>
+        <v>Asset0_00065</v>
+      </c>
+      <c r="H68" s="40" t="str">
+        <f t="shared" ref="H68:H131" si="5">E68&amp;": "&amp;"require('./" &amp; B68 &amp; "/" &amp; C68 &amp; "'),"</f>
+        <v>Asset0_00065: require('./Asset0/Asset0_00065.png'),</v>
+      </c>
+      <c r="L68" s="69" t="s">
+        <v>216</v>
+      </c>
+      <c r="M68" s="40" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13">
       <c r="B69" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C69" s="40">
-        <v>66</v>
-      </c>
-      <c r="F69" s="40" t="str">
-        <f t="shared" si="1"/>
-        <v>Asset0_66: require('./Asset0/Asset0_66.png'),</v>
-      </c>
-    </row>
-    <row r="70" spans="2:6">
+      <c r="C69" s="40" t="s">
+        <v>283</v>
+      </c>
+      <c r="D69" s="40">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="E69" s="40" t="str">
+        <f t="shared" si="4"/>
+        <v>Asset0_00066</v>
+      </c>
+      <c r="H69" s="40" t="str">
+        <f t="shared" si="5"/>
+        <v>Asset0_00066: require('./Asset0/Asset0_00066.png'),</v>
+      </c>
+      <c r="L69" s="69" t="s">
+        <v>216</v>
+      </c>
+      <c r="M69" s="40" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13">
       <c r="B70" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C70" s="40">
-        <v>67</v>
-      </c>
-      <c r="F70" s="40" t="str">
-        <f t="shared" si="1"/>
-        <v>Asset0_67: require('./Asset0/Asset0_67.png'),</v>
-      </c>
-    </row>
-    <row r="71" spans="2:6">
+      <c r="C70" s="40" t="s">
+        <v>284</v>
+      </c>
+      <c r="D70" s="40">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="E70" s="40" t="str">
+        <f t="shared" si="4"/>
+        <v>Asset0_00067</v>
+      </c>
+      <c r="H70" s="40" t="str">
+        <f t="shared" si="5"/>
+        <v>Asset0_00067: require('./Asset0/Asset0_00067.png'),</v>
+      </c>
+      <c r="L70" s="69" t="s">
+        <v>216</v>
+      </c>
+      <c r="M70" s="40" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13">
       <c r="B71" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C71" s="40">
-        <v>68</v>
-      </c>
-      <c r="F71" s="40" t="str">
-        <f t="shared" si="1"/>
-        <v>Asset0_68: require('./Asset0/Asset0_68.png'),</v>
-      </c>
-    </row>
-    <row r="72" spans="2:6">
+      <c r="C71" s="40" t="s">
+        <v>285</v>
+      </c>
+      <c r="D71" s="40">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="E71" s="40" t="str">
+        <f t="shared" si="4"/>
+        <v>Asset0_00068</v>
+      </c>
+      <c r="H71" s="40" t="str">
+        <f t="shared" si="5"/>
+        <v>Asset0_00068: require('./Asset0/Asset0_00068.png'),</v>
+      </c>
+      <c r="L71" s="69" t="s">
+        <v>216</v>
+      </c>
+      <c r="M71" s="40" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13">
       <c r="B72" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C72" s="40">
-        <v>69</v>
-      </c>
-      <c r="F72" s="40" t="str">
-        <f t="shared" si="1"/>
-        <v>Asset0_69: require('./Asset0/Asset0_69.png'),</v>
-      </c>
-    </row>
-    <row r="73" spans="2:6">
+      <c r="C72" s="40" t="s">
+        <v>286</v>
+      </c>
+      <c r="D72" s="40">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="E72" s="40" t="str">
+        <f t="shared" si="4"/>
+        <v>Asset0_00069</v>
+      </c>
+      <c r="H72" s="40" t="str">
+        <f t="shared" si="5"/>
+        <v>Asset0_00069: require('./Asset0/Asset0_00069.png'),</v>
+      </c>
+      <c r="L72" s="69" t="s">
+        <v>216</v>
+      </c>
+      <c r="M72" s="40" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13">
       <c r="B73" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C73" s="40">
-        <v>70</v>
-      </c>
-      <c r="F73" s="40" t="str">
-        <f t="shared" si="1"/>
-        <v>Asset0_70: require('./Asset0/Asset0_70.png'),</v>
-      </c>
-    </row>
-    <row r="74" spans="2:6">
+      <c r="C73" s="40" t="s">
+        <v>287</v>
+      </c>
+      <c r="D73" s="40">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="E73" s="40" t="str">
+        <f t="shared" si="4"/>
+        <v>Asset0_00070</v>
+      </c>
+      <c r="H73" s="40" t="str">
+        <f t="shared" si="5"/>
+        <v>Asset0_00070: require('./Asset0/Asset0_00070.png'),</v>
+      </c>
+      <c r="L73" s="69" t="s">
+        <v>216</v>
+      </c>
+      <c r="M73" s="40" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13">
       <c r="B74" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C74" s="40">
-        <v>71</v>
-      </c>
-      <c r="F74" s="40" t="str">
-        <f t="shared" si="1"/>
-        <v>Asset0_71: require('./Asset0/Asset0_71.png'),</v>
-      </c>
-    </row>
-    <row r="75" spans="2:6">
+      <c r="C74" s="40" t="s">
+        <v>288</v>
+      </c>
+      <c r="D74" s="40">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="E74" s="40" t="str">
+        <f t="shared" si="4"/>
+        <v>Asset0_00071</v>
+      </c>
+      <c r="H74" s="40" t="str">
+        <f t="shared" si="5"/>
+        <v>Asset0_00071: require('./Asset0/Asset0_00071.png'),</v>
+      </c>
+      <c r="L74" s="69" t="s">
+        <v>216</v>
+      </c>
+      <c r="M74" s="40" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13">
       <c r="B75" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C75" s="40">
-        <v>72</v>
-      </c>
-      <c r="F75" s="40" t="str">
-        <f t="shared" si="1"/>
-        <v>Asset0_72: require('./Asset0/Asset0_72.png'),</v>
-      </c>
-    </row>
-    <row r="76" spans="2:6">
+      <c r="C75" s="40" t="s">
+        <v>289</v>
+      </c>
+      <c r="D75" s="40">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="E75" s="40" t="str">
+        <f t="shared" si="4"/>
+        <v>Asset0_00072</v>
+      </c>
+      <c r="H75" s="40" t="str">
+        <f t="shared" si="5"/>
+        <v>Asset0_00072: require('./Asset0/Asset0_00072.png'),</v>
+      </c>
+      <c r="L75" s="69" t="s">
+        <v>216</v>
+      </c>
+      <c r="M75" s="40" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13">
       <c r="B76" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C76" s="40">
-        <v>73</v>
-      </c>
-      <c r="F76" s="40" t="str">
-        <f t="shared" si="1"/>
-        <v>Asset0_73: require('./Asset0/Asset0_73.png'),</v>
-      </c>
-    </row>
-    <row r="77" spans="2:6">
+      <c r="C76" s="40" t="s">
+        <v>290</v>
+      </c>
+      <c r="D76" s="40">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="E76" s="40" t="str">
+        <f t="shared" si="4"/>
+        <v>Asset0_00073</v>
+      </c>
+      <c r="H76" s="40" t="str">
+        <f t="shared" si="5"/>
+        <v>Asset0_00073: require('./Asset0/Asset0_00073.png'),</v>
+      </c>
+      <c r="L76" s="69" t="s">
+        <v>216</v>
+      </c>
+      <c r="M76" s="40" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13">
       <c r="B77" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C77" s="40">
-        <v>74</v>
-      </c>
-      <c r="F77" s="40" t="str">
-        <f t="shared" si="1"/>
-        <v>Asset0_74: require('./Asset0/Asset0_74.png'),</v>
-      </c>
-    </row>
-    <row r="78" spans="2:6">
+      <c r="C77" s="40" t="s">
+        <v>291</v>
+      </c>
+      <c r="D77" s="40">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="E77" s="40" t="str">
+        <f t="shared" si="4"/>
+        <v>Asset0_00074</v>
+      </c>
+      <c r="H77" s="40" t="str">
+        <f t="shared" si="5"/>
+        <v>Asset0_00074: require('./Asset0/Asset0_00074.png'),</v>
+      </c>
+      <c r="L77" s="69" t="s">
+        <v>216</v>
+      </c>
+      <c r="M77" s="40" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="78" spans="2:13">
       <c r="B78" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C78" s="40">
-        <v>75</v>
-      </c>
-      <c r="F78" s="40" t="str">
-        <f t="shared" si="1"/>
-        <v>Asset0_75: require('./Asset0/Asset0_75.png'),</v>
-      </c>
-    </row>
-    <row r="79" spans="2:6">
+      <c r="C78" s="40" t="s">
+        <v>292</v>
+      </c>
+      <c r="D78" s="40">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="E78" s="40" t="str">
+        <f t="shared" si="4"/>
+        <v>Asset0_00075</v>
+      </c>
+      <c r="H78" s="40" t="str">
+        <f t="shared" si="5"/>
+        <v>Asset0_00075: require('./Asset0/Asset0_00075.png'),</v>
+      </c>
+      <c r="L78" s="69" t="s">
+        <v>216</v>
+      </c>
+      <c r="M78" s="40" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13">
       <c r="B79" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C79" s="40">
-        <v>76</v>
-      </c>
-      <c r="F79" s="40" t="str">
-        <f t="shared" si="1"/>
-        <v>Asset0_76: require('./Asset0/Asset0_76.png'),</v>
-      </c>
-    </row>
-    <row r="80" spans="2:6">
+      <c r="C79" s="40" t="s">
+        <v>293</v>
+      </c>
+      <c r="D79" s="40">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="E79" s="40" t="str">
+        <f t="shared" si="4"/>
+        <v>Asset0_00076</v>
+      </c>
+      <c r="H79" s="40" t="str">
+        <f t="shared" si="5"/>
+        <v>Asset0_00076: require('./Asset0/Asset0_00076.png'),</v>
+      </c>
+      <c r="L79" s="69" t="s">
+        <v>216</v>
+      </c>
+      <c r="M79" s="40" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="80" spans="2:13">
       <c r="B80" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C80" s="40">
-        <v>77</v>
-      </c>
-      <c r="F80" s="40" t="str">
-        <f t="shared" si="1"/>
-        <v>Asset0_77: require('./Asset0/Asset0_77.png'),</v>
-      </c>
-    </row>
-    <row r="81" spans="2:6">
+      <c r="C80" s="40" t="s">
+        <v>294</v>
+      </c>
+      <c r="D80" s="40">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="E80" s="40" t="str">
+        <f t="shared" si="4"/>
+        <v>Asset0_00077</v>
+      </c>
+      <c r="H80" s="40" t="str">
+        <f t="shared" si="5"/>
+        <v>Asset0_00077: require('./Asset0/Asset0_00077.png'),</v>
+      </c>
+      <c r="L80" s="69" t="s">
+        <v>216</v>
+      </c>
+      <c r="M80" s="40" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="81" spans="2:13">
       <c r="B81" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C81" s="40">
-        <v>78</v>
-      </c>
-      <c r="F81" s="40" t="str">
-        <f t="shared" si="1"/>
-        <v>Asset0_78: require('./Asset0/Asset0_78.png'),</v>
-      </c>
-    </row>
-    <row r="82" spans="2:6">
+      <c r="C81" s="40" t="s">
+        <v>295</v>
+      </c>
+      <c r="D81" s="40">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="E81" s="40" t="str">
+        <f t="shared" si="4"/>
+        <v>Asset0_00078</v>
+      </c>
+      <c r="H81" s="40" t="str">
+        <f t="shared" si="5"/>
+        <v>Asset0_00078: require('./Asset0/Asset0_00078.png'),</v>
+      </c>
+      <c r="L81" s="69" t="s">
+        <v>216</v>
+      </c>
+      <c r="M81" s="40" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="82" spans="2:13">
       <c r="B82" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C82" s="40">
-        <v>79</v>
-      </c>
-      <c r="F82" s="40" t="str">
-        <f t="shared" si="1"/>
-        <v>Asset0_79: require('./Asset0/Asset0_79.png'),</v>
-      </c>
-    </row>
-    <row r="83" spans="2:6">
+      <c r="C82" s="40" t="s">
+        <v>296</v>
+      </c>
+      <c r="D82" s="40">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="E82" s="40" t="str">
+        <f t="shared" si="4"/>
+        <v>Asset0_00079</v>
+      </c>
+      <c r="H82" s="40" t="str">
+        <f t="shared" si="5"/>
+        <v>Asset0_00079: require('./Asset0/Asset0_00079.png'),</v>
+      </c>
+      <c r="L82" s="69" t="s">
+        <v>216</v>
+      </c>
+      <c r="M82" s="40" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="83" spans="2:13">
       <c r="B83" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C83" s="40">
-        <v>80</v>
-      </c>
-      <c r="F83" s="40" t="str">
-        <f t="shared" si="1"/>
-        <v>Asset0_80: require('./Asset0/Asset0_80.png'),</v>
-      </c>
-    </row>
-    <row r="84" spans="2:6">
+      <c r="C83" s="40" t="s">
+        <v>297</v>
+      </c>
+      <c r="D83" s="40">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="E83" s="40" t="str">
+        <f t="shared" si="4"/>
+        <v>Asset0_00080</v>
+      </c>
+      <c r="H83" s="40" t="str">
+        <f t="shared" si="5"/>
+        <v>Asset0_00080: require('./Asset0/Asset0_00080.png'),</v>
+      </c>
+      <c r="L83" s="69" t="s">
+        <v>216</v>
+      </c>
+      <c r="M83" s="40" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="84" spans="2:13">
       <c r="B84" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C84" s="40">
-        <v>81</v>
-      </c>
-      <c r="F84" s="40" t="str">
-        <f t="shared" si="1"/>
-        <v>Asset0_81: require('./Asset0/Asset0_81.png'),</v>
-      </c>
-    </row>
-    <row r="85" spans="2:6">
+      <c r="C84" s="40" t="s">
+        <v>298</v>
+      </c>
+      <c r="D84" s="40">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="E84" s="40" t="str">
+        <f t="shared" si="4"/>
+        <v>Asset0_00081</v>
+      </c>
+      <c r="H84" s="40" t="str">
+        <f t="shared" si="5"/>
+        <v>Asset0_00081: require('./Asset0/Asset0_00081.png'),</v>
+      </c>
+      <c r="L84" s="69" t="s">
+        <v>216</v>
+      </c>
+      <c r="M84" s="40" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="85" spans="2:13">
       <c r="B85" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C85" s="40">
-        <v>82</v>
-      </c>
-      <c r="F85" s="40" t="str">
-        <f t="shared" si="1"/>
-        <v>Asset0_82: require('./Asset0/Asset0_82.png'),</v>
-      </c>
-    </row>
-    <row r="86" spans="2:6">
+      <c r="C85" s="40" t="s">
+        <v>299</v>
+      </c>
+      <c r="D85" s="40">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="E85" s="40" t="str">
+        <f t="shared" si="4"/>
+        <v>Asset0_00082</v>
+      </c>
+      <c r="H85" s="40" t="str">
+        <f t="shared" si="5"/>
+        <v>Asset0_00082: require('./Asset0/Asset0_00082.png'),</v>
+      </c>
+      <c r="L85" s="69" t="s">
+        <v>216</v>
+      </c>
+      <c r="M85" s="40" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="86" spans="2:13">
       <c r="B86" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C86" s="40">
-        <v>83</v>
-      </c>
-      <c r="F86" s="40" t="str">
-        <f t="shared" si="1"/>
-        <v>Asset0_83: require('./Asset0/Asset0_83.png'),</v>
-      </c>
-    </row>
-    <row r="87" spans="2:6">
+      <c r="C86" s="40" t="s">
+        <v>300</v>
+      </c>
+      <c r="D86" s="40">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="E86" s="40" t="str">
+        <f t="shared" si="4"/>
+        <v>Asset0_00083</v>
+      </c>
+      <c r="H86" s="40" t="str">
+        <f t="shared" si="5"/>
+        <v>Asset0_00083: require('./Asset0/Asset0_00083.png'),</v>
+      </c>
+      <c r="L86" s="69" t="s">
+        <v>216</v>
+      </c>
+      <c r="M86" s="40" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="87" spans="2:13">
       <c r="B87" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C87" s="40">
-        <v>84</v>
-      </c>
-      <c r="F87" s="40" t="str">
-        <f t="shared" si="1"/>
-        <v>Asset0_84: require('./Asset0/Asset0_84.png'),</v>
-      </c>
-    </row>
-    <row r="88" spans="2:6">
+      <c r="C87" s="40" t="s">
+        <v>301</v>
+      </c>
+      <c r="D87" s="40">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="E87" s="40" t="str">
+        <f t="shared" si="4"/>
+        <v>Asset0_00084</v>
+      </c>
+      <c r="H87" s="40" t="str">
+        <f t="shared" si="5"/>
+        <v>Asset0_00084: require('./Asset0/Asset0_00084.png'),</v>
+      </c>
+      <c r="L87" s="69" t="s">
+        <v>216</v>
+      </c>
+      <c r="M87" s="40" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="88" spans="2:13">
       <c r="B88" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C88" s="40">
-        <v>85</v>
-      </c>
-      <c r="F88" s="40" t="str">
-        <f t="shared" si="1"/>
-        <v>Asset0_85: require('./Asset0/Asset0_85.png'),</v>
-      </c>
-    </row>
-    <row r="89" spans="2:6">
+      <c r="C88" s="40" t="s">
+        <v>302</v>
+      </c>
+      <c r="D88" s="40">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="E88" s="40" t="str">
+        <f t="shared" si="4"/>
+        <v>Asset0_00085</v>
+      </c>
+      <c r="H88" s="40" t="str">
+        <f t="shared" si="5"/>
+        <v>Asset0_00085: require('./Asset0/Asset0_00085.png'),</v>
+      </c>
+      <c r="L88" s="69" t="s">
+        <v>216</v>
+      </c>
+      <c r="M88" s="40" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="89" spans="2:13">
       <c r="B89" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C89" s="40">
-        <v>86</v>
-      </c>
-      <c r="F89" s="40" t="str">
-        <f t="shared" si="1"/>
-        <v>Asset0_86: require('./Asset0/Asset0_86.png'),</v>
-      </c>
-    </row>
-    <row r="90" spans="2:6">
+      <c r="C89" s="40" t="s">
+        <v>303</v>
+      </c>
+      <c r="D89" s="40">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="E89" s="40" t="str">
+        <f t="shared" si="4"/>
+        <v>Asset0_00086</v>
+      </c>
+      <c r="H89" s="40" t="str">
+        <f t="shared" si="5"/>
+        <v>Asset0_00086: require('./Asset0/Asset0_00086.png'),</v>
+      </c>
+      <c r="L89" s="69" t="s">
+        <v>216</v>
+      </c>
+      <c r="M89" s="40" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="90" spans="2:13">
       <c r="B90" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C90" s="40">
-        <v>87</v>
-      </c>
-      <c r="F90" s="40" t="str">
-        <f t="shared" si="1"/>
-        <v>Asset0_87: require('./Asset0/Asset0_87.png'),</v>
-      </c>
-    </row>
-    <row r="91" spans="2:6">
+      <c r="C90" s="40" t="s">
+        <v>304</v>
+      </c>
+      <c r="D90" s="40">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="E90" s="40" t="str">
+        <f t="shared" si="4"/>
+        <v>Asset0_00087</v>
+      </c>
+      <c r="H90" s="40" t="str">
+        <f t="shared" si="5"/>
+        <v>Asset0_00087: require('./Asset0/Asset0_00087.png'),</v>
+      </c>
+      <c r="L90" s="69" t="s">
+        <v>216</v>
+      </c>
+      <c r="M90" s="40" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="91" spans="2:13">
       <c r="B91" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C91" s="40">
-        <v>88</v>
-      </c>
-      <c r="F91" s="40" t="str">
-        <f t="shared" si="1"/>
-        <v>Asset0_88: require('./Asset0/Asset0_88.png'),</v>
-      </c>
-    </row>
-    <row r="92" spans="2:6">
+      <c r="C91" s="40" t="s">
+        <v>305</v>
+      </c>
+      <c r="D91" s="40">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="E91" s="40" t="str">
+        <f t="shared" si="4"/>
+        <v>Asset0_00088</v>
+      </c>
+      <c r="H91" s="40" t="str">
+        <f t="shared" si="5"/>
+        <v>Asset0_00088: require('./Asset0/Asset0_00088.png'),</v>
+      </c>
+      <c r="L91" s="69" t="s">
+        <v>216</v>
+      </c>
+      <c r="M91" s="40" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="92" spans="2:13">
       <c r="B92" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C92" s="40">
-        <v>89</v>
-      </c>
-      <c r="F92" s="40" t="str">
-        <f t="shared" si="1"/>
-        <v>Asset0_89: require('./Asset0/Asset0_89.png'),</v>
-      </c>
-    </row>
-    <row r="93" spans="2:6">
+      <c r="C92" s="40" t="s">
+        <v>306</v>
+      </c>
+      <c r="D92" s="40">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="E92" s="40" t="str">
+        <f t="shared" si="4"/>
+        <v>Asset0_00089</v>
+      </c>
+      <c r="H92" s="40" t="str">
+        <f t="shared" si="5"/>
+        <v>Asset0_00089: require('./Asset0/Asset0_00089.png'),</v>
+      </c>
+      <c r="L92" s="69" t="s">
+        <v>216</v>
+      </c>
+      <c r="M92" s="40" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="93" spans="2:13">
       <c r="B93" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C93" s="40">
-        <v>90</v>
-      </c>
-      <c r="F93" s="40" t="str">
-        <f t="shared" si="1"/>
-        <v>Asset0_90: require('./Asset0/Asset0_90.png'),</v>
-      </c>
-    </row>
-    <row r="94" spans="2:6">
+      <c r="C93" s="40" t="s">
+        <v>307</v>
+      </c>
+      <c r="D93" s="40">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="E93" s="40" t="str">
+        <f t="shared" si="4"/>
+        <v>Asset0_00090</v>
+      </c>
+      <c r="H93" s="40" t="str">
+        <f t="shared" si="5"/>
+        <v>Asset0_00090: require('./Asset0/Asset0_00090.png'),</v>
+      </c>
+      <c r="L93" s="69" t="s">
+        <v>216</v>
+      </c>
+      <c r="M93" s="40" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="94" spans="2:13">
       <c r="B94" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C94" s="40">
-        <v>91</v>
-      </c>
-      <c r="F94" s="40" t="str">
-        <f t="shared" si="1"/>
-        <v>Asset0_91: require('./Asset0/Asset0_91.png'),</v>
-      </c>
-    </row>
-    <row r="95" spans="2:6">
+      <c r="C94" s="40" t="s">
+        <v>308</v>
+      </c>
+      <c r="D94" s="40">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="E94" s="40" t="str">
+        <f t="shared" si="4"/>
+        <v>Asset0_00091</v>
+      </c>
+      <c r="H94" s="40" t="str">
+        <f t="shared" si="5"/>
+        <v>Asset0_00091: require('./Asset0/Asset0_00091.png'),</v>
+      </c>
+      <c r="L94" s="69" t="s">
+        <v>216</v>
+      </c>
+      <c r="M94" s="40" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="95" spans="2:13">
       <c r="B95" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C95" s="40">
-        <v>92</v>
-      </c>
-      <c r="F95" s="40" t="str">
-        <f t="shared" si="1"/>
-        <v>Asset0_92: require('./Asset0/Asset0_92.png'),</v>
-      </c>
-    </row>
-    <row r="96" spans="2:6">
+      <c r="C95" s="40" t="s">
+        <v>309</v>
+      </c>
+      <c r="D95" s="40">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="E95" s="40" t="str">
+        <f t="shared" si="4"/>
+        <v>Asset0_00092</v>
+      </c>
+      <c r="H95" s="40" t="str">
+        <f t="shared" si="5"/>
+        <v>Asset0_00092: require('./Asset0/Asset0_00092.png'),</v>
+      </c>
+      <c r="L95" s="69" t="s">
+        <v>216</v>
+      </c>
+      <c r="M95" s="40" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="96" spans="2:13">
       <c r="B96" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C96" s="40">
-        <v>93</v>
-      </c>
-      <c r="F96" s="40" t="str">
-        <f t="shared" si="1"/>
-        <v>Asset0_93: require('./Asset0/Asset0_93.png'),</v>
-      </c>
-    </row>
-    <row r="97" spans="2:6">
+      <c r="C96" s="40" t="s">
+        <v>310</v>
+      </c>
+      <c r="D96" s="40">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="E96" s="40" t="str">
+        <f t="shared" si="4"/>
+        <v>Asset0_00093</v>
+      </c>
+      <c r="H96" s="40" t="str">
+        <f t="shared" si="5"/>
+        <v>Asset0_00093: require('./Asset0/Asset0_00093.png'),</v>
+      </c>
+      <c r="L96" s="69" t="s">
+        <v>216</v>
+      </c>
+      <c r="M96" s="40" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="97" spans="2:13">
       <c r="B97" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C97" s="40">
-        <v>94</v>
-      </c>
-      <c r="F97" s="40" t="str">
-        <f t="shared" si="1"/>
-        <v>Asset0_94: require('./Asset0/Asset0_94.png'),</v>
-      </c>
-    </row>
-    <row r="98" spans="2:6">
+      <c r="C97" s="40" t="s">
+        <v>311</v>
+      </c>
+      <c r="D97" s="40">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="E97" s="40" t="str">
+        <f t="shared" si="4"/>
+        <v>Asset0_00094</v>
+      </c>
+      <c r="H97" s="40" t="str">
+        <f t="shared" si="5"/>
+        <v>Asset0_00094: require('./Asset0/Asset0_00094.png'),</v>
+      </c>
+      <c r="L97" s="69" t="s">
+        <v>216</v>
+      </c>
+      <c r="M97" s="40" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="98" spans="2:13">
       <c r="B98" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C98" s="40">
-        <v>95</v>
-      </c>
-      <c r="F98" s="40" t="str">
-        <f t="shared" si="1"/>
-        <v>Asset0_95: require('./Asset0/Asset0_95.png'),</v>
-      </c>
-    </row>
-    <row r="99" spans="2:6">
+      <c r="C98" s="40" t="s">
+        <v>312</v>
+      </c>
+      <c r="D98" s="40">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="E98" s="40" t="str">
+        <f t="shared" si="4"/>
+        <v>Asset0_00095</v>
+      </c>
+      <c r="H98" s="40" t="str">
+        <f t="shared" si="5"/>
+        <v>Asset0_00095: require('./Asset0/Asset0_00095.png'),</v>
+      </c>
+      <c r="L98" s="69" t="s">
+        <v>216</v>
+      </c>
+      <c r="M98" s="40" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="99" spans="2:13">
       <c r="B99" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C99" s="40">
-        <v>96</v>
-      </c>
-      <c r="F99" s="40" t="str">
-        <f t="shared" si="1"/>
-        <v>Asset0_96: require('./Asset0/Asset0_96.png'),</v>
-      </c>
-    </row>
-    <row r="100" spans="2:6">
+      <c r="C99" s="40" t="s">
+        <v>313</v>
+      </c>
+      <c r="D99" s="40">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="E99" s="40" t="str">
+        <f t="shared" si="4"/>
+        <v>Asset0_00096</v>
+      </c>
+      <c r="H99" s="40" t="str">
+        <f t="shared" si="5"/>
+        <v>Asset0_00096: require('./Asset0/Asset0_00096.png'),</v>
+      </c>
+      <c r="L99" s="69" t="s">
+        <v>216</v>
+      </c>
+      <c r="M99" s="40" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="100" spans="2:13">
       <c r="B100" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C100" s="40">
-        <v>97</v>
-      </c>
-      <c r="F100" s="40" t="str">
-        <f t="shared" si="1"/>
-        <v>Asset0_97: require('./Asset0/Asset0_97.png'),</v>
-      </c>
-    </row>
-    <row r="101" spans="2:6">
+      <c r="C100" s="40" t="s">
+        <v>314</v>
+      </c>
+      <c r="D100" s="40">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="E100" s="40" t="str">
+        <f t="shared" si="4"/>
+        <v>Asset0_00097</v>
+      </c>
+      <c r="H100" s="40" t="str">
+        <f t="shared" si="5"/>
+        <v>Asset0_00097: require('./Asset0/Asset0_00097.png'),</v>
+      </c>
+      <c r="L100" s="69" t="s">
+        <v>216</v>
+      </c>
+      <c r="M100" s="40" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="101" spans="2:13">
       <c r="B101" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C101" s="40">
-        <v>98</v>
-      </c>
-      <c r="F101" s="40" t="str">
-        <f t="shared" si="1"/>
-        <v>Asset0_98: require('./Asset0/Asset0_98.png'),</v>
-      </c>
-    </row>
-    <row r="102" spans="2:6">
+      <c r="C101" s="40" t="s">
+        <v>315</v>
+      </c>
+      <c r="D101" s="40">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="E101" s="40" t="str">
+        <f t="shared" si="4"/>
+        <v>Asset0_00098</v>
+      </c>
+      <c r="H101" s="40" t="str">
+        <f t="shared" si="5"/>
+        <v>Asset0_00098: require('./Asset0/Asset0_00098.png'),</v>
+      </c>
+      <c r="L101" s="69" t="s">
+        <v>216</v>
+      </c>
+      <c r="M101" s="40" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="102" spans="2:13">
       <c r="B102" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C102" s="40">
-        <v>99</v>
-      </c>
-      <c r="F102" s="40" t="str">
-        <f t="shared" si="1"/>
-        <v>Asset0_99: require('./Asset0/Asset0_99.png'),</v>
-      </c>
-    </row>
-    <row r="103" spans="2:6">
+      <c r="C102" s="40" t="s">
+        <v>316</v>
+      </c>
+      <c r="D102" s="40">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="E102" s="40" t="str">
+        <f t="shared" si="4"/>
+        <v>Asset0_00099</v>
+      </c>
+      <c r="H102" s="40" t="str">
+        <f t="shared" si="5"/>
+        <v>Asset0_00099: require('./Asset0/Asset0_00099.png'),</v>
+      </c>
+      <c r="L102" s="69" t="s">
+        <v>216</v>
+      </c>
+      <c r="M102" s="40" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="103" spans="2:13">
       <c r="B103" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C103" s="40">
-        <v>100</v>
-      </c>
-      <c r="F103" s="40" t="str">
-        <f t="shared" si="1"/>
-        <v>Asset0_100: require('./Asset0/Asset0_100.png'),</v>
-      </c>
-    </row>
-    <row r="104" spans="2:6">
+      <c r="C103" s="40" t="s">
+        <v>317</v>
+      </c>
+      <c r="D103" s="40">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="E103" s="40" t="str">
+        <f t="shared" si="4"/>
+        <v>Asset0_00100</v>
+      </c>
+      <c r="H103" s="40" t="str">
+        <f t="shared" si="5"/>
+        <v>Asset0_00100: require('./Asset0/Asset0_00100.png'),</v>
+      </c>
+      <c r="L103" s="69" t="s">
+        <v>216</v>
+      </c>
+      <c r="M103" s="40" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="104" spans="2:13">
       <c r="B104" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C104" s="40">
-        <v>101</v>
-      </c>
-      <c r="F104" s="40" t="str">
-        <f t="shared" si="1"/>
-        <v>Asset0_101: require('./Asset0/Asset0_101.png'),</v>
-      </c>
-    </row>
-    <row r="105" spans="2:6">
+      <c r="C104" s="40" t="s">
+        <v>318</v>
+      </c>
+      <c r="D104" s="40">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="E104" s="40" t="str">
+        <f t="shared" si="4"/>
+        <v>Asset0_00101</v>
+      </c>
+      <c r="H104" s="40" t="str">
+        <f t="shared" si="5"/>
+        <v>Asset0_00101: require('./Asset0/Asset0_00101.png'),</v>
+      </c>
+      <c r="L104" s="69" t="s">
+        <v>216</v>
+      </c>
+      <c r="M104" s="40" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="105" spans="2:13">
       <c r="B105" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C105" s="40">
-        <v>102</v>
-      </c>
-      <c r="F105" s="40" t="str">
-        <f t="shared" si="1"/>
-        <v>Asset0_102: require('./Asset0/Asset0_102.png'),</v>
-      </c>
-    </row>
-    <row r="106" spans="2:6">
+      <c r="C105" s="40" t="s">
+        <v>319</v>
+      </c>
+      <c r="D105" s="40">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="E105" s="40" t="str">
+        <f t="shared" si="4"/>
+        <v>Asset0_00102</v>
+      </c>
+      <c r="H105" s="40" t="str">
+        <f t="shared" si="5"/>
+        <v>Asset0_00102: require('./Asset0/Asset0_00102.png'),</v>
+      </c>
+      <c r="L105" s="69" t="s">
+        <v>216</v>
+      </c>
+      <c r="M105" s="40" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="106" spans="2:13">
       <c r="B106" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C106" s="40">
-        <v>103</v>
-      </c>
-      <c r="F106" s="40" t="str">
-        <f t="shared" si="1"/>
-        <v>Asset0_103: require('./Asset0/Asset0_103.png'),</v>
-      </c>
-    </row>
-    <row r="107" spans="2:6">
+      <c r="C106" s="40" t="s">
+        <v>320</v>
+      </c>
+      <c r="D106" s="40">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="E106" s="40" t="str">
+        <f t="shared" si="4"/>
+        <v>Asset0_00103</v>
+      </c>
+      <c r="H106" s="40" t="str">
+        <f t="shared" si="5"/>
+        <v>Asset0_00103: require('./Asset0/Asset0_00103.png'),</v>
+      </c>
+      <c r="L106" s="69" t="s">
+        <v>216</v>
+      </c>
+      <c r="M106" s="40" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="107" spans="2:13">
       <c r="B107" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C107" s="40">
-        <v>104</v>
-      </c>
-      <c r="F107" s="40" t="str">
-        <f t="shared" si="1"/>
-        <v>Asset0_104: require('./Asset0/Asset0_104.png'),</v>
-      </c>
-    </row>
-    <row r="108" spans="2:6">
+      <c r="C107" s="40" t="s">
+        <v>321</v>
+      </c>
+      <c r="D107" s="40">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="E107" s="40" t="str">
+        <f t="shared" si="4"/>
+        <v>Asset0_00104</v>
+      </c>
+      <c r="H107" s="40" t="str">
+        <f t="shared" si="5"/>
+        <v>Asset0_00104: require('./Asset0/Asset0_00104.png'),</v>
+      </c>
+      <c r="L107" s="69" t="s">
+        <v>216</v>
+      </c>
+      <c r="M107" s="40" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="108" spans="2:13">
       <c r="B108" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C108" s="40">
-        <v>105</v>
-      </c>
-      <c r="F108" s="40" t="str">
-        <f t="shared" si="1"/>
-        <v>Asset0_105: require('./Asset0/Asset0_105.png'),</v>
-      </c>
-    </row>
-    <row r="109" spans="2:6">
+      <c r="C108" s="40" t="s">
+        <v>322</v>
+      </c>
+      <c r="D108" s="40">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="E108" s="40" t="str">
+        <f t="shared" si="4"/>
+        <v>Asset0_00105</v>
+      </c>
+      <c r="H108" s="40" t="str">
+        <f t="shared" si="5"/>
+        <v>Asset0_00105: require('./Asset0/Asset0_00105.png'),</v>
+      </c>
+      <c r="L108" s="69" t="s">
+        <v>216</v>
+      </c>
+      <c r="M108" s="40" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="109" spans="2:13">
       <c r="B109" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C109" s="40">
-        <v>106</v>
-      </c>
-      <c r="F109" s="40" t="str">
-        <f t="shared" si="1"/>
-        <v>Asset0_106: require('./Asset0/Asset0_106.png'),</v>
-      </c>
-    </row>
-    <row r="110" spans="2:6">
+      <c r="C109" s="40" t="s">
+        <v>323</v>
+      </c>
+      <c r="D109" s="40">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="E109" s="40" t="str">
+        <f t="shared" si="4"/>
+        <v>Asset0_00106</v>
+      </c>
+      <c r="H109" s="40" t="str">
+        <f t="shared" si="5"/>
+        <v>Asset0_00106: require('./Asset0/Asset0_00106.png'),</v>
+      </c>
+      <c r="L109" s="69" t="s">
+        <v>216</v>
+      </c>
+      <c r="M109" s="40" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="110" spans="2:13">
       <c r="B110" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C110" s="40">
-        <v>107</v>
-      </c>
-      <c r="F110" s="40" t="str">
-        <f t="shared" si="1"/>
-        <v>Asset0_107: require('./Asset0/Asset0_107.png'),</v>
-      </c>
-    </row>
-    <row r="111" spans="2:6">
+      <c r="C110" s="40" t="s">
+        <v>324</v>
+      </c>
+      <c r="D110" s="40">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="E110" s="40" t="str">
+        <f t="shared" si="4"/>
+        <v>Asset0_00107</v>
+      </c>
+      <c r="H110" s="40" t="str">
+        <f t="shared" si="5"/>
+        <v>Asset0_00107: require('./Asset0/Asset0_00107.png'),</v>
+      </c>
+      <c r="L110" s="69" t="s">
+        <v>216</v>
+      </c>
+      <c r="M110" s="40" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="111" spans="2:13">
       <c r="B111" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C111" s="40">
-        <v>108</v>
-      </c>
-      <c r="F111" s="40" t="str">
-        <f t="shared" si="1"/>
-        <v>Asset0_108: require('./Asset0/Asset0_108.png'),</v>
-      </c>
-    </row>
-    <row r="112" spans="2:6">
+      <c r="C111" s="40" t="s">
+        <v>325</v>
+      </c>
+      <c r="D111" s="40">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="E111" s="40" t="str">
+        <f t="shared" si="4"/>
+        <v>Asset0_00108</v>
+      </c>
+      <c r="H111" s="40" t="str">
+        <f t="shared" si="5"/>
+        <v>Asset0_00108: require('./Asset0/Asset0_00108.png'),</v>
+      </c>
+      <c r="L111" s="69" t="s">
+        <v>216</v>
+      </c>
+      <c r="M111" s="40" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="112" spans="2:13">
       <c r="B112" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C112" s="40">
-        <v>109</v>
-      </c>
-      <c r="F112" s="40" t="str">
-        <f t="shared" si="1"/>
-        <v>Asset0_109: require('./Asset0/Asset0_109.png'),</v>
-      </c>
-    </row>
-    <row r="113" spans="2:6">
+      <c r="C112" s="40" t="s">
+        <v>326</v>
+      </c>
+      <c r="D112" s="40">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="E112" s="40" t="str">
+        <f t="shared" si="4"/>
+        <v>Asset0_00109</v>
+      </c>
+      <c r="H112" s="40" t="str">
+        <f t="shared" si="5"/>
+        <v>Asset0_00109: require('./Asset0/Asset0_00109.png'),</v>
+      </c>
+      <c r="L112" s="69" t="s">
+        <v>216</v>
+      </c>
+      <c r="M112" s="40" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="113" spans="2:13">
       <c r="B113" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C113" s="40">
-        <v>110</v>
-      </c>
-      <c r="F113" s="40" t="str">
-        <f t="shared" si="1"/>
-        <v>Asset0_110: require('./Asset0/Asset0_110.png'),</v>
-      </c>
-    </row>
-    <row r="114" spans="2:6">
+      <c r="C113" s="40" t="s">
+        <v>327</v>
+      </c>
+      <c r="D113" s="40">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="E113" s="40" t="str">
+        <f t="shared" si="4"/>
+        <v>Asset0_00110</v>
+      </c>
+      <c r="H113" s="40" t="str">
+        <f t="shared" si="5"/>
+        <v>Asset0_00110: require('./Asset0/Asset0_00110.png'),</v>
+      </c>
+      <c r="L113" s="69" t="s">
+        <v>216</v>
+      </c>
+      <c r="M113" s="40" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="114" spans="2:13">
       <c r="B114" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C114" s="40">
-        <v>111</v>
-      </c>
-      <c r="F114" s="40" t="str">
-        <f t="shared" si="1"/>
-        <v>Asset0_111: require('./Asset0/Asset0_111.png'),</v>
-      </c>
-    </row>
-    <row r="115" spans="2:6">
+      <c r="C114" s="40" t="s">
+        <v>328</v>
+      </c>
+      <c r="D114" s="40">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="E114" s="40" t="str">
+        <f t="shared" si="4"/>
+        <v>Asset0_00111</v>
+      </c>
+      <c r="H114" s="40" t="str">
+        <f t="shared" si="5"/>
+        <v>Asset0_00111: require('./Asset0/Asset0_00111.png'),</v>
+      </c>
+      <c r="L114" s="69" t="s">
+        <v>216</v>
+      </c>
+      <c r="M114" s="40" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="115" spans="2:13">
       <c r="B115" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C115" s="40">
-        <v>112</v>
-      </c>
-      <c r="F115" s="40" t="str">
-        <f t="shared" si="1"/>
-        <v>Asset0_112: require('./Asset0/Asset0_112.png'),</v>
-      </c>
-    </row>
-    <row r="116" spans="2:6">
+      <c r="C115" s="40" t="s">
+        <v>329</v>
+      </c>
+      <c r="D115" s="40">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="E115" s="40" t="str">
+        <f t="shared" si="4"/>
+        <v>Asset0_00112</v>
+      </c>
+      <c r="H115" s="40" t="str">
+        <f t="shared" si="5"/>
+        <v>Asset0_00112: require('./Asset0/Asset0_00112.png'),</v>
+      </c>
+      <c r="L115" s="69" t="s">
+        <v>216</v>
+      </c>
+      <c r="M115" s="40" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="116" spans="2:13">
       <c r="B116" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C116" s="40">
-        <v>113</v>
-      </c>
-      <c r="F116" s="40" t="str">
-        <f t="shared" si="1"/>
-        <v>Asset0_113: require('./Asset0/Asset0_113.png'),</v>
-      </c>
-    </row>
-    <row r="117" spans="2:6">
+      <c r="C116" s="40" t="s">
+        <v>330</v>
+      </c>
+      <c r="D116" s="40">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="E116" s="40" t="str">
+        <f t="shared" si="4"/>
+        <v>Asset0_00113</v>
+      </c>
+      <c r="H116" s="40" t="str">
+        <f t="shared" si="5"/>
+        <v>Asset0_00113: require('./Asset0/Asset0_00113.png'),</v>
+      </c>
+      <c r="L116" s="69" t="s">
+        <v>216</v>
+      </c>
+      <c r="M116" s="40" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="117" spans="2:13">
       <c r="B117" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C117" s="40">
-        <v>114</v>
-      </c>
-      <c r="F117" s="40" t="str">
-        <f t="shared" si="1"/>
-        <v>Asset0_114: require('./Asset0/Asset0_114.png'),</v>
-      </c>
-    </row>
-    <row r="118" spans="2:6">
+      <c r="C117" s="40" t="s">
+        <v>331</v>
+      </c>
+      <c r="D117" s="40">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="E117" s="40" t="str">
+        <f t="shared" si="4"/>
+        <v>Asset0_00114</v>
+      </c>
+      <c r="H117" s="40" t="str">
+        <f t="shared" si="5"/>
+        <v>Asset0_00114: require('./Asset0/Asset0_00114.png'),</v>
+      </c>
+      <c r="L117" s="69" t="s">
+        <v>216</v>
+      </c>
+      <c r="M117" s="40" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="118" spans="2:13">
       <c r="B118" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C118" s="40">
-        <v>115</v>
-      </c>
-      <c r="F118" s="40" t="str">
-        <f t="shared" si="1"/>
-        <v>Asset0_115: require('./Asset0/Asset0_115.png'),</v>
-      </c>
-    </row>
-    <row r="119" spans="2:6">
+      <c r="C118" s="40" t="s">
+        <v>332</v>
+      </c>
+      <c r="D118" s="40">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="E118" s="40" t="str">
+        <f t="shared" si="4"/>
+        <v>Asset0_00115</v>
+      </c>
+      <c r="H118" s="40" t="str">
+        <f t="shared" si="5"/>
+        <v>Asset0_00115: require('./Asset0/Asset0_00115.png'),</v>
+      </c>
+      <c r="L118" s="69" t="s">
+        <v>216</v>
+      </c>
+      <c r="M118" s="40" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="119" spans="2:13">
       <c r="B119" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C119" s="40">
-        <v>116</v>
-      </c>
-      <c r="F119" s="40" t="str">
-        <f t="shared" si="1"/>
-        <v>Asset0_116: require('./Asset0/Asset0_116.png'),</v>
-      </c>
-    </row>
-    <row r="120" spans="2:6">
+      <c r="C119" s="40" t="s">
+        <v>333</v>
+      </c>
+      <c r="D119" s="40">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="E119" s="40" t="str">
+        <f t="shared" si="4"/>
+        <v>Asset0_00116</v>
+      </c>
+      <c r="H119" s="40" t="str">
+        <f t="shared" si="5"/>
+        <v>Asset0_00116: require('./Asset0/Asset0_00116.png'),</v>
+      </c>
+      <c r="L119" s="69" t="s">
+        <v>216</v>
+      </c>
+      <c r="M119" s="40" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="120" spans="2:13">
       <c r="B120" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C120" s="40">
-        <v>117</v>
-      </c>
-      <c r="F120" s="40" t="str">
-        <f t="shared" si="1"/>
-        <v>Asset0_117: require('./Asset0/Asset0_117.png'),</v>
-      </c>
-    </row>
-    <row r="121" spans="2:6">
+      <c r="C120" s="40" t="s">
+        <v>334</v>
+      </c>
+      <c r="D120" s="40">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="E120" s="40" t="str">
+        <f t="shared" si="4"/>
+        <v>Asset0_00117</v>
+      </c>
+      <c r="H120" s="40" t="str">
+        <f t="shared" si="5"/>
+        <v>Asset0_00117: require('./Asset0/Asset0_00117.png'),</v>
+      </c>
+      <c r="L120" s="69" t="s">
+        <v>216</v>
+      </c>
+      <c r="M120" s="40" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="121" spans="2:13">
       <c r="B121" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C121" s="40">
-        <v>118</v>
-      </c>
-      <c r="F121" s="40" t="str">
-        <f t="shared" si="1"/>
-        <v>Asset0_118: require('./Asset0/Asset0_118.png'),</v>
-      </c>
-    </row>
-    <row r="122" spans="2:6">
+      <c r="C121" s="40" t="s">
+        <v>335</v>
+      </c>
+      <c r="D121" s="40">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="E121" s="40" t="str">
+        <f t="shared" si="4"/>
+        <v>Asset0_00118</v>
+      </c>
+      <c r="H121" s="40" t="str">
+        <f t="shared" si="5"/>
+        <v>Asset0_00118: require('./Asset0/Asset0_00118.png'),</v>
+      </c>
+      <c r="L121" s="69" t="s">
+        <v>216</v>
+      </c>
+      <c r="M121" s="40" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="122" spans="2:13">
       <c r="B122" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C122" s="40">
-        <v>119</v>
-      </c>
-      <c r="F122" s="40" t="str">
-        <f t="shared" si="1"/>
-        <v>Asset0_119: require('./Asset0/Asset0_119.png'),</v>
-      </c>
-    </row>
-    <row r="123" spans="2:6">
+      <c r="C122" s="40" t="s">
+        <v>336</v>
+      </c>
+      <c r="D122" s="40">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="E122" s="40" t="str">
+        <f t="shared" si="4"/>
+        <v>Asset0_00119</v>
+      </c>
+      <c r="H122" s="40" t="str">
+        <f t="shared" si="5"/>
+        <v>Asset0_00119: require('./Asset0/Asset0_00119.png'),</v>
+      </c>
+      <c r="L122" s="69" t="s">
+        <v>216</v>
+      </c>
+      <c r="M122" s="40" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="123" spans="2:13">
       <c r="B123" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C123" s="40">
-        <v>120</v>
-      </c>
-      <c r="F123" s="40" t="str">
-        <f t="shared" si="1"/>
-        <v>Asset0_120: require('./Asset0/Asset0_120.png'),</v>
-      </c>
-    </row>
-    <row r="124" spans="2:6">
+      <c r="C123" s="40" t="s">
+        <v>337</v>
+      </c>
+      <c r="D123" s="40">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="E123" s="40" t="str">
+        <f t="shared" si="4"/>
+        <v>Asset0_00120</v>
+      </c>
+      <c r="H123" s="40" t="str">
+        <f t="shared" si="5"/>
+        <v>Asset0_00120: require('./Asset0/Asset0_00120.png'),</v>
+      </c>
+      <c r="L123" s="69" t="s">
+        <v>216</v>
+      </c>
+      <c r="M123" s="40" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="124" spans="2:13">
       <c r="B124" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C124" s="40">
-        <v>121</v>
-      </c>
-      <c r="F124" s="40" t="str">
-        <f t="shared" si="1"/>
-        <v>Asset0_121: require('./Asset0/Asset0_121.png'),</v>
-      </c>
-    </row>
-    <row r="125" spans="2:6">
+      <c r="C124" s="40" t="s">
+        <v>338</v>
+      </c>
+      <c r="D124" s="40">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="E124" s="40" t="str">
+        <f t="shared" si="4"/>
+        <v>Asset0_00121</v>
+      </c>
+      <c r="H124" s="40" t="str">
+        <f t="shared" si="5"/>
+        <v>Asset0_00121: require('./Asset0/Asset0_00121.png'),</v>
+      </c>
+      <c r="L124" s="69" t="s">
+        <v>216</v>
+      </c>
+      <c r="M124" s="40" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="125" spans="2:13">
       <c r="B125" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C125" s="40">
-        <v>122</v>
-      </c>
-      <c r="F125" s="40" t="str">
-        <f t="shared" si="1"/>
-        <v>Asset0_122: require('./Asset0/Asset0_122.png'),</v>
-      </c>
-    </row>
-    <row r="126" spans="2:6">
+      <c r="C125" s="40" t="s">
+        <v>339</v>
+      </c>
+      <c r="D125" s="40">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="E125" s="40" t="str">
+        <f t="shared" si="4"/>
+        <v>Asset0_00122</v>
+      </c>
+      <c r="H125" s="40" t="str">
+        <f t="shared" si="5"/>
+        <v>Asset0_00122: require('./Asset0/Asset0_00122.png'),</v>
+      </c>
+      <c r="L125" s="69" t="s">
+        <v>216</v>
+      </c>
+      <c r="M125" s="40" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="126" spans="2:13">
       <c r="B126" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C126" s="40">
-        <v>123</v>
-      </c>
-      <c r="F126" s="40" t="str">
-        <f t="shared" si="1"/>
-        <v>Asset0_123: require('./Asset0/Asset0_123.png'),</v>
-      </c>
-    </row>
-    <row r="127" spans="2:6">
+      <c r="C126" s="40" t="s">
+        <v>341</v>
+      </c>
+      <c r="D126" s="40">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="E126" s="40" t="str">
+        <f t="shared" si="4"/>
+        <v>Asset0_00123</v>
+      </c>
+      <c r="H126" s="40" t="str">
+        <f t="shared" si="5"/>
+        <v>Asset0_00123: require('./Asset0/Asset0_00123.png'),</v>
+      </c>
+      <c r="L126" s="69" t="s">
+        <v>340</v>
+      </c>
+      <c r="M126" s="40" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="127" spans="2:13">
       <c r="B127" s="40" t="s">
         <v>176</v>
       </c>
-      <c r="C127" s="40">
-        <v>1</v>
-      </c>
-      <c r="F127" s="40" t="str">
-        <f t="shared" si="1"/>
-        <v>Asset1_1: require('./Asset1/Asset1_1.png'),</v>
-      </c>
-    </row>
-    <row r="128" spans="2:6">
+      <c r="C127" s="40" t="s">
+        <v>342</v>
+      </c>
+      <c r="D127" s="40">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="E127" s="40" t="str">
+        <f t="shared" si="4"/>
+        <v>blue1</v>
+      </c>
+      <c r="H127" s="40" t="str">
+        <f t="shared" si="5"/>
+        <v>blue1: require('./Asset1/blue1.png'),</v>
+      </c>
+      <c r="L127" s="69" t="s">
+        <v>216</v>
+      </c>
+      <c r="M127" s="40" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="128" spans="2:13">
       <c r="B128" s="40" t="s">
         <v>176</v>
       </c>
-      <c r="C128" s="40">
-        <v>2</v>
-      </c>
-      <c r="F128" s="40" t="str">
-        <f t="shared" si="1"/>
-        <v>Asset1_2: require('./Asset1/Asset1_2.png'),</v>
-      </c>
-    </row>
-    <row r="129" spans="2:6">
+      <c r="C128" s="40" t="s">
+        <v>343</v>
+      </c>
+      <c r="D128" s="40">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="E128" s="40" t="str">
+        <f t="shared" si="4"/>
+        <v>blue2</v>
+      </c>
+      <c r="H128" s="40" t="str">
+        <f t="shared" si="5"/>
+        <v>blue2: require('./Asset1/blue2.png'),</v>
+      </c>
+      <c r="L128" s="69" t="s">
+        <v>216</v>
+      </c>
+      <c r="M128" s="40" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="129" spans="2:13">
       <c r="B129" s="40" t="s">
         <v>176</v>
       </c>
-      <c r="C129" s="40">
-        <v>3</v>
-      </c>
-      <c r="F129" s="40" t="str">
-        <f t="shared" si="1"/>
-        <v>Asset1_3: require('./Asset1/Asset1_3.png'),</v>
-      </c>
-    </row>
-    <row r="130" spans="2:6">
+      <c r="C129" s="40" t="s">
+        <v>344</v>
+      </c>
+      <c r="D129" s="40">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="E129" s="40" t="str">
+        <f t="shared" si="4"/>
+        <v>boat_1_1</v>
+      </c>
+      <c r="H129" s="40" t="str">
+        <f t="shared" si="5"/>
+        <v>boat_1_1: require('./Asset1/boat_1_1.png'),</v>
+      </c>
+      <c r="L129" s="69" t="s">
+        <v>216</v>
+      </c>
+      <c r="M129" s="40" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="130" spans="2:13">
       <c r="B130" s="40" t="s">
         <v>176</v>
       </c>
-      <c r="C130" s="40">
-        <v>4</v>
-      </c>
-      <c r="F130" s="40" t="str">
-        <f t="shared" si="1"/>
-        <v>Asset1_4: require('./Asset1/Asset1_4.png'),</v>
-      </c>
-    </row>
-    <row r="131" spans="2:6">
+      <c r="C130" s="40" t="s">
+        <v>345</v>
+      </c>
+      <c r="D130" s="40">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="E130" s="40" t="str">
+        <f t="shared" si="4"/>
+        <v>bridge_1_1</v>
+      </c>
+      <c r="H130" s="40" t="str">
+        <f t="shared" si="5"/>
+        <v>bridge_1_1: require('./Asset1/bridge_1_1.png'),</v>
+      </c>
+      <c r="L130" s="69" t="s">
+        <v>216</v>
+      </c>
+      <c r="M130" s="40" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="131" spans="2:13">
       <c r="B131" s="40" t="s">
         <v>176</v>
       </c>
-      <c r="C131" s="40">
-        <v>5</v>
-      </c>
-      <c r="F131" s="40" t="str">
-        <f t="shared" si="1"/>
-        <v>Asset1_5: require('./Asset1/Asset1_5.png'),</v>
-      </c>
-    </row>
-    <row r="132" spans="2:6">
+      <c r="C131" s="40" t="s">
+        <v>346</v>
+      </c>
+      <c r="D131" s="40">
+        <f t="shared" ref="D131:D186" si="6">SEARCH(".",C131,1)</f>
+        <v>11</v>
+      </c>
+      <c r="E131" s="40" t="str">
+        <f t="shared" si="4"/>
+        <v>bridge_1_2</v>
+      </c>
+      <c r="H131" s="40" t="str">
+        <f t="shared" si="5"/>
+        <v>bridge_1_2: require('./Asset1/bridge_1_2.jpeg'),</v>
+      </c>
+      <c r="L131" s="69" t="s">
+        <v>216</v>
+      </c>
+      <c r="M131" s="40" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="132" spans="2:13">
       <c r="B132" s="40" t="s">
         <v>176</v>
       </c>
-      <c r="C132" s="40">
-        <v>6</v>
-      </c>
-      <c r="F132" s="40" t="str">
-        <f t="shared" ref="F132:F158" si="2">B132 &amp; "_" &amp; C132&amp;": "&amp;"require('./" &amp; B132 &amp; "/" &amp; B132 &amp; "_" &amp; C132 &amp; ".png'),"</f>
-        <v>Asset1_6: require('./Asset1/Asset1_6.png'),</v>
-      </c>
-    </row>
-    <row r="133" spans="2:6">
+      <c r="C132" s="40" t="s">
+        <v>347</v>
+      </c>
+      <c r="D132" s="40">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+      <c r="E132" s="40" t="str">
+        <f t="shared" ref="E132:E186" si="7">LEFT(C132,D132-1)</f>
+        <v>bridge_1_3</v>
+      </c>
+      <c r="H132" s="40" t="str">
+        <f t="shared" ref="H132:H186" si="8">E132&amp;": "&amp;"require('./" &amp; B132 &amp; "/" &amp; C132 &amp; "'),"</f>
+        <v>bridge_1_3: require('./Asset1/bridge_1_3.png'),</v>
+      </c>
+      <c r="L132" s="69" t="s">
+        <v>216</v>
+      </c>
+      <c r="M132" s="40" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="133" spans="2:13">
       <c r="B133" s="40" t="s">
         <v>176</v>
       </c>
-      <c r="C133" s="40">
-        <v>7</v>
-      </c>
-      <c r="F133" s="40" t="str">
-        <f t="shared" si="2"/>
-        <v>Asset1_7: require('./Asset1/Asset1_7.png'),</v>
-      </c>
-    </row>
-    <row r="134" spans="2:6">
+      <c r="C133" s="40" t="s">
+        <v>348</v>
+      </c>
+      <c r="D133" s="40">
+        <f t="shared" si="6"/>
+        <v>15</v>
+      </c>
+      <c r="E133" s="40" t="str">
+        <f t="shared" si="7"/>
+        <v>embankment_1_1</v>
+      </c>
+      <c r="H133" s="40" t="str">
+        <f t="shared" si="8"/>
+        <v>embankment_1_1: require('./Asset1/embankment_1_1.png'),</v>
+      </c>
+      <c r="L133" s="69" t="s">
+        <v>216</v>
+      </c>
+      <c r="M133" s="40" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="134" spans="2:13">
       <c r="B134" s="40" t="s">
         <v>176</v>
       </c>
-      <c r="C134" s="40">
-        <v>8</v>
-      </c>
-      <c r="F134" s="40" t="str">
-        <f t="shared" si="2"/>
-        <v>Asset1_8: require('./Asset1/Asset1_8.png'),</v>
-      </c>
-    </row>
-    <row r="135" spans="2:6">
+      <c r="C134" s="40" t="s">
+        <v>349</v>
+      </c>
+      <c r="D134" s="40">
+        <f t="shared" si="6"/>
+        <v>16</v>
+      </c>
+      <c r="E134" s="40" t="str">
+        <f t="shared" si="7"/>
+        <v>embankment_1_10</v>
+      </c>
+      <c r="H134" s="40" t="str">
+        <f t="shared" si="8"/>
+        <v>embankment_1_10: require('./Asset1/embankment_1_10.png'),</v>
+      </c>
+      <c r="L134" s="69" t="s">
+        <v>216</v>
+      </c>
+      <c r="M134" s="40" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="135" spans="2:13">
       <c r="B135" s="40" t="s">
         <v>176</v>
       </c>
-      <c r="C135" s="40">
-        <v>9</v>
-      </c>
-      <c r="F135" s="40" t="str">
-        <f t="shared" si="2"/>
-        <v>Asset1_9: require('./Asset1/Asset1_9.png'),</v>
-      </c>
-    </row>
-    <row r="136" spans="2:6">
+      <c r="C135" s="40" t="s">
+        <v>350</v>
+      </c>
+      <c r="D135" s="40">
+        <f t="shared" si="6"/>
+        <v>16</v>
+      </c>
+      <c r="E135" s="40" t="str">
+        <f t="shared" si="7"/>
+        <v>embankment_1_11</v>
+      </c>
+      <c r="H135" s="40" t="str">
+        <f t="shared" si="8"/>
+        <v>embankment_1_11: require('./Asset1/embankment_1_11.png'),</v>
+      </c>
+      <c r="L135" s="69" t="s">
+        <v>216</v>
+      </c>
+      <c r="M135" s="40" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="136" spans="2:13">
       <c r="B136" s="40" t="s">
         <v>176</v>
       </c>
-      <c r="C136" s="40">
-        <v>10</v>
-      </c>
-      <c r="F136" s="40" t="str">
-        <f t="shared" si="2"/>
-        <v>Asset1_10: require('./Asset1/Asset1_10.png'),</v>
-      </c>
-    </row>
-    <row r="137" spans="2:6">
+      <c r="C136" s="40" t="s">
+        <v>351</v>
+      </c>
+      <c r="D136" s="40">
+        <f t="shared" si="6"/>
+        <v>15</v>
+      </c>
+      <c r="E136" s="40" t="str">
+        <f t="shared" si="7"/>
+        <v>embankment_1_2</v>
+      </c>
+      <c r="H136" s="40" t="str">
+        <f t="shared" si="8"/>
+        <v>embankment_1_2: require('./Asset1/embankment_1_2.png'),</v>
+      </c>
+      <c r="L136" s="69" t="s">
+        <v>216</v>
+      </c>
+      <c r="M136" s="40" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="137" spans="2:13">
       <c r="B137" s="40" t="s">
         <v>176</v>
       </c>
-      <c r="C137" s="40">
-        <v>11</v>
-      </c>
-      <c r="F137" s="40" t="str">
-        <f t="shared" si="2"/>
-        <v>Asset1_11: require('./Asset1/Asset1_11.png'),</v>
-      </c>
-    </row>
-    <row r="138" spans="2:6">
+      <c r="C137" s="40" t="s">
+        <v>352</v>
+      </c>
+      <c r="D137" s="40">
+        <f t="shared" si="6"/>
+        <v>15</v>
+      </c>
+      <c r="E137" s="40" t="str">
+        <f t="shared" si="7"/>
+        <v>embankment_1_3</v>
+      </c>
+      <c r="H137" s="40" t="str">
+        <f t="shared" si="8"/>
+        <v>embankment_1_3: require('./Asset1/embankment_1_3.png'),</v>
+      </c>
+      <c r="L137" s="69" t="s">
+        <v>216</v>
+      </c>
+      <c r="M137" s="40" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="138" spans="2:13">
       <c r="B138" s="40" t="s">
         <v>176</v>
       </c>
-      <c r="C138" s="40">
-        <v>12</v>
-      </c>
-      <c r="F138" s="40" t="str">
-        <f t="shared" si="2"/>
-        <v>Asset1_12: require('./Asset1/Asset1_12.png'),</v>
-      </c>
-    </row>
-    <row r="139" spans="2:6">
+      <c r="C138" s="40" t="s">
+        <v>353</v>
+      </c>
+      <c r="D138" s="40">
+        <f t="shared" si="6"/>
+        <v>15</v>
+      </c>
+      <c r="E138" s="40" t="str">
+        <f t="shared" si="7"/>
+        <v>embankment_1_4</v>
+      </c>
+      <c r="H138" s="40" t="str">
+        <f t="shared" si="8"/>
+        <v>embankment_1_4: require('./Asset1/embankment_1_4.png'),</v>
+      </c>
+      <c r="L138" s="69" t="s">
+        <v>216</v>
+      </c>
+      <c r="M138" s="40" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="139" spans="2:13">
       <c r="B139" s="40" t="s">
         <v>176</v>
       </c>
-      <c r="C139" s="40">
-        <v>13</v>
-      </c>
-      <c r="F139" s="40" t="str">
-        <f t="shared" si="2"/>
-        <v>Asset1_13: require('./Asset1/Asset1_13.png'),</v>
-      </c>
-    </row>
-    <row r="140" spans="2:6">
+      <c r="C139" s="40" t="s">
+        <v>354</v>
+      </c>
+      <c r="D139" s="40">
+        <f t="shared" si="6"/>
+        <v>15</v>
+      </c>
+      <c r="E139" s="40" t="str">
+        <f t="shared" si="7"/>
+        <v>embankment_1_5</v>
+      </c>
+      <c r="H139" s="40" t="str">
+        <f t="shared" si="8"/>
+        <v>embankment_1_5: require('./Asset1/embankment_1_5.png'),</v>
+      </c>
+      <c r="L139" s="69" t="s">
+        <v>216</v>
+      </c>
+      <c r="M139" s="40" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="140" spans="2:13">
       <c r="B140" s="40" t="s">
         <v>176</v>
       </c>
-      <c r="C140" s="40">
-        <v>14</v>
-      </c>
-      <c r="F140" s="40" t="str">
-        <f t="shared" si="2"/>
-        <v>Asset1_14: require('./Asset1/Asset1_14.png'),</v>
-      </c>
-    </row>
-    <row r="141" spans="2:6">
+      <c r="C140" s="40" t="s">
+        <v>355</v>
+      </c>
+      <c r="D140" s="40">
+        <f t="shared" si="6"/>
+        <v>15</v>
+      </c>
+      <c r="E140" s="40" t="str">
+        <f t="shared" si="7"/>
+        <v>embankment_1_6</v>
+      </c>
+      <c r="H140" s="40" t="str">
+        <f t="shared" si="8"/>
+        <v>embankment_1_6: require('./Asset1/embankment_1_6.png'),</v>
+      </c>
+      <c r="L140" s="69" t="s">
+        <v>216</v>
+      </c>
+      <c r="M140" s="40" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="141" spans="2:13">
       <c r="B141" s="40" t="s">
         <v>176</v>
       </c>
-      <c r="C141" s="40">
+      <c r="C141" s="40" t="s">
+        <v>356</v>
+      </c>
+      <c r="D141" s="40">
+        <f t="shared" si="6"/>
         <v>15</v>
       </c>
-      <c r="F141" s="40" t="str">
-        <f t="shared" si="2"/>
-        <v>Asset1_15: require('./Asset1/Asset1_15.png'),</v>
-      </c>
-    </row>
-    <row r="142" spans="2:6">
+      <c r="E141" s="40" t="str">
+        <f t="shared" si="7"/>
+        <v>embankment_1_7</v>
+      </c>
+      <c r="H141" s="40" t="str">
+        <f t="shared" si="8"/>
+        <v>embankment_1_7: require('./Asset1/embankment_1_7.png'),</v>
+      </c>
+      <c r="L141" s="69" t="s">
+        <v>216</v>
+      </c>
+      <c r="M141" s="40" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="142" spans="2:13">
       <c r="B142" s="40" t="s">
         <v>176</v>
       </c>
-      <c r="C142" s="40">
-        <v>16</v>
-      </c>
-      <c r="F142" s="40" t="str">
-        <f t="shared" si="2"/>
-        <v>Asset1_16: require('./Asset1/Asset1_16.png'),</v>
-      </c>
-    </row>
-    <row r="143" spans="2:6">
+      <c r="C142" s="40" t="s">
+        <v>357</v>
+      </c>
+      <c r="D142" s="40">
+        <f t="shared" si="6"/>
+        <v>15</v>
+      </c>
+      <c r="E142" s="40" t="str">
+        <f t="shared" si="7"/>
+        <v>embankment_1_8</v>
+      </c>
+      <c r="H142" s="40" t="str">
+        <f t="shared" si="8"/>
+        <v>embankment_1_8: require('./Asset1/embankment_1_8.png'),</v>
+      </c>
+      <c r="L142" s="69" t="s">
+        <v>216</v>
+      </c>
+      <c r="M142" s="40" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="143" spans="2:13">
       <c r="B143" s="40" t="s">
         <v>176</v>
       </c>
-      <c r="C143" s="40">
-        <v>17</v>
-      </c>
-      <c r="F143" s="40" t="str">
-        <f t="shared" si="2"/>
-        <v>Asset1_17: require('./Asset1/Asset1_17.png'),</v>
-      </c>
-    </row>
-    <row r="144" spans="2:6">
+      <c r="C143" s="40" t="s">
+        <v>358</v>
+      </c>
+      <c r="D143" s="40">
+        <f t="shared" si="6"/>
+        <v>15</v>
+      </c>
+      <c r="E143" s="40" t="str">
+        <f t="shared" si="7"/>
+        <v>embankment_1_9</v>
+      </c>
+      <c r="H143" s="40" t="str">
+        <f t="shared" si="8"/>
+        <v>embankment_1_9: require('./Asset1/embankment_1_9.png'),</v>
+      </c>
+      <c r="L143" s="69" t="s">
+        <v>216</v>
+      </c>
+      <c r="M143" s="40" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="144" spans="2:13">
       <c r="B144" s="40" t="s">
         <v>176</v>
       </c>
-      <c r="C144" s="40">
-        <v>18</v>
-      </c>
-      <c r="F144" s="40" t="str">
-        <f t="shared" si="2"/>
-        <v>Asset1_18: require('./Asset1/Asset1_18.png'),</v>
-      </c>
-    </row>
-    <row r="145" spans="2:6">
+      <c r="C144" s="40" t="s">
+        <v>359</v>
+      </c>
+      <c r="D144" s="40">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="E144" s="40" t="str">
+        <f t="shared" si="7"/>
+        <v>prohibit</v>
+      </c>
+      <c r="H144" s="40" t="str">
+        <f t="shared" si="8"/>
+        <v>prohibit: require('./Asset1/prohibit.png'),</v>
+      </c>
+      <c r="L144" s="69" t="s">
+        <v>216</v>
+      </c>
+      <c r="M144" s="40" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="145" spans="2:13">
       <c r="B145" s="40" t="s">
         <v>176</v>
       </c>
-      <c r="C145" s="40">
-        <v>19</v>
-      </c>
-      <c r="F145" s="40" t="str">
-        <f t="shared" si="2"/>
-        <v>Asset1_19: require('./Asset1/Asset1_19.png'),</v>
-      </c>
-    </row>
-    <row r="146" spans="2:6">
+      <c r="C145" s="40" t="s">
+        <v>360</v>
+      </c>
+      <c r="D145" s="40">
+        <f t="shared" si="6"/>
+        <v>15</v>
+      </c>
+      <c r="E145" s="40" t="str">
+        <f t="shared" si="7"/>
+        <v>prohibit_human</v>
+      </c>
+      <c r="H145" s="40" t="str">
+        <f t="shared" si="8"/>
+        <v>prohibit_human: require('./Asset1/prohibit_human.png'),</v>
+      </c>
+      <c r="L145" s="69" t="s">
+        <v>216</v>
+      </c>
+      <c r="M145" s="40" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="146" spans="2:13">
       <c r="B146" s="40" t="s">
         <v>176</v>
       </c>
-      <c r="C146" s="40">
-        <v>20</v>
-      </c>
-      <c r="F146" s="40" t="str">
-        <f t="shared" si="2"/>
-        <v>Asset1_20: require('./Asset1/Asset1_20.png'),</v>
-      </c>
-    </row>
-    <row r="147" spans="2:6">
+      <c r="C146" s="40" t="s">
+        <v>361</v>
+      </c>
+      <c r="D146" s="40">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="E146" s="40" t="str">
+        <f t="shared" si="7"/>
+        <v>river_1_1</v>
+      </c>
+      <c r="H146" s="40" t="str">
+        <f t="shared" si="8"/>
+        <v>river_1_1: require('./Asset1/river_1_1.png'),</v>
+      </c>
+      <c r="L146" s="69" t="s">
+        <v>216</v>
+      </c>
+      <c r="M146" s="40" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="147" spans="2:13">
       <c r="B147" s="40" t="s">
         <v>176</v>
       </c>
-      <c r="C147" s="40">
-        <v>21</v>
-      </c>
-      <c r="F147" s="40" t="str">
-        <f t="shared" si="2"/>
-        <v>Asset1_21: require('./Asset1/Asset1_21.png'),</v>
-      </c>
-    </row>
-    <row r="148" spans="2:6">
+      <c r="C147" s="40" t="s">
+        <v>362</v>
+      </c>
+      <c r="D147" s="40">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="E147" s="40" t="str">
+        <f t="shared" si="7"/>
+        <v>river_1_2</v>
+      </c>
+      <c r="H147" s="40" t="str">
+        <f t="shared" si="8"/>
+        <v>river_1_2: require('./Asset1/river_1_2.png'),</v>
+      </c>
+      <c r="L147" s="69" t="s">
+        <v>216</v>
+      </c>
+      <c r="M147" s="40" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="148" spans="2:13">
       <c r="B148" s="40" t="s">
         <v>176</v>
       </c>
-      <c r="C148" s="40">
-        <v>22</v>
-      </c>
-      <c r="F148" s="40" t="str">
-        <f t="shared" si="2"/>
-        <v>Asset1_22: require('./Asset1/Asset1_22.png'),</v>
-      </c>
-    </row>
-    <row r="149" spans="2:6">
+      <c r="C148" s="40" t="s">
+        <v>363</v>
+      </c>
+      <c r="D148" s="40">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="E148" s="40" t="str">
+        <f t="shared" si="7"/>
+        <v>river_1_3</v>
+      </c>
+      <c r="H148" s="40" t="str">
+        <f t="shared" si="8"/>
+        <v>river_1_3: require('./Asset1/river_1_3.png'),</v>
+      </c>
+      <c r="L148" s="69" t="s">
+        <v>216</v>
+      </c>
+      <c r="M148" s="40" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="149" spans="2:13">
       <c r="B149" s="40" t="s">
         <v>176</v>
       </c>
-      <c r="C149" s="40">
-        <v>23</v>
-      </c>
-      <c r="F149" s="40" t="str">
-        <f t="shared" si="2"/>
-        <v>Asset1_23: require('./Asset1/Asset1_23.png'),</v>
-      </c>
-    </row>
-    <row r="150" spans="2:6">
+      <c r="C149" s="40" t="s">
+        <v>364</v>
+      </c>
+      <c r="D149" s="40">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="E149" s="40" t="str">
+        <f t="shared" si="7"/>
+        <v>river_1_4</v>
+      </c>
+      <c r="H149" s="40" t="str">
+        <f t="shared" si="8"/>
+        <v>river_1_4: require('./Asset1/river_1_4.png'),</v>
+      </c>
+      <c r="L149" s="69" t="s">
+        <v>216</v>
+      </c>
+      <c r="M149" s="40" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="150" spans="2:13">
       <c r="B150" s="40" t="s">
         <v>176</v>
       </c>
-      <c r="C150" s="40">
-        <v>24</v>
-      </c>
-      <c r="F150" s="40" t="str">
-        <f t="shared" si="2"/>
-        <v>Asset1_24: require('./Asset1/Asset1_24.png'),</v>
-      </c>
-    </row>
-    <row r="151" spans="2:6">
+      <c r="C150" s="40" t="s">
+        <v>365</v>
+      </c>
+      <c r="D150" s="40">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="E150" s="40" t="str">
+        <f t="shared" si="7"/>
+        <v>river_1_5</v>
+      </c>
+      <c r="H150" s="40" t="str">
+        <f t="shared" si="8"/>
+        <v>river_1_5: require('./Asset1/river_1_5.png'),</v>
+      </c>
+      <c r="L150" s="69" t="s">
+        <v>216</v>
+      </c>
+      <c r="M150" s="40" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="151" spans="2:13">
       <c r="B151" s="40" t="s">
         <v>176</v>
       </c>
-      <c r="C151" s="40">
-        <v>25</v>
-      </c>
-      <c r="F151" s="40" t="str">
-        <f t="shared" si="2"/>
-        <v>Asset1_25: require('./Asset1/Asset1_25.png'),</v>
-      </c>
-    </row>
-    <row r="152" spans="2:6">
+      <c r="C151" s="40" t="s">
+        <v>366</v>
+      </c>
+      <c r="D151" s="40">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="E151" s="40" t="str">
+        <f t="shared" si="7"/>
+        <v>river_1_6</v>
+      </c>
+      <c r="H151" s="40" t="str">
+        <f t="shared" si="8"/>
+        <v>river_1_6: require('./Asset1/river_1_6.png'),</v>
+      </c>
+      <c r="L151" s="69" t="s">
+        <v>216</v>
+      </c>
+      <c r="M151" s="40" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="152" spans="2:13">
       <c r="B152" s="40" t="s">
         <v>176</v>
       </c>
-      <c r="C152" s="40">
-        <v>26</v>
-      </c>
-      <c r="F152" s="40" t="str">
-        <f t="shared" si="2"/>
-        <v>Asset1_26: require('./Asset1/Asset1_26.png'),</v>
-      </c>
-    </row>
-    <row r="153" spans="2:6">
+      <c r="C152" s="40" t="s">
+        <v>367</v>
+      </c>
+      <c r="D152" s="40">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="E152" s="40" t="str">
+        <f t="shared" si="7"/>
+        <v>river_1_7</v>
+      </c>
+      <c r="H152" s="40" t="str">
+        <f t="shared" si="8"/>
+        <v>river_1_7: require('./Asset1/river_1_7.png'),</v>
+      </c>
+      <c r="L152" s="69" t="s">
+        <v>216</v>
+      </c>
+      <c r="M152" s="40" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="153" spans="2:13">
       <c r="B153" s="40" t="s">
         <v>176</v>
       </c>
-      <c r="C153" s="40">
-        <v>27</v>
-      </c>
-      <c r="F153" s="40" t="str">
-        <f t="shared" si="2"/>
-        <v>Asset1_27: require('./Asset1/Asset1_27.png'),</v>
-      </c>
-    </row>
-    <row r="154" spans="2:6">
+      <c r="C153" s="40" t="s">
+        <v>368</v>
+      </c>
+      <c r="D153" s="40">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="E153" s="40" t="str">
+        <f t="shared" si="7"/>
+        <v>river_1_8</v>
+      </c>
+      <c r="H153" s="40" t="str">
+        <f t="shared" si="8"/>
+        <v>river_1_8: require('./Asset1/river_1_8.png'),</v>
+      </c>
+      <c r="L153" s="69" t="s">
+        <v>216</v>
+      </c>
+      <c r="M153" s="40" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="154" spans="2:13">
       <c r="B154" s="40" t="s">
         <v>176</v>
       </c>
-      <c r="C154" s="40">
-        <v>28</v>
-      </c>
-      <c r="F154" s="40" t="str">
-        <f t="shared" si="2"/>
-        <v>Asset1_28: require('./Asset1/Asset1_28.png'),</v>
-      </c>
-    </row>
-    <row r="155" spans="2:6">
+      <c r="C154" s="40" t="s">
+        <v>369</v>
+      </c>
+      <c r="D154" s="40">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="E154" s="40" t="str">
+        <f t="shared" si="7"/>
+        <v>river_2_1</v>
+      </c>
+      <c r="H154" s="40" t="str">
+        <f t="shared" si="8"/>
+        <v>river_2_1: require('./Asset1/river_2_1.png'),</v>
+      </c>
+      <c r="L154" s="69" t="s">
+        <v>216</v>
+      </c>
+      <c r="M154" s="40" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="155" spans="2:13">
       <c r="B155" s="40" t="s">
         <v>176</v>
       </c>
-      <c r="C155" s="40">
-        <v>29</v>
-      </c>
-      <c r="F155" s="40" t="str">
-        <f t="shared" si="2"/>
-        <v>Asset1_29: require('./Asset1/Asset1_29.png'),</v>
-      </c>
-    </row>
-    <row r="156" spans="2:6">
+      <c r="C155" s="40" t="s">
+        <v>370</v>
+      </c>
+      <c r="D155" s="40">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+      <c r="E155" s="40" t="str">
+        <f t="shared" si="7"/>
+        <v>river_2_10</v>
+      </c>
+      <c r="H155" s="40" t="str">
+        <f t="shared" si="8"/>
+        <v>river_2_10: require('./Asset1/river_2_10.png'),</v>
+      </c>
+      <c r="L155" s="69" t="s">
+        <v>216</v>
+      </c>
+      <c r="M155" s="40" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="156" spans="2:13">
       <c r="B156" s="40" t="s">
         <v>176</v>
       </c>
-      <c r="C156" s="40">
-        <v>30</v>
-      </c>
-      <c r="F156" s="40" t="str">
-        <f t="shared" si="2"/>
-        <v>Asset1_30: require('./Asset1/Asset1_30.png'),</v>
-      </c>
-    </row>
-    <row r="157" spans="2:6">
+      <c r="C156" s="40" t="s">
+        <v>371</v>
+      </c>
+      <c r="D156" s="40">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="E156" s="40" t="str">
+        <f t="shared" si="7"/>
+        <v>river_2_2</v>
+      </c>
+      <c r="H156" s="40" t="str">
+        <f t="shared" si="8"/>
+        <v>river_2_2: require('./Asset1/river_2_2.png'),</v>
+      </c>
+      <c r="L156" s="69" t="s">
+        <v>216</v>
+      </c>
+      <c r="M156" s="40" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="157" spans="2:13">
       <c r="B157" s="40" t="s">
         <v>176</v>
       </c>
-      <c r="C157" s="40">
-        <v>31</v>
-      </c>
-      <c r="F157" s="40" t="str">
-        <f t="shared" si="2"/>
-        <v>Asset1_31: require('./Asset1/Asset1_31.png'),</v>
-      </c>
-    </row>
-    <row r="158" spans="2:6">
+      <c r="C157" s="40" t="s">
+        <v>372</v>
+      </c>
+      <c r="D157" s="40">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="E157" s="40" t="str">
+        <f t="shared" si="7"/>
+        <v>river_2_3</v>
+      </c>
+      <c r="H157" s="40" t="str">
+        <f t="shared" si="8"/>
+        <v>river_2_3: require('./Asset1/river_2_3.png'),</v>
+      </c>
+      <c r="L157" s="69" t="s">
+        <v>216</v>
+      </c>
+      <c r="M157" s="40" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="158" spans="2:13">
       <c r="B158" s="40" t="s">
         <v>176</v>
       </c>
-      <c r="C158" s="40">
-        <v>32</v>
-      </c>
-      <c r="F158" s="40" t="str">
-        <f t="shared" si="2"/>
-        <v>Asset1_32: require('./Asset1/Asset1_32.png'),</v>
-      </c>
-    </row>
-    <row r="159" spans="2:6">
-      <c r="E159" s="40" t="s">
+      <c r="C158" s="40" t="s">
+        <v>373</v>
+      </c>
+      <c r="D158" s="40">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="E158" s="40" t="str">
+        <f t="shared" si="7"/>
+        <v>river_2_4</v>
+      </c>
+      <c r="H158" s="40" t="str">
+        <f t="shared" si="8"/>
+        <v>river_2_4: require('./Asset1/river_2_4.png'),</v>
+      </c>
+      <c r="L158" s="69" t="s">
+        <v>216</v>
+      </c>
+      <c r="M158" s="40" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="159" spans="2:13">
+      <c r="B159" s="40" t="s">
+        <v>176</v>
+      </c>
+      <c r="C159" s="40" t="s">
+        <v>374</v>
+      </c>
+      <c r="D159" s="40">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="E159" s="40" t="str">
+        <f t="shared" si="7"/>
+        <v>river_2_5</v>
+      </c>
+      <c r="H159" s="40" t="str">
+        <f t="shared" si="8"/>
+        <v>river_2_5: require('./Asset1/river_2_5.png'),</v>
+      </c>
+      <c r="L159" s="69" t="s">
+        <v>216</v>
+      </c>
+      <c r="M159" s="40" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="160" spans="2:13">
+      <c r="B160" s="40" t="s">
+        <v>176</v>
+      </c>
+      <c r="C160" s="40" t="s">
+        <v>375</v>
+      </c>
+      <c r="D160" s="40">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="E160" s="40" t="str">
+        <f t="shared" si="7"/>
+        <v>river_2_6</v>
+      </c>
+      <c r="H160" s="40" t="str">
+        <f t="shared" si="8"/>
+        <v>river_2_6: require('./Asset1/river_2_6.png'),</v>
+      </c>
+      <c r="L160" s="69" t="s">
+        <v>216</v>
+      </c>
+      <c r="M160" s="40" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="161" spans="2:13">
+      <c r="B161" s="40" t="s">
+        <v>176</v>
+      </c>
+      <c r="C161" s="40" t="s">
+        <v>376</v>
+      </c>
+      <c r="D161" s="40">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="E161" s="40" t="str">
+        <f t="shared" si="7"/>
+        <v>river_2_7</v>
+      </c>
+      <c r="H161" s="40" t="str">
+        <f t="shared" si="8"/>
+        <v>river_2_7: require('./Asset1/river_2_7.png'),</v>
+      </c>
+      <c r="L161" s="69" t="s">
+        <v>216</v>
+      </c>
+      <c r="M161" s="40" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="162" spans="2:13">
+      <c r="B162" s="40" t="s">
+        <v>176</v>
+      </c>
+      <c r="C162" s="40" t="s">
+        <v>377</v>
+      </c>
+      <c r="D162" s="40">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="E162" s="40" t="str">
+        <f t="shared" si="7"/>
+        <v>river_2_8</v>
+      </c>
+      <c r="H162" s="40" t="str">
+        <f t="shared" si="8"/>
+        <v>river_2_8: require('./Asset1/river_2_8.png'),</v>
+      </c>
+      <c r="L162" s="69" t="s">
+        <v>216</v>
+      </c>
+      <c r="M162" s="40" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="163" spans="2:13">
+      <c r="B163" s="40" t="s">
+        <v>176</v>
+      </c>
+      <c r="C163" s="40" t="s">
+        <v>378</v>
+      </c>
+      <c r="D163" s="40">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="E163" s="40" t="str">
+        <f t="shared" si="7"/>
+        <v>river_2_9</v>
+      </c>
+      <c r="H163" s="40" t="str">
+        <f t="shared" si="8"/>
+        <v>river_2_9: require('./Asset1/river_2_9.png'),</v>
+      </c>
+      <c r="L163" s="69" t="s">
+        <v>216</v>
+      </c>
+      <c r="M163" s="40" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="164" spans="2:13">
+      <c r="B164" s="40" t="s">
+        <v>176</v>
+      </c>
+      <c r="C164" s="40" t="s">
+        <v>379</v>
+      </c>
+      <c r="D164" s="40">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+      <c r="E164" s="40" t="str">
+        <f t="shared" si="7"/>
+        <v>rock_shore1</v>
+      </c>
+      <c r="H164" s="40" t="str">
+        <f t="shared" si="8"/>
+        <v>rock_shore1: require('./Asset1/rock_shore1.png'),</v>
+      </c>
+      <c r="L164" s="69" t="s">
+        <v>216</v>
+      </c>
+      <c r="M164" s="40" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="165" spans="2:13">
+      <c r="B165" s="40" t="s">
+        <v>176</v>
+      </c>
+      <c r="C165" s="40" t="s">
+        <v>380</v>
+      </c>
+      <c r="D165" s="40">
+        <f t="shared" si="6"/>
+        <v>13</v>
+      </c>
+      <c r="E165" s="40" t="str">
+        <f t="shared" si="7"/>
+        <v>rock_shore10</v>
+      </c>
+      <c r="H165" s="40" t="str">
+        <f t="shared" si="8"/>
+        <v>rock_shore10: require('./Asset1/rock_shore10.png'),</v>
+      </c>
+      <c r="L165" s="69" t="s">
+        <v>216</v>
+      </c>
+      <c r="M165" s="40" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="166" spans="2:13">
+      <c r="B166" s="40" t="s">
+        <v>176</v>
+      </c>
+      <c r="C166" s="40" t="s">
+        <v>381</v>
+      </c>
+      <c r="D166" s="40">
+        <f t="shared" si="6"/>
+        <v>13</v>
+      </c>
+      <c r="E166" s="40" t="str">
+        <f t="shared" si="7"/>
+        <v>rock_shore11</v>
+      </c>
+      <c r="H166" s="40" t="str">
+        <f t="shared" si="8"/>
+        <v>rock_shore11: require('./Asset1/rock_shore11.png'),</v>
+      </c>
+      <c r="L166" s="69" t="s">
+        <v>216</v>
+      </c>
+      <c r="M166" s="40" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="167" spans="2:13">
+      <c r="B167" s="40" t="s">
+        <v>176</v>
+      </c>
+      <c r="C167" s="40" t="s">
+        <v>382</v>
+      </c>
+      <c r="D167" s="40">
+        <f t="shared" si="6"/>
+        <v>13</v>
+      </c>
+      <c r="E167" s="40" t="str">
+        <f t="shared" si="7"/>
+        <v>rock_shore12</v>
+      </c>
+      <c r="H167" s="40" t="str">
+        <f t="shared" si="8"/>
+        <v>rock_shore12: require('./Asset1/rock_shore12.png'),</v>
+      </c>
+      <c r="L167" s="69" t="s">
+        <v>216</v>
+      </c>
+      <c r="M167" s="40" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="168" spans="2:13">
+      <c r="B168" s="40" t="s">
+        <v>176</v>
+      </c>
+      <c r="C168" s="40" t="s">
+        <v>383</v>
+      </c>
+      <c r="D168" s="40">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+      <c r="E168" s="40" t="str">
+        <f t="shared" si="7"/>
+        <v>rock_shore2</v>
+      </c>
+      <c r="H168" s="40" t="str">
+        <f t="shared" si="8"/>
+        <v>rock_shore2: require('./Asset1/rock_shore2.png'),</v>
+      </c>
+      <c r="L168" s="69" t="s">
+        <v>216</v>
+      </c>
+      <c r="M168" s="40" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="169" spans="2:13">
+      <c r="B169" s="40" t="s">
+        <v>176</v>
+      </c>
+      <c r="C169" s="40" t="s">
+        <v>384</v>
+      </c>
+      <c r="D169" s="40">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+      <c r="E169" s="40" t="str">
+        <f t="shared" si="7"/>
+        <v>rock_shore3</v>
+      </c>
+      <c r="H169" s="40" t="str">
+        <f t="shared" si="8"/>
+        <v>rock_shore3: require('./Asset1/rock_shore3.png'),</v>
+      </c>
+      <c r="L169" s="69" t="s">
+        <v>216</v>
+      </c>
+      <c r="M169" s="40" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="170" spans="2:13">
+      <c r="B170" s="40" t="s">
+        <v>176</v>
+      </c>
+      <c r="C170" s="40" t="s">
+        <v>385</v>
+      </c>
+      <c r="D170" s="40">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+      <c r="E170" s="40" t="str">
+        <f t="shared" si="7"/>
+        <v>rock_shore4</v>
+      </c>
+      <c r="H170" s="40" t="str">
+        <f t="shared" si="8"/>
+        <v>rock_shore4: require('./Asset1/rock_shore4.png'),</v>
+      </c>
+      <c r="L170" s="69" t="s">
+        <v>216</v>
+      </c>
+      <c r="M170" s="40" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="171" spans="2:13">
+      <c r="B171" s="40" t="s">
+        <v>176</v>
+      </c>
+      <c r="C171" s="40" t="s">
+        <v>386</v>
+      </c>
+      <c r="D171" s="40">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+      <c r="E171" s="40" t="str">
+        <f t="shared" si="7"/>
+        <v>rock_shore5</v>
+      </c>
+      <c r="H171" s="40" t="str">
+        <f t="shared" si="8"/>
+        <v>rock_shore5: require('./Asset1/rock_shore5.png'),</v>
+      </c>
+      <c r="L171" s="69" t="s">
+        <v>216</v>
+      </c>
+      <c r="M171" s="40" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="172" spans="2:13">
+      <c r="B172" s="40" t="s">
+        <v>176</v>
+      </c>
+      <c r="C172" s="40" t="s">
+        <v>387</v>
+      </c>
+      <c r="D172" s="40">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+      <c r="E172" s="40" t="str">
+        <f t="shared" si="7"/>
+        <v>rock_shore6</v>
+      </c>
+      <c r="H172" s="40" t="str">
+        <f t="shared" si="8"/>
+        <v>rock_shore6: require('./Asset1/rock_shore6.png'),</v>
+      </c>
+      <c r="L172" s="69" t="s">
+        <v>216</v>
+      </c>
+      <c r="M172" s="40" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="173" spans="2:13">
+      <c r="B173" s="40" t="s">
+        <v>176</v>
+      </c>
+      <c r="C173" s="40" t="s">
+        <v>388</v>
+      </c>
+      <c r="D173" s="40">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+      <c r="E173" s="40" t="str">
+        <f t="shared" si="7"/>
+        <v>rock_shore7</v>
+      </c>
+      <c r="H173" s="40" t="str">
+        <f t="shared" si="8"/>
+        <v>rock_shore7: require('./Asset1/rock_shore7.png'),</v>
+      </c>
+      <c r="L173" s="69" t="s">
+        <v>216</v>
+      </c>
+      <c r="M173" s="40" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="174" spans="2:13">
+      <c r="B174" s="40" t="s">
+        <v>176</v>
+      </c>
+      <c r="C174" s="40" t="s">
+        <v>389</v>
+      </c>
+      <c r="D174" s="40">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+      <c r="E174" s="40" t="str">
+        <f t="shared" si="7"/>
+        <v>rock_shore8</v>
+      </c>
+      <c r="H174" s="40" t="str">
+        <f t="shared" si="8"/>
+        <v>rock_shore8: require('./Asset1/rock_shore8.png'),</v>
+      </c>
+      <c r="L174" s="69" t="s">
+        <v>216</v>
+      </c>
+      <c r="M174" s="40" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="175" spans="2:13">
+      <c r="B175" s="40" t="s">
+        <v>176</v>
+      </c>
+      <c r="C175" s="40" t="s">
+        <v>390</v>
+      </c>
+      <c r="D175" s="40">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+      <c r="E175" s="40" t="str">
+        <f t="shared" si="7"/>
+        <v>rock_shore9</v>
+      </c>
+      <c r="H175" s="40" t="str">
+        <f t="shared" si="8"/>
+        <v>rock_shore9: require('./Asset1/rock_shore9.png'),</v>
+      </c>
+      <c r="L175" s="69" t="s">
+        <v>216</v>
+      </c>
+      <c r="M175" s="40" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="176" spans="2:13">
+      <c r="B176" s="40" t="s">
+        <v>176</v>
+      </c>
+      <c r="C176" s="40" t="s">
+        <v>391</v>
+      </c>
+      <c r="D176" s="40">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="E176" s="40" t="str">
+        <f t="shared" si="7"/>
+        <v>tetora</v>
+      </c>
+      <c r="H176" s="40" t="str">
+        <f t="shared" si="8"/>
+        <v>tetora: require('./Asset1/tetora.png'),</v>
+      </c>
+      <c r="L176" s="69" t="s">
+        <v>216</v>
+      </c>
+      <c r="M176" s="40" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="177" spans="2:13">
+      <c r="B177" s="40" t="s">
+        <v>176</v>
+      </c>
+      <c r="C177" s="40" t="s">
+        <v>392</v>
+      </c>
+      <c r="D177" s="40">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="E177" s="40" t="str">
+        <f t="shared" si="7"/>
+        <v>trash</v>
+      </c>
+      <c r="H177" s="40" t="str">
+        <f t="shared" si="8"/>
+        <v>trash: require('./Asset1/trash.png'),</v>
+      </c>
+      <c r="L177" s="69" t="s">
+        <v>216</v>
+      </c>
+      <c r="M177" s="40" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="178" spans="2:13">
+      <c r="B178" s="40" t="s">
+        <v>176</v>
+      </c>
+      <c r="C178" s="40" t="s">
+        <v>393</v>
+      </c>
+      <c r="D178" s="40">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="E178" s="40" t="str">
+        <f t="shared" si="7"/>
+        <v>wakame</v>
+      </c>
+      <c r="H178" s="40" t="str">
+        <f t="shared" si="8"/>
+        <v>wakame: require('./Asset1/wakame.png'),</v>
+      </c>
+      <c r="L178" s="69" t="s">
+        <v>216</v>
+      </c>
+      <c r="M178" s="40" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="179" spans="2:13">
+      <c r="B179" s="40" t="s">
+        <v>176</v>
+      </c>
+      <c r="C179" s="40" t="s">
+        <v>394</v>
+      </c>
+      <c r="D179" s="40">
+        <f t="shared" si="6"/>
+        <v>18</v>
+      </c>
+      <c r="E179" s="40" t="str">
+        <f t="shared" si="7"/>
+        <v>white_solt_water1</v>
+      </c>
+      <c r="H179" s="40" t="str">
+        <f t="shared" si="8"/>
+        <v>white_solt_water1: require('./Asset1/white_solt_water1.png'),</v>
+      </c>
+      <c r="L179" s="69" t="s">
+        <v>216</v>
+      </c>
+      <c r="M179" s="40" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="180" spans="2:13">
+      <c r="B180" s="40" t="s">
+        <v>176</v>
+      </c>
+      <c r="C180" s="40" t="s">
+        <v>395</v>
+      </c>
+      <c r="D180" s="40">
+        <f t="shared" si="6"/>
+        <v>18</v>
+      </c>
+      <c r="E180" s="40" t="str">
+        <f t="shared" si="7"/>
+        <v>white_solt_water2</v>
+      </c>
+      <c r="H180" s="40" t="str">
+        <f t="shared" si="8"/>
+        <v>white_solt_water2: require('./Asset1/white_solt_water2.png'),</v>
+      </c>
+      <c r="L180" s="69" t="s">
+        <v>216</v>
+      </c>
+      <c r="M180" s="40" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="181" spans="2:13">
+      <c r="B181" s="40" t="s">
+        <v>176</v>
+      </c>
+      <c r="C181" s="40" t="s">
+        <v>396</v>
+      </c>
+      <c r="D181" s="40">
+        <f t="shared" si="6"/>
+        <v>18</v>
+      </c>
+      <c r="E181" s="40" t="str">
+        <f t="shared" si="7"/>
+        <v>white_solt_water3</v>
+      </c>
+      <c r="H181" s="40" t="str">
+        <f t="shared" si="8"/>
+        <v>white_solt_water3: require('./Asset1/white_solt_water3.png'),</v>
+      </c>
+      <c r="L181" s="69" t="s">
+        <v>216</v>
+      </c>
+      <c r="M181" s="40" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="182" spans="2:13">
+      <c r="B182" s="40" t="s">
+        <v>176</v>
+      </c>
+      <c r="C182" s="40" t="s">
+        <v>397</v>
+      </c>
+      <c r="D182" s="40">
+        <f t="shared" si="6"/>
+        <v>18</v>
+      </c>
+      <c r="E182" s="40" t="str">
+        <f t="shared" si="7"/>
+        <v>white_solt_water4</v>
+      </c>
+      <c r="H182" s="40" t="str">
+        <f t="shared" si="8"/>
+        <v>white_solt_water4: require('./Asset1/white_solt_water4.png'),</v>
+      </c>
+      <c r="L182" s="69" t="s">
+        <v>216</v>
+      </c>
+      <c r="M182" s="40" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="183" spans="2:13">
+      <c r="B183" s="40" t="s">
+        <v>176</v>
+      </c>
+      <c r="C183" s="40" t="s">
+        <v>398</v>
+      </c>
+      <c r="D183" s="40">
+        <f t="shared" si="6"/>
+        <v>18</v>
+      </c>
+      <c r="E183" s="40" t="str">
+        <f t="shared" si="7"/>
+        <v>white_solt_water5</v>
+      </c>
+      <c r="H183" s="40" t="str">
+        <f t="shared" si="8"/>
+        <v>white_solt_water5: require('./Asset1/white_solt_water5.png'),</v>
+      </c>
+      <c r="L183" s="69" t="s">
+        <v>216</v>
+      </c>
+      <c r="M183" s="40" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="184" spans="2:13">
+      <c r="B184" s="40" t="s">
+        <v>176</v>
+      </c>
+      <c r="C184" s="40" t="s">
+        <v>399</v>
+      </c>
+      <c r="D184" s="40">
+        <f t="shared" si="6"/>
+        <v>18</v>
+      </c>
+      <c r="E184" s="40" t="str">
+        <f t="shared" si="7"/>
+        <v>white_solt_water6</v>
+      </c>
+      <c r="H184" s="40" t="str">
+        <f t="shared" si="8"/>
+        <v>white_solt_water6: require('./Asset1/white_solt_water6.png'),</v>
+      </c>
+      <c r="L184" s="69" t="s">
+        <v>216</v>
+      </c>
+      <c r="M184" s="40" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="185" spans="2:13">
+      <c r="B185" s="40" t="s">
+        <v>176</v>
+      </c>
+      <c r="C185" s="40" t="s">
+        <v>400</v>
+      </c>
+      <c r="D185" s="40">
+        <f t="shared" si="6"/>
+        <v>18</v>
+      </c>
+      <c r="E185" s="40" t="str">
+        <f t="shared" si="7"/>
+        <v>white_solt_water7</v>
+      </c>
+      <c r="H185" s="40" t="str">
+        <f t="shared" si="8"/>
+        <v>white_solt_water7: require('./Asset1/white_solt_water7.png'),</v>
+      </c>
+      <c r="L185" s="69" t="s">
+        <v>216</v>
+      </c>
+      <c r="M185" s="40" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="186" spans="2:13">
+      <c r="B186" s="40" t="s">
+        <v>176</v>
+      </c>
+      <c r="C186" s="40" t="s">
+        <v>401</v>
+      </c>
+      <c r="D186" s="40">
+        <f t="shared" si="6"/>
+        <v>17</v>
+      </c>
+      <c r="E186" s="40" t="str">
+        <f t="shared" si="7"/>
+        <v>yellow_tail_fish</v>
+      </c>
+      <c r="H186" s="40" t="str">
+        <f t="shared" si="8"/>
+        <v>yellow_tail_fish: require('./Asset1/yellow_tail_fish.png'),</v>
+      </c>
+      <c r="L186" s="69" t="s">
+        <v>340</v>
+      </c>
+      <c r="M186" s="40" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="187" spans="2:13">
+      <c r="G187" s="40" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="160" spans="2:6">
-      <c r="E160" s="41" t="s">
+    <row r="188" spans="2:13">
+      <c r="G188" s="41" t="s">
         <v>172</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81434722-8FF6-E642-86B5-A7960A0C0B92}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/doc/Development_Spec.xlsx
+++ b/doc/Development_Spec.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kota_ly/work/KokoDokoMapMaker/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E340A896-14E8-6845-ABC4-A240E5309D77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{979AC3B6-3B79-264B-AD54-F5036FF32D70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" firstSheet="8" activeTab="13" xr2:uid="{2C8663B7-A646-664E-AD48-D017962260BA}"/>
   </bookViews>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1051" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1051" uniqueCount="404">
   <si>
     <t>Tsuri Map Maker</t>
     <phoneticPr fontId="1"/>
@@ -2476,6 +2476,10 @@
   </si>
   <si>
     <t>fileName</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bridge_1_2.png</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2866,6 +2870,12 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2882,9 +2892,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2934,9 +2941,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -20641,7 +20645,7 @@
       <c r="D8" s="7"/>
     </row>
     <row r="9" spans="2:4" ht="19" customHeight="1">
-      <c r="B9" s="46" t="s">
+      <c r="B9" s="48" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="4" t="s">
@@ -20652,7 +20656,7 @@
       </c>
     </row>
     <row r="10" spans="2:4" ht="19" customHeight="1">
-      <c r="B10" s="47"/>
+      <c r="B10" s="49"/>
       <c r="C10" s="4" t="s">
         <v>67</v>
       </c>
@@ -20661,7 +20665,7 @@
       </c>
     </row>
     <row r="11" spans="2:4" ht="19" customHeight="1">
-      <c r="B11" s="47"/>
+      <c r="B11" s="49"/>
       <c r="C11" s="4" t="s">
         <v>68</v>
       </c>
@@ -20691,7 +20695,7 @@
       <c r="D14" s="7"/>
     </row>
     <row r="15" spans="2:4">
-      <c r="B15" s="48" t="s">
+      <c r="B15" s="50" t="s">
         <v>25</v>
       </c>
       <c r="C15" s="7" t="s">
@@ -20702,7 +20706,7 @@
       </c>
     </row>
     <row r="16" spans="2:4">
-      <c r="B16" s="49"/>
+      <c r="B16" s="51"/>
       <c r="C16" s="3" t="s">
         <v>11</v>
       </c>
@@ -20712,11 +20716,11 @@
     </row>
     <row r="17" spans="2:4">
       <c r="B17" s="6"/>
-      <c r="C17" s="50"/>
-      <c r="D17" s="50"/>
+      <c r="C17" s="52"/>
+      <c r="D17" s="52"/>
     </row>
     <row r="18" spans="2:4">
-      <c r="B18" s="48" t="s">
+      <c r="B18" s="50" t="s">
         <v>13</v>
       </c>
       <c r="C18" s="7" t="s">
@@ -20727,7 +20731,7 @@
       </c>
     </row>
     <row r="19" spans="2:4">
-      <c r="B19" s="51"/>
+      <c r="B19" s="53"/>
       <c r="C19" s="7" t="s">
         <v>69</v>
       </c>
@@ -20736,7 +20740,7 @@
       </c>
     </row>
     <row r="20" spans="2:4">
-      <c r="B20" s="51"/>
+      <c r="B20" s="53"/>
       <c r="C20" s="7" t="s">
         <v>70</v>
       </c>
@@ -20745,7 +20749,7 @@
       </c>
     </row>
     <row r="21" spans="2:4">
-      <c r="B21" s="49"/>
+      <c r="B21" s="51"/>
       <c r="C21" s="7" t="s">
         <v>71</v>
       </c>
@@ -20755,8 +20759,8 @@
     </row>
     <row r="22" spans="2:4">
       <c r="B22" s="6"/>
-      <c r="C22" s="50"/>
-      <c r="D22" s="50"/>
+      <c r="C22" s="52"/>
+      <c r="D22" s="52"/>
     </row>
     <row r="23" spans="2:4">
       <c r="B23" s="6" t="s">
@@ -20770,55 +20774,60 @@
       </c>
     </row>
     <row r="24" spans="2:4">
-      <c r="C24" s="52"/>
-      <c r="D24" s="52"/>
+      <c r="C24" s="47"/>
+      <c r="D24" s="47"/>
     </row>
     <row r="25" spans="2:4">
-      <c r="C25" s="52"/>
-      <c r="D25" s="52"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="47"/>
     </row>
     <row r="26" spans="2:4">
-      <c r="C26" s="52"/>
-      <c r="D26" s="52"/>
+      <c r="C26" s="47"/>
+      <c r="D26" s="47"/>
     </row>
     <row r="27" spans="2:4">
-      <c r="C27" s="52"/>
-      <c r="D27" s="52"/>
+      <c r="C27" s="47"/>
+      <c r="D27" s="47"/>
     </row>
     <row r="28" spans="2:4">
-      <c r="C28" s="52"/>
-      <c r="D28" s="52"/>
+      <c r="C28" s="47"/>
+      <c r="D28" s="47"/>
     </row>
     <row r="29" spans="2:4">
-      <c r="C29" s="52"/>
-      <c r="D29" s="52"/>
+      <c r="C29" s="47"/>
+      <c r="D29" s="47"/>
     </row>
     <row r="30" spans="2:4">
-      <c r="C30" s="52"/>
-      <c r="D30" s="52"/>
+      <c r="C30" s="47"/>
+      <c r="D30" s="47"/>
     </row>
     <row r="31" spans="2:4">
-      <c r="C31" s="52"/>
-      <c r="D31" s="52"/>
+      <c r="C31" s="47"/>
+      <c r="D31" s="47"/>
     </row>
     <row r="32" spans="2:4">
-      <c r="C32" s="52"/>
-      <c r="D32" s="52"/>
+      <c r="C32" s="47"/>
+      <c r="D32" s="47"/>
     </row>
     <row r="33" spans="3:4">
-      <c r="C33" s="52"/>
-      <c r="D33" s="52"/>
+      <c r="C33" s="47"/>
+      <c r="D33" s="47"/>
     </row>
     <row r="34" spans="3:4">
-      <c r="C34" s="52"/>
-      <c r="D34" s="52"/>
+      <c r="C34" s="47"/>
+      <c r="D34" s="47"/>
     </row>
     <row r="35" spans="3:4">
-      <c r="C35" s="52"/>
-      <c r="D35" s="52"/>
+      <c r="C35" s="47"/>
+      <c r="D35" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="B18:B21"/>
     <mergeCell ref="C35:D35"/>
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="C25:D25"/>
@@ -20831,11 +20840,6 @@
     <mergeCell ref="C32:D32"/>
     <mergeCell ref="C33:D33"/>
     <mergeCell ref="C34:D34"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="B18:B21"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B2:B15 B17:B18 B22:B1048576">
@@ -20963,15 +20967,15 @@
   </cols>
   <sheetData>
     <row r="4" spans="12:17">
-      <c r="M4" s="63" t="s">
+      <c r="M4" s="64" t="s">
         <v>168</v>
       </c>
-      <c r="N4" s="63"/>
-      <c r="O4" s="63" t="s">
+      <c r="N4" s="64"/>
+      <c r="O4" s="64" t="s">
         <v>166</v>
       </c>
-      <c r="P4" s="63"/>
-      <c r="Q4" s="63"/>
+      <c r="P4" s="64"/>
+      <c r="Q4" s="64"/>
     </row>
     <row r="5" spans="12:17" ht="38">
       <c r="L5" s="37" t="s">
@@ -21163,8 +21167,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{687D7CDE-3391-9D46-8031-EC40E3D62D72}">
   <dimension ref="B1:M188"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
-      <selection activeCell="C187" sqref="C187"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -21217,7 +21221,7 @@
         <f>E3&amp;": "&amp;"require('./" &amp; B3 &amp; "/" &amp; C3 &amp; "'),"</f>
         <v>Asset0_00000: require('./Asset0/Asset0_00000.png'),</v>
       </c>
-      <c r="L3" s="69" t="s">
+      <c r="L3" s="46" t="s">
         <v>216</v>
       </c>
       <c r="M3" s="40" t="s">
@@ -21243,7 +21247,7 @@
         <f t="shared" ref="H4:H67" si="2">E4&amp;": "&amp;"require('./" &amp; B4 &amp; "/" &amp; C4 &amp; "'),"</f>
         <v>Asset0_00001: require('./Asset0/Asset0_00001.png'),</v>
       </c>
-      <c r="L4" s="69" t="s">
+      <c r="L4" s="46" t="s">
         <v>216</v>
       </c>
       <c r="M4" s="40" t="s">
@@ -21269,7 +21273,7 @@
         <f t="shared" si="2"/>
         <v>Asset0_00002: require('./Asset0/Asset0_00002.png'),</v>
       </c>
-      <c r="L5" s="69" t="s">
+      <c r="L5" s="46" t="s">
         <v>216</v>
       </c>
       <c r="M5" s="40" t="s">
@@ -21295,7 +21299,7 @@
         <f t="shared" si="2"/>
         <v>Asset0_00003: require('./Asset0/Asset0_00003.png'),</v>
       </c>
-      <c r="L6" s="69" t="s">
+      <c r="L6" s="46" t="s">
         <v>216</v>
       </c>
       <c r="M6" s="40" t="s">
@@ -21321,7 +21325,7 @@
         <f t="shared" si="2"/>
         <v>Asset0_00004: require('./Asset0/Asset0_00004.png'),</v>
       </c>
-      <c r="L7" s="69" t="s">
+      <c r="L7" s="46" t="s">
         <v>216</v>
       </c>
       <c r="M7" s="40" t="s">
@@ -21347,7 +21351,7 @@
         <f t="shared" si="2"/>
         <v>Asset0_00005: require('./Asset0/Asset0_00005.png'),</v>
       </c>
-      <c r="L8" s="69" t="s">
+      <c r="L8" s="46" t="s">
         <v>216</v>
       </c>
       <c r="M8" s="40" t="s">
@@ -21373,7 +21377,7 @@
         <f t="shared" si="2"/>
         <v>Asset0_00006: require('./Asset0/Asset0_00006.png'),</v>
       </c>
-      <c r="L9" s="69" t="s">
+      <c r="L9" s="46" t="s">
         <v>216</v>
       </c>
       <c r="M9" s="40" t="s">
@@ -21399,7 +21403,7 @@
         <f t="shared" si="2"/>
         <v>Asset0_00007: require('./Asset0/Asset0_00007.png'),</v>
       </c>
-      <c r="L10" s="69" t="s">
+      <c r="L10" s="46" t="s">
         <v>216</v>
       </c>
       <c r="M10" s="40" t="s">
@@ -21425,7 +21429,7 @@
         <f t="shared" si="2"/>
         <v>Asset0_00008: require('./Asset0/Asset0_00008.png'),</v>
       </c>
-      <c r="L11" s="69" t="s">
+      <c r="L11" s="46" t="s">
         <v>216</v>
       </c>
       <c r="M11" s="40" t="s">
@@ -21451,7 +21455,7 @@
         <f t="shared" si="2"/>
         <v>Asset0_00009: require('./Asset0/Asset0_00009.png'),</v>
       </c>
-      <c r="L12" s="69" t="s">
+      <c r="L12" s="46" t="s">
         <v>216</v>
       </c>
       <c r="M12" s="40" t="s">
@@ -21477,7 +21481,7 @@
         <f t="shared" si="2"/>
         <v>Asset0_00010: require('./Asset0/Asset0_00010.png'),</v>
       </c>
-      <c r="L13" s="69" t="s">
+      <c r="L13" s="46" t="s">
         <v>216</v>
       </c>
       <c r="M13" s="40" t="s">
@@ -21503,7 +21507,7 @@
         <f t="shared" si="2"/>
         <v>Asset0_00011: require('./Asset0/Asset0_00011.png'),</v>
       </c>
-      <c r="L14" s="69" t="s">
+      <c r="L14" s="46" t="s">
         <v>216</v>
       </c>
       <c r="M14" s="40" t="s">
@@ -21529,7 +21533,7 @@
         <f t="shared" si="2"/>
         <v>Asset0_00012: require('./Asset0/Asset0_00012.png'),</v>
       </c>
-      <c r="L15" s="69" t="s">
+      <c r="L15" s="46" t="s">
         <v>216</v>
       </c>
       <c r="M15" s="40" t="s">
@@ -21555,7 +21559,7 @@
         <f t="shared" si="2"/>
         <v>Asset0_00013: require('./Asset0/Asset0_00013.png'),</v>
       </c>
-      <c r="L16" s="69" t="s">
+      <c r="L16" s="46" t="s">
         <v>216</v>
       </c>
       <c r="M16" s="40" t="s">
@@ -21581,7 +21585,7 @@
         <f t="shared" si="2"/>
         <v>Asset0_00014: require('./Asset0/Asset0_00014.png'),</v>
       </c>
-      <c r="L17" s="69" t="s">
+      <c r="L17" s="46" t="s">
         <v>216</v>
       </c>
       <c r="M17" s="40" t="s">
@@ -21607,7 +21611,7 @@
         <f t="shared" si="2"/>
         <v>Asset0_00015: require('./Asset0/Asset0_00015.png'),</v>
       </c>
-      <c r="L18" s="69" t="s">
+      <c r="L18" s="46" t="s">
         <v>216</v>
       </c>
       <c r="M18" s="40" t="s">
@@ -21633,7 +21637,7 @@
         <f t="shared" si="2"/>
         <v>Asset0_00016: require('./Asset0/Asset0_00016.png'),</v>
       </c>
-      <c r="L19" s="69" t="s">
+      <c r="L19" s="46" t="s">
         <v>216</v>
       </c>
       <c r="M19" s="40" t="s">
@@ -21659,7 +21663,7 @@
         <f t="shared" si="2"/>
         <v>Asset0_00017: require('./Asset0/Asset0_00017.png'),</v>
       </c>
-      <c r="L20" s="69" t="s">
+      <c r="L20" s="46" t="s">
         <v>216</v>
       </c>
       <c r="M20" s="40" t="s">
@@ -21685,7 +21689,7 @@
         <f t="shared" si="2"/>
         <v>Asset0_00018: require('./Asset0/Asset0_00018.png'),</v>
       </c>
-      <c r="L21" s="69" t="s">
+      <c r="L21" s="46" t="s">
         <v>216</v>
       </c>
       <c r="M21" s="40" t="s">
@@ -21711,7 +21715,7 @@
         <f t="shared" si="2"/>
         <v>Asset0_00019: require('./Asset0/Asset0_00019.png'),</v>
       </c>
-      <c r="L22" s="69" t="s">
+      <c r="L22" s="46" t="s">
         <v>216</v>
       </c>
       <c r="M22" s="40" t="s">
@@ -21737,7 +21741,7 @@
         <f t="shared" si="2"/>
         <v>Asset0_00020: require('./Asset0/Asset0_00020.png'),</v>
       </c>
-      <c r="L23" s="69" t="s">
+      <c r="L23" s="46" t="s">
         <v>216</v>
       </c>
       <c r="M23" s="40" t="s">
@@ -21763,7 +21767,7 @@
         <f t="shared" si="2"/>
         <v>Asset0_00021: require('./Asset0/Asset0_00021.png'),</v>
       </c>
-      <c r="L24" s="69" t="s">
+      <c r="L24" s="46" t="s">
         <v>216</v>
       </c>
       <c r="M24" s="40" t="s">
@@ -21789,7 +21793,7 @@
         <f t="shared" si="2"/>
         <v>Asset0_00022: require('./Asset0/Asset0_00022.png'),</v>
       </c>
-      <c r="L25" s="69" t="s">
+      <c r="L25" s="46" t="s">
         <v>216</v>
       </c>
       <c r="M25" s="40" t="s">
@@ -21815,7 +21819,7 @@
         <f t="shared" si="2"/>
         <v>Asset0_00023: require('./Asset0/Asset0_00023.png'),</v>
       </c>
-      <c r="L26" s="69" t="s">
+      <c r="L26" s="46" t="s">
         <v>216</v>
       </c>
       <c r="M26" s="40" t="s">
@@ -21841,7 +21845,7 @@
         <f t="shared" si="2"/>
         <v>Asset0_00024: require('./Asset0/Asset0_00024.png'),</v>
       </c>
-      <c r="L27" s="69" t="s">
+      <c r="L27" s="46" t="s">
         <v>216</v>
       </c>
       <c r="M27" s="40" t="s">
@@ -21867,7 +21871,7 @@
         <f t="shared" si="2"/>
         <v>Asset0_00025: require('./Asset0/Asset0_00025.png'),</v>
       </c>
-      <c r="L28" s="69" t="s">
+      <c r="L28" s="46" t="s">
         <v>216</v>
       </c>
       <c r="M28" s="40" t="s">
@@ -21893,7 +21897,7 @@
         <f t="shared" si="2"/>
         <v>Asset0_00026: require('./Asset0/Asset0_00026.png'),</v>
       </c>
-      <c r="L29" s="69" t="s">
+      <c r="L29" s="46" t="s">
         <v>216</v>
       </c>
       <c r="M29" s="40" t="s">
@@ -21919,7 +21923,7 @@
         <f t="shared" si="2"/>
         <v>Asset0_00027: require('./Asset0/Asset0_00027.png'),</v>
       </c>
-      <c r="L30" s="69" t="s">
+      <c r="L30" s="46" t="s">
         <v>216</v>
       </c>
       <c r="M30" s="40" t="s">
@@ -21945,7 +21949,7 @@
         <f t="shared" si="2"/>
         <v>Asset0_00028: require('./Asset0/Asset0_00028.png'),</v>
       </c>
-      <c r="L31" s="69" t="s">
+      <c r="L31" s="46" t="s">
         <v>216</v>
       </c>
       <c r="M31" s="40" t="s">
@@ -21971,7 +21975,7 @@
         <f t="shared" si="2"/>
         <v>Asset0_00029: require('./Asset0/Asset0_00029.png'),</v>
       </c>
-      <c r="L32" s="69" t="s">
+      <c r="L32" s="46" t="s">
         <v>216</v>
       </c>
       <c r="M32" s="40" t="s">
@@ -21997,7 +22001,7 @@
         <f t="shared" si="2"/>
         <v>Asset0_00030: require('./Asset0/Asset0_00030.png'),</v>
       </c>
-      <c r="L33" s="69" t="s">
+      <c r="L33" s="46" t="s">
         <v>216</v>
       </c>
       <c r="M33" s="40" t="s">
@@ -22023,7 +22027,7 @@
         <f t="shared" si="2"/>
         <v>Asset0_00031: require('./Asset0/Asset0_00031.png'),</v>
       </c>
-      <c r="L34" s="69" t="s">
+      <c r="L34" s="46" t="s">
         <v>216</v>
       </c>
       <c r="M34" s="40" t="s">
@@ -22049,7 +22053,7 @@
         <f t="shared" si="2"/>
         <v>Asset0_00032: require('./Asset0/Asset0_00032.png'),</v>
       </c>
-      <c r="L35" s="69" t="s">
+      <c r="L35" s="46" t="s">
         <v>216</v>
       </c>
       <c r="M35" s="40" t="s">
@@ -22075,7 +22079,7 @@
         <f t="shared" si="2"/>
         <v>Asset0_00033: require('./Asset0/Asset0_00033.png'),</v>
       </c>
-      <c r="L36" s="69" t="s">
+      <c r="L36" s="46" t="s">
         <v>216</v>
       </c>
       <c r="M36" s="40" t="s">
@@ -22101,7 +22105,7 @@
         <f t="shared" si="2"/>
         <v>Asset0_00034: require('./Asset0/Asset0_00034.png'),</v>
       </c>
-      <c r="L37" s="69" t="s">
+      <c r="L37" s="46" t="s">
         <v>216</v>
       </c>
       <c r="M37" s="40" t="s">
@@ -22127,7 +22131,7 @@
         <f t="shared" si="2"/>
         <v>Asset0_00035: require('./Asset0/Asset0_00035.png'),</v>
       </c>
-      <c r="L38" s="69" t="s">
+      <c r="L38" s="46" t="s">
         <v>216</v>
       </c>
       <c r="M38" s="40" t="s">
@@ -22153,7 +22157,7 @@
         <f t="shared" si="2"/>
         <v>Asset0_00036: require('./Asset0/Asset0_00036.png'),</v>
       </c>
-      <c r="L39" s="69" t="s">
+      <c r="L39" s="46" t="s">
         <v>216</v>
       </c>
       <c r="M39" s="40" t="s">
@@ -22179,7 +22183,7 @@
         <f t="shared" si="2"/>
         <v>Asset0_00037: require('./Asset0/Asset0_00037.png'),</v>
       </c>
-      <c r="L40" s="69" t="s">
+      <c r="L40" s="46" t="s">
         <v>216</v>
       </c>
       <c r="M40" s="40" t="s">
@@ -22205,7 +22209,7 @@
         <f t="shared" si="2"/>
         <v>Asset0_00038: require('./Asset0/Asset0_00038.png'),</v>
       </c>
-      <c r="L41" s="69" t="s">
+      <c r="L41" s="46" t="s">
         <v>216</v>
       </c>
       <c r="M41" s="40" t="s">
@@ -22231,7 +22235,7 @@
         <f t="shared" si="2"/>
         <v>Asset0_00039: require('./Asset0/Asset0_00039.png'),</v>
       </c>
-      <c r="L42" s="69" t="s">
+      <c r="L42" s="46" t="s">
         <v>216</v>
       </c>
       <c r="M42" s="40" t="s">
@@ -22257,7 +22261,7 @@
         <f t="shared" si="2"/>
         <v>Asset0_00040: require('./Asset0/Asset0_00040.png'),</v>
       </c>
-      <c r="L43" s="69" t="s">
+      <c r="L43" s="46" t="s">
         <v>216</v>
       </c>
       <c r="M43" s="40" t="s">
@@ -22283,7 +22287,7 @@
         <f t="shared" si="2"/>
         <v>Asset0_00041: require('./Asset0/Asset0_00041.png'),</v>
       </c>
-      <c r="L44" s="69" t="s">
+      <c r="L44" s="46" t="s">
         <v>216</v>
       </c>
       <c r="M44" s="40" t="s">
@@ -22309,7 +22313,7 @@
         <f t="shared" si="2"/>
         <v>Asset0_00042: require('./Asset0/Asset0_00042.png'),</v>
       </c>
-      <c r="L45" s="69" t="s">
+      <c r="L45" s="46" t="s">
         <v>216</v>
       </c>
       <c r="M45" s="40" t="s">
@@ -22335,7 +22339,7 @@
         <f t="shared" si="2"/>
         <v>Asset0_00043: require('./Asset0/Asset0_00043.png'),</v>
       </c>
-      <c r="L46" s="69" t="s">
+      <c r="L46" s="46" t="s">
         <v>216</v>
       </c>
       <c r="M46" s="40" t="s">
@@ -22361,7 +22365,7 @@
         <f t="shared" si="2"/>
         <v>Asset0_00044: require('./Asset0/Asset0_00044.png'),</v>
       </c>
-      <c r="L47" s="69" t="s">
+      <c r="L47" s="46" t="s">
         <v>216</v>
       </c>
       <c r="M47" s="40" t="s">
@@ -22387,7 +22391,7 @@
         <f t="shared" si="2"/>
         <v>Asset0_00045: require('./Asset0/Asset0_00045.png'),</v>
       </c>
-      <c r="L48" s="69" t="s">
+      <c r="L48" s="46" t="s">
         <v>216</v>
       </c>
       <c r="M48" s="40" t="s">
@@ -22413,7 +22417,7 @@
         <f t="shared" si="2"/>
         <v>Asset0_00046: require('./Asset0/Asset0_00046.png'),</v>
       </c>
-      <c r="L49" s="69" t="s">
+      <c r="L49" s="46" t="s">
         <v>216</v>
       </c>
       <c r="M49" s="40" t="s">
@@ -22439,7 +22443,7 @@
         <f t="shared" si="2"/>
         <v>Asset0_00047: require('./Asset0/Asset0_00047.png'),</v>
       </c>
-      <c r="L50" s="69" t="s">
+      <c r="L50" s="46" t="s">
         <v>216</v>
       </c>
       <c r="M50" s="40" t="s">
@@ -22465,7 +22469,7 @@
         <f t="shared" si="2"/>
         <v>Asset0_00048: require('./Asset0/Asset0_00048.png'),</v>
       </c>
-      <c r="L51" s="69" t="s">
+      <c r="L51" s="46" t="s">
         <v>216</v>
       </c>
       <c r="M51" s="40" t="s">
@@ -22491,7 +22495,7 @@
         <f t="shared" si="2"/>
         <v>Asset0_00049: require('./Asset0/Asset0_00049.png'),</v>
       </c>
-      <c r="L52" s="69" t="s">
+      <c r="L52" s="46" t="s">
         <v>216</v>
       </c>
       <c r="M52" s="40" t="s">
@@ -22517,7 +22521,7 @@
         <f t="shared" si="2"/>
         <v>Asset0_00050: require('./Asset0/Asset0_00050.png'),</v>
       </c>
-      <c r="L53" s="69" t="s">
+      <c r="L53" s="46" t="s">
         <v>216</v>
       </c>
       <c r="M53" s="40" t="s">
@@ -22543,7 +22547,7 @@
         <f t="shared" si="2"/>
         <v>Asset0_00051: require('./Asset0/Asset0_00051.png'),</v>
       </c>
-      <c r="L54" s="69" t="s">
+      <c r="L54" s="46" t="s">
         <v>216</v>
       </c>
       <c r="M54" s="40" t="s">
@@ -22569,7 +22573,7 @@
         <f t="shared" si="2"/>
         <v>Asset0_00052: require('./Asset0/Asset0_00052.png'),</v>
       </c>
-      <c r="L55" s="69" t="s">
+      <c r="L55" s="46" t="s">
         <v>216</v>
       </c>
       <c r="M55" s="40" t="s">
@@ -22595,7 +22599,7 @@
         <f t="shared" si="2"/>
         <v>Asset0_00053: require('./Asset0/Asset0_00053.png'),</v>
       </c>
-      <c r="L56" s="69" t="s">
+      <c r="L56" s="46" t="s">
         <v>216</v>
       </c>
       <c r="M56" s="40" t="s">
@@ -22621,7 +22625,7 @@
         <f t="shared" si="2"/>
         <v>Asset0_00054: require('./Asset0/Asset0_00054.png'),</v>
       </c>
-      <c r="L57" s="69" t="s">
+      <c r="L57" s="46" t="s">
         <v>216</v>
       </c>
       <c r="M57" s="40" t="s">
@@ -22647,7 +22651,7 @@
         <f t="shared" si="2"/>
         <v>Asset0_00055: require('./Asset0/Asset0_00055.png'),</v>
       </c>
-      <c r="L58" s="69" t="s">
+      <c r="L58" s="46" t="s">
         <v>216</v>
       </c>
       <c r="M58" s="40" t="s">
@@ -22673,7 +22677,7 @@
         <f t="shared" si="2"/>
         <v>Asset0_00056: require('./Asset0/Asset0_00056.png'),</v>
       </c>
-      <c r="L59" s="69" t="s">
+      <c r="L59" s="46" t="s">
         <v>216</v>
       </c>
       <c r="M59" s="40" t="s">
@@ -22699,7 +22703,7 @@
         <f t="shared" si="2"/>
         <v>Asset0_00057: require('./Asset0/Asset0_00057.png'),</v>
       </c>
-      <c r="L60" s="69" t="s">
+      <c r="L60" s="46" t="s">
         <v>216</v>
       </c>
       <c r="M60" s="40" t="s">
@@ -22725,7 +22729,7 @@
         <f t="shared" si="2"/>
         <v>Asset0_00058: require('./Asset0/Asset0_00058.png'),</v>
       </c>
-      <c r="L61" s="69" t="s">
+      <c r="L61" s="46" t="s">
         <v>216</v>
       </c>
       <c r="M61" s="40" t="s">
@@ -22751,7 +22755,7 @@
         <f t="shared" si="2"/>
         <v>Asset0_00059: require('./Asset0/Asset0_00059.png'),</v>
       </c>
-      <c r="L62" s="69" t="s">
+      <c r="L62" s="46" t="s">
         <v>216</v>
       </c>
       <c r="M62" s="40" t="s">
@@ -22777,7 +22781,7 @@
         <f t="shared" si="2"/>
         <v>Asset0_00060: require('./Asset0/Asset0_00060.png'),</v>
       </c>
-      <c r="L63" s="69" t="s">
+      <c r="L63" s="46" t="s">
         <v>216</v>
       </c>
       <c r="M63" s="40" t="s">
@@ -22803,7 +22807,7 @@
         <f t="shared" si="2"/>
         <v>Asset0_00061: require('./Asset0/Asset0_00061.png'),</v>
       </c>
-      <c r="L64" s="69" t="s">
+      <c r="L64" s="46" t="s">
         <v>216</v>
       </c>
       <c r="M64" s="40" t="s">
@@ -22829,7 +22833,7 @@
         <f t="shared" si="2"/>
         <v>Asset0_00062: require('./Asset0/Asset0_00062.png'),</v>
       </c>
-      <c r="L65" s="69" t="s">
+      <c r="L65" s="46" t="s">
         <v>216</v>
       </c>
       <c r="M65" s="40" t="s">
@@ -22855,7 +22859,7 @@
         <f t="shared" si="2"/>
         <v>Asset0_00063: require('./Asset0/Asset0_00063.png'),</v>
       </c>
-      <c r="L66" s="69" t="s">
+      <c r="L66" s="46" t="s">
         <v>216</v>
       </c>
       <c r="M66" s="40" t="s">
@@ -22881,7 +22885,7 @@
         <f t="shared" si="2"/>
         <v>Asset0_00064: require('./Asset0/Asset0_00064.png'),</v>
       </c>
-      <c r="L67" s="69" t="s">
+      <c r="L67" s="46" t="s">
         <v>216</v>
       </c>
       <c r="M67" s="40" t="s">
@@ -22907,7 +22911,7 @@
         <f t="shared" ref="H68:H131" si="5">E68&amp;": "&amp;"require('./" &amp; B68 &amp; "/" &amp; C68 &amp; "'),"</f>
         <v>Asset0_00065: require('./Asset0/Asset0_00065.png'),</v>
       </c>
-      <c r="L68" s="69" t="s">
+      <c r="L68" s="46" t="s">
         <v>216</v>
       </c>
       <c r="M68" s="40" t="s">
@@ -22933,7 +22937,7 @@
         <f t="shared" si="5"/>
         <v>Asset0_00066: require('./Asset0/Asset0_00066.png'),</v>
       </c>
-      <c r="L69" s="69" t="s">
+      <c r="L69" s="46" t="s">
         <v>216</v>
       </c>
       <c r="M69" s="40" t="s">
@@ -22959,7 +22963,7 @@
         <f t="shared" si="5"/>
         <v>Asset0_00067: require('./Asset0/Asset0_00067.png'),</v>
       </c>
-      <c r="L70" s="69" t="s">
+      <c r="L70" s="46" t="s">
         <v>216</v>
       </c>
       <c r="M70" s="40" t="s">
@@ -22985,7 +22989,7 @@
         <f t="shared" si="5"/>
         <v>Asset0_00068: require('./Asset0/Asset0_00068.png'),</v>
       </c>
-      <c r="L71" s="69" t="s">
+      <c r="L71" s="46" t="s">
         <v>216</v>
       </c>
       <c r="M71" s="40" t="s">
@@ -23011,7 +23015,7 @@
         <f t="shared" si="5"/>
         <v>Asset0_00069: require('./Asset0/Asset0_00069.png'),</v>
       </c>
-      <c r="L72" s="69" t="s">
+      <c r="L72" s="46" t="s">
         <v>216</v>
       </c>
       <c r="M72" s="40" t="s">
@@ -23037,7 +23041,7 @@
         <f t="shared" si="5"/>
         <v>Asset0_00070: require('./Asset0/Asset0_00070.png'),</v>
       </c>
-      <c r="L73" s="69" t="s">
+      <c r="L73" s="46" t="s">
         <v>216</v>
       </c>
       <c r="M73" s="40" t="s">
@@ -23063,7 +23067,7 @@
         <f t="shared" si="5"/>
         <v>Asset0_00071: require('./Asset0/Asset0_00071.png'),</v>
       </c>
-      <c r="L74" s="69" t="s">
+      <c r="L74" s="46" t="s">
         <v>216</v>
       </c>
       <c r="M74" s="40" t="s">
@@ -23089,7 +23093,7 @@
         <f t="shared" si="5"/>
         <v>Asset0_00072: require('./Asset0/Asset0_00072.png'),</v>
       </c>
-      <c r="L75" s="69" t="s">
+      <c r="L75" s="46" t="s">
         <v>216</v>
       </c>
       <c r="M75" s="40" t="s">
@@ -23115,7 +23119,7 @@
         <f t="shared" si="5"/>
         <v>Asset0_00073: require('./Asset0/Asset0_00073.png'),</v>
       </c>
-      <c r="L76" s="69" t="s">
+      <c r="L76" s="46" t="s">
         <v>216</v>
       </c>
       <c r="M76" s="40" t="s">
@@ -23141,7 +23145,7 @@
         <f t="shared" si="5"/>
         <v>Asset0_00074: require('./Asset0/Asset0_00074.png'),</v>
       </c>
-      <c r="L77" s="69" t="s">
+      <c r="L77" s="46" t="s">
         <v>216</v>
       </c>
       <c r="M77" s="40" t="s">
@@ -23167,7 +23171,7 @@
         <f t="shared" si="5"/>
         <v>Asset0_00075: require('./Asset0/Asset0_00075.png'),</v>
       </c>
-      <c r="L78" s="69" t="s">
+      <c r="L78" s="46" t="s">
         <v>216</v>
       </c>
       <c r="M78" s="40" t="s">
@@ -23193,7 +23197,7 @@
         <f t="shared" si="5"/>
         <v>Asset0_00076: require('./Asset0/Asset0_00076.png'),</v>
       </c>
-      <c r="L79" s="69" t="s">
+      <c r="L79" s="46" t="s">
         <v>216</v>
       </c>
       <c r="M79" s="40" t="s">
@@ -23219,7 +23223,7 @@
         <f t="shared" si="5"/>
         <v>Asset0_00077: require('./Asset0/Asset0_00077.png'),</v>
       </c>
-      <c r="L80" s="69" t="s">
+      <c r="L80" s="46" t="s">
         <v>216</v>
       </c>
       <c r="M80" s="40" t="s">
@@ -23245,7 +23249,7 @@
         <f t="shared" si="5"/>
         <v>Asset0_00078: require('./Asset0/Asset0_00078.png'),</v>
       </c>
-      <c r="L81" s="69" t="s">
+      <c r="L81" s="46" t="s">
         <v>216</v>
       </c>
       <c r="M81" s="40" t="s">
@@ -23271,7 +23275,7 @@
         <f t="shared" si="5"/>
         <v>Asset0_00079: require('./Asset0/Asset0_00079.png'),</v>
       </c>
-      <c r="L82" s="69" t="s">
+      <c r="L82" s="46" t="s">
         <v>216</v>
       </c>
       <c r="M82" s="40" t="s">
@@ -23297,7 +23301,7 @@
         <f t="shared" si="5"/>
         <v>Asset0_00080: require('./Asset0/Asset0_00080.png'),</v>
       </c>
-      <c r="L83" s="69" t="s">
+      <c r="L83" s="46" t="s">
         <v>216</v>
       </c>
       <c r="M83" s="40" t="s">
@@ -23323,7 +23327,7 @@
         <f t="shared" si="5"/>
         <v>Asset0_00081: require('./Asset0/Asset0_00081.png'),</v>
       </c>
-      <c r="L84" s="69" t="s">
+      <c r="L84" s="46" t="s">
         <v>216</v>
       </c>
       <c r="M84" s="40" t="s">
@@ -23349,7 +23353,7 @@
         <f t="shared" si="5"/>
         <v>Asset0_00082: require('./Asset0/Asset0_00082.png'),</v>
       </c>
-      <c r="L85" s="69" t="s">
+      <c r="L85" s="46" t="s">
         <v>216</v>
       </c>
       <c r="M85" s="40" t="s">
@@ -23375,7 +23379,7 @@
         <f t="shared" si="5"/>
         <v>Asset0_00083: require('./Asset0/Asset0_00083.png'),</v>
       </c>
-      <c r="L86" s="69" t="s">
+      <c r="L86" s="46" t="s">
         <v>216</v>
       </c>
       <c r="M86" s="40" t="s">
@@ -23401,7 +23405,7 @@
         <f t="shared" si="5"/>
         <v>Asset0_00084: require('./Asset0/Asset0_00084.png'),</v>
       </c>
-      <c r="L87" s="69" t="s">
+      <c r="L87" s="46" t="s">
         <v>216</v>
       </c>
       <c r="M87" s="40" t="s">
@@ -23427,7 +23431,7 @@
         <f t="shared" si="5"/>
         <v>Asset0_00085: require('./Asset0/Asset0_00085.png'),</v>
       </c>
-      <c r="L88" s="69" t="s">
+      <c r="L88" s="46" t="s">
         <v>216</v>
       </c>
       <c r="M88" s="40" t="s">
@@ -23453,7 +23457,7 @@
         <f t="shared" si="5"/>
         <v>Asset0_00086: require('./Asset0/Asset0_00086.png'),</v>
       </c>
-      <c r="L89" s="69" t="s">
+      <c r="L89" s="46" t="s">
         <v>216</v>
       </c>
       <c r="M89" s="40" t="s">
@@ -23479,7 +23483,7 @@
         <f t="shared" si="5"/>
         <v>Asset0_00087: require('./Asset0/Asset0_00087.png'),</v>
       </c>
-      <c r="L90" s="69" t="s">
+      <c r="L90" s="46" t="s">
         <v>216</v>
       </c>
       <c r="M90" s="40" t="s">
@@ -23505,7 +23509,7 @@
         <f t="shared" si="5"/>
         <v>Asset0_00088: require('./Asset0/Asset0_00088.png'),</v>
       </c>
-      <c r="L91" s="69" t="s">
+      <c r="L91" s="46" t="s">
         <v>216</v>
       </c>
       <c r="M91" s="40" t="s">
@@ -23531,7 +23535,7 @@
         <f t="shared" si="5"/>
         <v>Asset0_00089: require('./Asset0/Asset0_00089.png'),</v>
       </c>
-      <c r="L92" s="69" t="s">
+      <c r="L92" s="46" t="s">
         <v>216</v>
       </c>
       <c r="M92" s="40" t="s">
@@ -23557,7 +23561,7 @@
         <f t="shared" si="5"/>
         <v>Asset0_00090: require('./Asset0/Asset0_00090.png'),</v>
       </c>
-      <c r="L93" s="69" t="s">
+      <c r="L93" s="46" t="s">
         <v>216</v>
       </c>
       <c r="M93" s="40" t="s">
@@ -23583,7 +23587,7 @@
         <f t="shared" si="5"/>
         <v>Asset0_00091: require('./Asset0/Asset0_00091.png'),</v>
       </c>
-      <c r="L94" s="69" t="s">
+      <c r="L94" s="46" t="s">
         <v>216</v>
       </c>
       <c r="M94" s="40" t="s">
@@ -23609,7 +23613,7 @@
         <f t="shared" si="5"/>
         <v>Asset0_00092: require('./Asset0/Asset0_00092.png'),</v>
       </c>
-      <c r="L95" s="69" t="s">
+      <c r="L95" s="46" t="s">
         <v>216</v>
       </c>
       <c r="M95" s="40" t="s">
@@ -23635,7 +23639,7 @@
         <f t="shared" si="5"/>
         <v>Asset0_00093: require('./Asset0/Asset0_00093.png'),</v>
       </c>
-      <c r="L96" s="69" t="s">
+      <c r="L96" s="46" t="s">
         <v>216</v>
       </c>
       <c r="M96" s="40" t="s">
@@ -23661,7 +23665,7 @@
         <f t="shared" si="5"/>
         <v>Asset0_00094: require('./Asset0/Asset0_00094.png'),</v>
       </c>
-      <c r="L97" s="69" t="s">
+      <c r="L97" s="46" t="s">
         <v>216</v>
       </c>
       <c r="M97" s="40" t="s">
@@ -23687,7 +23691,7 @@
         <f t="shared" si="5"/>
         <v>Asset0_00095: require('./Asset0/Asset0_00095.png'),</v>
       </c>
-      <c r="L98" s="69" t="s">
+      <c r="L98" s="46" t="s">
         <v>216</v>
       </c>
       <c r="M98" s="40" t="s">
@@ -23713,7 +23717,7 @@
         <f t="shared" si="5"/>
         <v>Asset0_00096: require('./Asset0/Asset0_00096.png'),</v>
       </c>
-      <c r="L99" s="69" t="s">
+      <c r="L99" s="46" t="s">
         <v>216</v>
       </c>
       <c r="M99" s="40" t="s">
@@ -23739,7 +23743,7 @@
         <f t="shared" si="5"/>
         <v>Asset0_00097: require('./Asset0/Asset0_00097.png'),</v>
       </c>
-      <c r="L100" s="69" t="s">
+      <c r="L100" s="46" t="s">
         <v>216</v>
       </c>
       <c r="M100" s="40" t="s">
@@ -23765,7 +23769,7 @@
         <f t="shared" si="5"/>
         <v>Asset0_00098: require('./Asset0/Asset0_00098.png'),</v>
       </c>
-      <c r="L101" s="69" t="s">
+      <c r="L101" s="46" t="s">
         <v>216</v>
       </c>
       <c r="M101" s="40" t="s">
@@ -23791,7 +23795,7 @@
         <f t="shared" si="5"/>
         <v>Asset0_00099: require('./Asset0/Asset0_00099.png'),</v>
       </c>
-      <c r="L102" s="69" t="s">
+      <c r="L102" s="46" t="s">
         <v>216</v>
       </c>
       <c r="M102" s="40" t="s">
@@ -23817,7 +23821,7 @@
         <f t="shared" si="5"/>
         <v>Asset0_00100: require('./Asset0/Asset0_00100.png'),</v>
       </c>
-      <c r="L103" s="69" t="s">
+      <c r="L103" s="46" t="s">
         <v>216</v>
       </c>
       <c r="M103" s="40" t="s">
@@ -23843,7 +23847,7 @@
         <f t="shared" si="5"/>
         <v>Asset0_00101: require('./Asset0/Asset0_00101.png'),</v>
       </c>
-      <c r="L104" s="69" t="s">
+      <c r="L104" s="46" t="s">
         <v>216</v>
       </c>
       <c r="M104" s="40" t="s">
@@ -23869,7 +23873,7 @@
         <f t="shared" si="5"/>
         <v>Asset0_00102: require('./Asset0/Asset0_00102.png'),</v>
       </c>
-      <c r="L105" s="69" t="s">
+      <c r="L105" s="46" t="s">
         <v>216</v>
       </c>
       <c r="M105" s="40" t="s">
@@ -23895,7 +23899,7 @@
         <f t="shared" si="5"/>
         <v>Asset0_00103: require('./Asset0/Asset0_00103.png'),</v>
       </c>
-      <c r="L106" s="69" t="s">
+      <c r="L106" s="46" t="s">
         <v>216</v>
       </c>
       <c r="M106" s="40" t="s">
@@ -23921,7 +23925,7 @@
         <f t="shared" si="5"/>
         <v>Asset0_00104: require('./Asset0/Asset0_00104.png'),</v>
       </c>
-      <c r="L107" s="69" t="s">
+      <c r="L107" s="46" t="s">
         <v>216</v>
       </c>
       <c r="M107" s="40" t="s">
@@ -23947,7 +23951,7 @@
         <f t="shared" si="5"/>
         <v>Asset0_00105: require('./Asset0/Asset0_00105.png'),</v>
       </c>
-      <c r="L108" s="69" t="s">
+      <c r="L108" s="46" t="s">
         <v>216</v>
       </c>
       <c r="M108" s="40" t="s">
@@ -23973,7 +23977,7 @@
         <f t="shared" si="5"/>
         <v>Asset0_00106: require('./Asset0/Asset0_00106.png'),</v>
       </c>
-      <c r="L109" s="69" t="s">
+      <c r="L109" s="46" t="s">
         <v>216</v>
       </c>
       <c r="M109" s="40" t="s">
@@ -23999,7 +24003,7 @@
         <f t="shared" si="5"/>
         <v>Asset0_00107: require('./Asset0/Asset0_00107.png'),</v>
       </c>
-      <c r="L110" s="69" t="s">
+      <c r="L110" s="46" t="s">
         <v>216</v>
       </c>
       <c r="M110" s="40" t="s">
@@ -24025,7 +24029,7 @@
         <f t="shared" si="5"/>
         <v>Asset0_00108: require('./Asset0/Asset0_00108.png'),</v>
       </c>
-      <c r="L111" s="69" t="s">
+      <c r="L111" s="46" t="s">
         <v>216</v>
       </c>
       <c r="M111" s="40" t="s">
@@ -24051,7 +24055,7 @@
         <f t="shared" si="5"/>
         <v>Asset0_00109: require('./Asset0/Asset0_00109.png'),</v>
       </c>
-      <c r="L112" s="69" t="s">
+      <c r="L112" s="46" t="s">
         <v>216</v>
       </c>
       <c r="M112" s="40" t="s">
@@ -24077,7 +24081,7 @@
         <f t="shared" si="5"/>
         <v>Asset0_00110: require('./Asset0/Asset0_00110.png'),</v>
       </c>
-      <c r="L113" s="69" t="s">
+      <c r="L113" s="46" t="s">
         <v>216</v>
       </c>
       <c r="M113" s="40" t="s">
@@ -24103,7 +24107,7 @@
         <f t="shared" si="5"/>
         <v>Asset0_00111: require('./Asset0/Asset0_00111.png'),</v>
       </c>
-      <c r="L114" s="69" t="s">
+      <c r="L114" s="46" t="s">
         <v>216</v>
       </c>
       <c r="M114" s="40" t="s">
@@ -24129,7 +24133,7 @@
         <f t="shared" si="5"/>
         <v>Asset0_00112: require('./Asset0/Asset0_00112.png'),</v>
       </c>
-      <c r="L115" s="69" t="s">
+      <c r="L115" s="46" t="s">
         <v>216</v>
       </c>
       <c r="M115" s="40" t="s">
@@ -24155,7 +24159,7 @@
         <f t="shared" si="5"/>
         <v>Asset0_00113: require('./Asset0/Asset0_00113.png'),</v>
       </c>
-      <c r="L116" s="69" t="s">
+      <c r="L116" s="46" t="s">
         <v>216</v>
       </c>
       <c r="M116" s="40" t="s">
@@ -24181,7 +24185,7 @@
         <f t="shared" si="5"/>
         <v>Asset0_00114: require('./Asset0/Asset0_00114.png'),</v>
       </c>
-      <c r="L117" s="69" t="s">
+      <c r="L117" s="46" t="s">
         <v>216</v>
       </c>
       <c r="M117" s="40" t="s">
@@ -24207,7 +24211,7 @@
         <f t="shared" si="5"/>
         <v>Asset0_00115: require('./Asset0/Asset0_00115.png'),</v>
       </c>
-      <c r="L118" s="69" t="s">
+      <c r="L118" s="46" t="s">
         <v>216</v>
       </c>
       <c r="M118" s="40" t="s">
@@ -24233,7 +24237,7 @@
         <f t="shared" si="5"/>
         <v>Asset0_00116: require('./Asset0/Asset0_00116.png'),</v>
       </c>
-      <c r="L119" s="69" t="s">
+      <c r="L119" s="46" t="s">
         <v>216</v>
       </c>
       <c r="M119" s="40" t="s">
@@ -24259,7 +24263,7 @@
         <f t="shared" si="5"/>
         <v>Asset0_00117: require('./Asset0/Asset0_00117.png'),</v>
       </c>
-      <c r="L120" s="69" t="s">
+      <c r="L120" s="46" t="s">
         <v>216</v>
       </c>
       <c r="M120" s="40" t="s">
@@ -24285,7 +24289,7 @@
         <f t="shared" si="5"/>
         <v>Asset0_00118: require('./Asset0/Asset0_00118.png'),</v>
       </c>
-      <c r="L121" s="69" t="s">
+      <c r="L121" s="46" t="s">
         <v>216</v>
       </c>
       <c r="M121" s="40" t="s">
@@ -24311,7 +24315,7 @@
         <f t="shared" si="5"/>
         <v>Asset0_00119: require('./Asset0/Asset0_00119.png'),</v>
       </c>
-      <c r="L122" s="69" t="s">
+      <c r="L122" s="46" t="s">
         <v>216</v>
       </c>
       <c r="M122" s="40" t="s">
@@ -24337,7 +24341,7 @@
         <f t="shared" si="5"/>
         <v>Asset0_00120: require('./Asset0/Asset0_00120.png'),</v>
       </c>
-      <c r="L123" s="69" t="s">
+      <c r="L123" s="46" t="s">
         <v>216</v>
       </c>
       <c r="M123" s="40" t="s">
@@ -24363,7 +24367,7 @@
         <f t="shared" si="5"/>
         <v>Asset0_00121: require('./Asset0/Asset0_00121.png'),</v>
       </c>
-      <c r="L124" s="69" t="s">
+      <c r="L124" s="46" t="s">
         <v>216</v>
       </c>
       <c r="M124" s="40" t="s">
@@ -24389,7 +24393,7 @@
         <f t="shared" si="5"/>
         <v>Asset0_00122: require('./Asset0/Asset0_00122.png'),</v>
       </c>
-      <c r="L125" s="69" t="s">
+      <c r="L125" s="46" t="s">
         <v>216</v>
       </c>
       <c r="M125" s="40" t="s">
@@ -24415,7 +24419,7 @@
         <f t="shared" si="5"/>
         <v>Asset0_00123: require('./Asset0/Asset0_00123.png'),</v>
       </c>
-      <c r="L126" s="69" t="s">
+      <c r="L126" s="46" t="s">
         <v>340</v>
       </c>
       <c r="M126" s="40" t="s">
@@ -24441,7 +24445,7 @@
         <f t="shared" si="5"/>
         <v>blue1: require('./Asset1/blue1.png'),</v>
       </c>
-      <c r="L127" s="69" t="s">
+      <c r="L127" s="46" t="s">
         <v>216</v>
       </c>
       <c r="M127" s="40" t="s">
@@ -24467,7 +24471,7 @@
         <f t="shared" si="5"/>
         <v>blue2: require('./Asset1/blue2.png'),</v>
       </c>
-      <c r="L128" s="69" t="s">
+      <c r="L128" s="46" t="s">
         <v>216</v>
       </c>
       <c r="M128" s="40" t="s">
@@ -24493,7 +24497,7 @@
         <f t="shared" si="5"/>
         <v>boat_1_1: require('./Asset1/boat_1_1.png'),</v>
       </c>
-      <c r="L129" s="69" t="s">
+      <c r="L129" s="46" t="s">
         <v>216</v>
       </c>
       <c r="M129" s="40" t="s">
@@ -24519,7 +24523,7 @@
         <f t="shared" si="5"/>
         <v>bridge_1_1: require('./Asset1/bridge_1_1.png'),</v>
       </c>
-      <c r="L130" s="69" t="s">
+      <c r="L130" s="46" t="s">
         <v>216</v>
       </c>
       <c r="M130" s="40" t="s">
@@ -24531,7 +24535,7 @@
         <v>176</v>
       </c>
       <c r="C131" s="40" t="s">
-        <v>346</v>
+        <v>403</v>
       </c>
       <c r="D131" s="40">
         <f t="shared" ref="D131:D186" si="6">SEARCH(".",C131,1)</f>
@@ -24543,9 +24547,9 @@
       </c>
       <c r="H131" s="40" t="str">
         <f t="shared" si="5"/>
-        <v>bridge_1_2: require('./Asset1/bridge_1_2.jpeg'),</v>
-      </c>
-      <c r="L131" s="69" t="s">
+        <v>bridge_1_2: require('./Asset1/bridge_1_2.png'),</v>
+      </c>
+      <c r="L131" s="46" t="s">
         <v>216</v>
       </c>
       <c r="M131" s="40" t="s">
@@ -24571,7 +24575,7 @@
         <f t="shared" ref="H132:H186" si="8">E132&amp;": "&amp;"require('./" &amp; B132 &amp; "/" &amp; C132 &amp; "'),"</f>
         <v>bridge_1_3: require('./Asset1/bridge_1_3.png'),</v>
       </c>
-      <c r="L132" s="69" t="s">
+      <c r="L132" s="46" t="s">
         <v>216</v>
       </c>
       <c r="M132" s="40" t="s">
@@ -24597,7 +24601,7 @@
         <f t="shared" si="8"/>
         <v>embankment_1_1: require('./Asset1/embankment_1_1.png'),</v>
       </c>
-      <c r="L133" s="69" t="s">
+      <c r="L133" s="46" t="s">
         <v>216</v>
       </c>
       <c r="M133" s="40" t="s">
@@ -24623,7 +24627,7 @@
         <f t="shared" si="8"/>
         <v>embankment_1_10: require('./Asset1/embankment_1_10.png'),</v>
       </c>
-      <c r="L134" s="69" t="s">
+      <c r="L134" s="46" t="s">
         <v>216</v>
       </c>
       <c r="M134" s="40" t="s">
@@ -24649,7 +24653,7 @@
         <f t="shared" si="8"/>
         <v>embankment_1_11: require('./Asset1/embankment_1_11.png'),</v>
       </c>
-      <c r="L135" s="69" t="s">
+      <c r="L135" s="46" t="s">
         <v>216</v>
       </c>
       <c r="M135" s="40" t="s">
@@ -24675,7 +24679,7 @@
         <f t="shared" si="8"/>
         <v>embankment_1_2: require('./Asset1/embankment_1_2.png'),</v>
       </c>
-      <c r="L136" s="69" t="s">
+      <c r="L136" s="46" t="s">
         <v>216</v>
       </c>
       <c r="M136" s="40" t="s">
@@ -24701,7 +24705,7 @@
         <f t="shared" si="8"/>
         <v>embankment_1_3: require('./Asset1/embankment_1_3.png'),</v>
       </c>
-      <c r="L137" s="69" t="s">
+      <c r="L137" s="46" t="s">
         <v>216</v>
       </c>
       <c r="M137" s="40" t="s">
@@ -24727,7 +24731,7 @@
         <f t="shared" si="8"/>
         <v>embankment_1_4: require('./Asset1/embankment_1_4.png'),</v>
       </c>
-      <c r="L138" s="69" t="s">
+      <c r="L138" s="46" t="s">
         <v>216</v>
       </c>
       <c r="M138" s="40" t="s">
@@ -24753,7 +24757,7 @@
         <f t="shared" si="8"/>
         <v>embankment_1_5: require('./Asset1/embankment_1_5.png'),</v>
       </c>
-      <c r="L139" s="69" t="s">
+      <c r="L139" s="46" t="s">
         <v>216</v>
       </c>
       <c r="M139" s="40" t="s">
@@ -24779,7 +24783,7 @@
         <f t="shared" si="8"/>
         <v>embankment_1_6: require('./Asset1/embankment_1_6.png'),</v>
       </c>
-      <c r="L140" s="69" t="s">
+      <c r="L140" s="46" t="s">
         <v>216</v>
       </c>
       <c r="M140" s="40" t="s">
@@ -24805,7 +24809,7 @@
         <f t="shared" si="8"/>
         <v>embankment_1_7: require('./Asset1/embankment_1_7.png'),</v>
       </c>
-      <c r="L141" s="69" t="s">
+      <c r="L141" s="46" t="s">
         <v>216</v>
       </c>
       <c r="M141" s="40" t="s">
@@ -24831,7 +24835,7 @@
         <f t="shared" si="8"/>
         <v>embankment_1_8: require('./Asset1/embankment_1_8.png'),</v>
       </c>
-      <c r="L142" s="69" t="s">
+      <c r="L142" s="46" t="s">
         <v>216</v>
       </c>
       <c r="M142" s="40" t="s">
@@ -24857,7 +24861,7 @@
         <f t="shared" si="8"/>
         <v>embankment_1_9: require('./Asset1/embankment_1_9.png'),</v>
       </c>
-      <c r="L143" s="69" t="s">
+      <c r="L143" s="46" t="s">
         <v>216</v>
       </c>
       <c r="M143" s="40" t="s">
@@ -24883,7 +24887,7 @@
         <f t="shared" si="8"/>
         <v>prohibit: require('./Asset1/prohibit.png'),</v>
       </c>
-      <c r="L144" s="69" t="s">
+      <c r="L144" s="46" t="s">
         <v>216</v>
       </c>
       <c r="M144" s="40" t="s">
@@ -24909,7 +24913,7 @@
         <f t="shared" si="8"/>
         <v>prohibit_human: require('./Asset1/prohibit_human.png'),</v>
       </c>
-      <c r="L145" s="69" t="s">
+      <c r="L145" s="46" t="s">
         <v>216</v>
       </c>
       <c r="M145" s="40" t="s">
@@ -24935,7 +24939,7 @@
         <f t="shared" si="8"/>
         <v>river_1_1: require('./Asset1/river_1_1.png'),</v>
       </c>
-      <c r="L146" s="69" t="s">
+      <c r="L146" s="46" t="s">
         <v>216</v>
       </c>
       <c r="M146" s="40" t="s">
@@ -24961,7 +24965,7 @@
         <f t="shared" si="8"/>
         <v>river_1_2: require('./Asset1/river_1_2.png'),</v>
       </c>
-      <c r="L147" s="69" t="s">
+      <c r="L147" s="46" t="s">
         <v>216</v>
       </c>
       <c r="M147" s="40" t="s">
@@ -24987,7 +24991,7 @@
         <f t="shared" si="8"/>
         <v>river_1_3: require('./Asset1/river_1_3.png'),</v>
       </c>
-      <c r="L148" s="69" t="s">
+      <c r="L148" s="46" t="s">
         <v>216</v>
       </c>
       <c r="M148" s="40" t="s">
@@ -25013,7 +25017,7 @@
         <f t="shared" si="8"/>
         <v>river_1_4: require('./Asset1/river_1_4.png'),</v>
       </c>
-      <c r="L149" s="69" t="s">
+      <c r="L149" s="46" t="s">
         <v>216</v>
       </c>
       <c r="M149" s="40" t="s">
@@ -25039,7 +25043,7 @@
         <f t="shared" si="8"/>
         <v>river_1_5: require('./Asset1/river_1_5.png'),</v>
       </c>
-      <c r="L150" s="69" t="s">
+      <c r="L150" s="46" t="s">
         <v>216</v>
       </c>
       <c r="M150" s="40" t="s">
@@ -25065,7 +25069,7 @@
         <f t="shared" si="8"/>
         <v>river_1_6: require('./Asset1/river_1_6.png'),</v>
       </c>
-      <c r="L151" s="69" t="s">
+      <c r="L151" s="46" t="s">
         <v>216</v>
       </c>
       <c r="M151" s="40" t="s">
@@ -25091,7 +25095,7 @@
         <f t="shared" si="8"/>
         <v>river_1_7: require('./Asset1/river_1_7.png'),</v>
       </c>
-      <c r="L152" s="69" t="s">
+      <c r="L152" s="46" t="s">
         <v>216</v>
       </c>
       <c r="M152" s="40" t="s">
@@ -25117,7 +25121,7 @@
         <f t="shared" si="8"/>
         <v>river_1_8: require('./Asset1/river_1_8.png'),</v>
       </c>
-      <c r="L153" s="69" t="s">
+      <c r="L153" s="46" t="s">
         <v>216</v>
       </c>
       <c r="M153" s="40" t="s">
@@ -25143,7 +25147,7 @@
         <f t="shared" si="8"/>
         <v>river_2_1: require('./Asset1/river_2_1.png'),</v>
       </c>
-      <c r="L154" s="69" t="s">
+      <c r="L154" s="46" t="s">
         <v>216</v>
       </c>
       <c r="M154" s="40" t="s">
@@ -25169,7 +25173,7 @@
         <f t="shared" si="8"/>
         <v>river_2_10: require('./Asset1/river_2_10.png'),</v>
       </c>
-      <c r="L155" s="69" t="s">
+      <c r="L155" s="46" t="s">
         <v>216</v>
       </c>
       <c r="M155" s="40" t="s">
@@ -25195,7 +25199,7 @@
         <f t="shared" si="8"/>
         <v>river_2_2: require('./Asset1/river_2_2.png'),</v>
       </c>
-      <c r="L156" s="69" t="s">
+      <c r="L156" s="46" t="s">
         <v>216</v>
       </c>
       <c r="M156" s="40" t="s">
@@ -25221,7 +25225,7 @@
         <f t="shared" si="8"/>
         <v>river_2_3: require('./Asset1/river_2_3.png'),</v>
       </c>
-      <c r="L157" s="69" t="s">
+      <c r="L157" s="46" t="s">
         <v>216</v>
       </c>
       <c r="M157" s="40" t="s">
@@ -25247,7 +25251,7 @@
         <f t="shared" si="8"/>
         <v>river_2_4: require('./Asset1/river_2_4.png'),</v>
       </c>
-      <c r="L158" s="69" t="s">
+      <c r="L158" s="46" t="s">
         <v>216</v>
       </c>
       <c r="M158" s="40" t="s">
@@ -25273,7 +25277,7 @@
         <f t="shared" si="8"/>
         <v>river_2_5: require('./Asset1/river_2_5.png'),</v>
       </c>
-      <c r="L159" s="69" t="s">
+      <c r="L159" s="46" t="s">
         <v>216</v>
       </c>
       <c r="M159" s="40" t="s">
@@ -25299,7 +25303,7 @@
         <f t="shared" si="8"/>
         <v>river_2_6: require('./Asset1/river_2_6.png'),</v>
       </c>
-      <c r="L160" s="69" t="s">
+      <c r="L160" s="46" t="s">
         <v>216</v>
       </c>
       <c r="M160" s="40" t="s">
@@ -25325,7 +25329,7 @@
         <f t="shared" si="8"/>
         <v>river_2_7: require('./Asset1/river_2_7.png'),</v>
       </c>
-      <c r="L161" s="69" t="s">
+      <c r="L161" s="46" t="s">
         <v>216</v>
       </c>
       <c r="M161" s="40" t="s">
@@ -25351,7 +25355,7 @@
         <f t="shared" si="8"/>
         <v>river_2_8: require('./Asset1/river_2_8.png'),</v>
       </c>
-      <c r="L162" s="69" t="s">
+      <c r="L162" s="46" t="s">
         <v>216</v>
       </c>
       <c r="M162" s="40" t="s">
@@ -25377,7 +25381,7 @@
         <f t="shared" si="8"/>
         <v>river_2_9: require('./Asset1/river_2_9.png'),</v>
       </c>
-      <c r="L163" s="69" t="s">
+      <c r="L163" s="46" t="s">
         <v>216</v>
       </c>
       <c r="M163" s="40" t="s">
@@ -25403,7 +25407,7 @@
         <f t="shared" si="8"/>
         <v>rock_shore1: require('./Asset1/rock_shore1.png'),</v>
       </c>
-      <c r="L164" s="69" t="s">
+      <c r="L164" s="46" t="s">
         <v>216</v>
       </c>
       <c r="M164" s="40" t="s">
@@ -25429,7 +25433,7 @@
         <f t="shared" si="8"/>
         <v>rock_shore10: require('./Asset1/rock_shore10.png'),</v>
       </c>
-      <c r="L165" s="69" t="s">
+      <c r="L165" s="46" t="s">
         <v>216</v>
       </c>
       <c r="M165" s="40" t="s">
@@ -25455,7 +25459,7 @@
         <f t="shared" si="8"/>
         <v>rock_shore11: require('./Asset1/rock_shore11.png'),</v>
       </c>
-      <c r="L166" s="69" t="s">
+      <c r="L166" s="46" t="s">
         <v>216</v>
       </c>
       <c r="M166" s="40" t="s">
@@ -25481,7 +25485,7 @@
         <f t="shared" si="8"/>
         <v>rock_shore12: require('./Asset1/rock_shore12.png'),</v>
       </c>
-      <c r="L167" s="69" t="s">
+      <c r="L167" s="46" t="s">
         <v>216</v>
       </c>
       <c r="M167" s="40" t="s">
@@ -25507,7 +25511,7 @@
         <f t="shared" si="8"/>
         <v>rock_shore2: require('./Asset1/rock_shore2.png'),</v>
       </c>
-      <c r="L168" s="69" t="s">
+      <c r="L168" s="46" t="s">
         <v>216</v>
       </c>
       <c r="M168" s="40" t="s">
@@ -25533,7 +25537,7 @@
         <f t="shared" si="8"/>
         <v>rock_shore3: require('./Asset1/rock_shore3.png'),</v>
       </c>
-      <c r="L169" s="69" t="s">
+      <c r="L169" s="46" t="s">
         <v>216</v>
       </c>
       <c r="M169" s="40" t="s">
@@ -25559,7 +25563,7 @@
         <f t="shared" si="8"/>
         <v>rock_shore4: require('./Asset1/rock_shore4.png'),</v>
       </c>
-      <c r="L170" s="69" t="s">
+      <c r="L170" s="46" t="s">
         <v>216</v>
       </c>
       <c r="M170" s="40" t="s">
@@ -25585,7 +25589,7 @@
         <f t="shared" si="8"/>
         <v>rock_shore5: require('./Asset1/rock_shore5.png'),</v>
       </c>
-      <c r="L171" s="69" t="s">
+      <c r="L171" s="46" t="s">
         <v>216</v>
       </c>
       <c r="M171" s="40" t="s">
@@ -25611,7 +25615,7 @@
         <f t="shared" si="8"/>
         <v>rock_shore6: require('./Asset1/rock_shore6.png'),</v>
       </c>
-      <c r="L172" s="69" t="s">
+      <c r="L172" s="46" t="s">
         <v>216</v>
       </c>
       <c r="M172" s="40" t="s">
@@ -25637,7 +25641,7 @@
         <f t="shared" si="8"/>
         <v>rock_shore7: require('./Asset1/rock_shore7.png'),</v>
       </c>
-      <c r="L173" s="69" t="s">
+      <c r="L173" s="46" t="s">
         <v>216</v>
       </c>
       <c r="M173" s="40" t="s">
@@ -25663,7 +25667,7 @@
         <f t="shared" si="8"/>
         <v>rock_shore8: require('./Asset1/rock_shore8.png'),</v>
       </c>
-      <c r="L174" s="69" t="s">
+      <c r="L174" s="46" t="s">
         <v>216</v>
       </c>
       <c r="M174" s="40" t="s">
@@ -25689,7 +25693,7 @@
         <f t="shared" si="8"/>
         <v>rock_shore9: require('./Asset1/rock_shore9.png'),</v>
       </c>
-      <c r="L175" s="69" t="s">
+      <c r="L175" s="46" t="s">
         <v>216</v>
       </c>
       <c r="M175" s="40" t="s">
@@ -25715,7 +25719,7 @@
         <f t="shared" si="8"/>
         <v>tetora: require('./Asset1/tetora.png'),</v>
       </c>
-      <c r="L176" s="69" t="s">
+      <c r="L176" s="46" t="s">
         <v>216</v>
       </c>
       <c r="M176" s="40" t="s">
@@ -25741,7 +25745,7 @@
         <f t="shared" si="8"/>
         <v>trash: require('./Asset1/trash.png'),</v>
       </c>
-      <c r="L177" s="69" t="s">
+      <c r="L177" s="46" t="s">
         <v>216</v>
       </c>
       <c r="M177" s="40" t="s">
@@ -25767,7 +25771,7 @@
         <f t="shared" si="8"/>
         <v>wakame: require('./Asset1/wakame.png'),</v>
       </c>
-      <c r="L178" s="69" t="s">
+      <c r="L178" s="46" t="s">
         <v>216</v>
       </c>
       <c r="M178" s="40" t="s">
@@ -25793,7 +25797,7 @@
         <f t="shared" si="8"/>
         <v>white_solt_water1: require('./Asset1/white_solt_water1.png'),</v>
       </c>
-      <c r="L179" s="69" t="s">
+      <c r="L179" s="46" t="s">
         <v>216</v>
       </c>
       <c r="M179" s="40" t="s">
@@ -25819,7 +25823,7 @@
         <f t="shared" si="8"/>
         <v>white_solt_water2: require('./Asset1/white_solt_water2.png'),</v>
       </c>
-      <c r="L180" s="69" t="s">
+      <c r="L180" s="46" t="s">
         <v>216</v>
       </c>
       <c r="M180" s="40" t="s">
@@ -25845,7 +25849,7 @@
         <f t="shared" si="8"/>
         <v>white_solt_water3: require('./Asset1/white_solt_water3.png'),</v>
       </c>
-      <c r="L181" s="69" t="s">
+      <c r="L181" s="46" t="s">
         <v>216</v>
       </c>
       <c r="M181" s="40" t="s">
@@ -25871,7 +25875,7 @@
         <f t="shared" si="8"/>
         <v>white_solt_water4: require('./Asset1/white_solt_water4.png'),</v>
       </c>
-      <c r="L182" s="69" t="s">
+      <c r="L182" s="46" t="s">
         <v>216</v>
       </c>
       <c r="M182" s="40" t="s">
@@ -25897,7 +25901,7 @@
         <f t="shared" si="8"/>
         <v>white_solt_water5: require('./Asset1/white_solt_water5.png'),</v>
       </c>
-      <c r="L183" s="69" t="s">
+      <c r="L183" s="46" t="s">
         <v>216</v>
       </c>
       <c r="M183" s="40" t="s">
@@ -25923,7 +25927,7 @@
         <f t="shared" si="8"/>
         <v>white_solt_water6: require('./Asset1/white_solt_water6.png'),</v>
       </c>
-      <c r="L184" s="69" t="s">
+      <c r="L184" s="46" t="s">
         <v>216</v>
       </c>
       <c r="M184" s="40" t="s">
@@ -25949,7 +25953,7 @@
         <f t="shared" si="8"/>
         <v>white_solt_water7: require('./Asset1/white_solt_water7.png'),</v>
       </c>
-      <c r="L185" s="69" t="s">
+      <c r="L185" s="46" t="s">
         <v>216</v>
       </c>
       <c r="M185" s="40" t="s">
@@ -25975,7 +25979,7 @@
         <f t="shared" si="8"/>
         <v>yellow_tail_fish: require('./Asset1/yellow_tail_fish.png'),</v>
       </c>
-      <c r="L186" s="69" t="s">
+      <c r="L186" s="46" t="s">
         <v>340</v>
       </c>
       <c r="M186" s="40" t="s">
@@ -26032,12 +26036,12 @@
   <sheetData>
     <row r="1" spans="1:59" ht="33">
       <c r="A1" s="11"/>
-      <c r="B1" s="54"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="56"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="57"/>
       <c r="H1" s="14">
         <f>H3</f>
         <v>44636</v>
@@ -26248,18 +26252,18 @@
       </c>
     </row>
     <row r="2" spans="1:59" ht="19" thickBot="1">
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="58"/>
-      <c r="D2" s="53" t="s">
+      <c r="C2" s="59"/>
+      <c r="D2" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53" t="s">
+      <c r="E2" s="54"/>
+      <c r="F2" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="53"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="19">
         <f>H3</f>
         <v>44636</v>
@@ -27096,30 +27100,30 @@
       <c r="C2" s="32" t="s">
         <v>101</v>
       </c>
-      <c r="E2" s="60" t="s">
+      <c r="E2" s="61" t="s">
         <v>73</v>
       </c>
-      <c r="F2" s="61"/>
+      <c r="F2" s="62"/>
       <c r="G2" s="31"/>
-      <c r="H2" s="64" t="s">
+      <c r="H2" s="65" t="s">
         <v>74</v>
       </c>
-      <c r="I2" s="65"/>
+      <c r="I2" s="66"/>
       <c r="J2" s="31"/>
-      <c r="K2" s="66" t="s">
+      <c r="K2" s="67" t="s">
         <v>75</v>
       </c>
-      <c r="L2" s="65"/>
-      <c r="M2" s="62" t="s">
+      <c r="L2" s="66"/>
+      <c r="M2" s="63" t="s">
         <v>103</v>
       </c>
-      <c r="N2" s="67" t="s">
+      <c r="N2" s="68" t="s">
         <v>85</v>
       </c>
-      <c r="O2" s="62" t="s">
+      <c r="O2" s="63" t="s">
         <v>86</v>
       </c>
-      <c r="P2" s="63" t="s">
+      <c r="P2" s="64" t="s">
         <v>46</v>
       </c>
     </row>
@@ -27144,10 +27148,10 @@
       <c r="L3" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="M3" s="62"/>
-      <c r="N3" s="68"/>
-      <c r="O3" s="62"/>
-      <c r="P3" s="63"/>
+      <c r="M3" s="63"/>
+      <c r="N3" s="69"/>
+      <c r="O3" s="63"/>
+      <c r="P3" s="64"/>
     </row>
     <row r="4" spans="1:16" ht="35" customHeight="1">
       <c r="C4" s="33">
@@ -27534,7 +27538,7 @@
         <f t="shared" si="1"/>
         <v>[FC_01_04_01]</v>
       </c>
-      <c r="L12" s="59" t="s">
+      <c r="L12" s="60" t="s">
         <v>136</v>
       </c>
       <c r="M12" s="30" t="s">
@@ -27552,7 +27556,7 @@
         <v>釣り場マップ作成</v>
       </c>
       <c r="I13" s="30"/>
-      <c r="L13" s="59"/>
+      <c r="L13" s="60"/>
       <c r="M13" s="30" t="s">
         <v>177</v>
       </c>

--- a/doc/Development_Spec.xlsx
+++ b/doc/Development_Spec.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kota_ly/work/KokoDokoMapMaker/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{979AC3B6-3B79-264B-AD54-F5036FF32D70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{972B2D37-4747-CD40-92FD-70FF389D5071}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" firstSheet="8" activeTab="13" xr2:uid="{2C8663B7-A646-664E-AD48-D017962260BA}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" firstSheet="8" activeTab="14" xr2:uid="{2C8663B7-A646-664E-AD48-D017962260BA}"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
     <sheet name="遷移図=&gt;" sheetId="13" r:id="rId12"/>
     <sheet name="遷移図1" sheetId="14" r:id="rId13"/>
     <sheet name="Asset.js" sheetId="18" r:id="rId14"/>
-    <sheet name="Sheet1" sheetId="20" r:id="rId15"/>
+    <sheet name="素材" sheetId="20" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -2873,9 +2873,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2892,6 +2889,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -20214,6 +20214,768 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>10651</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>104468</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4CD862B-5817-3A8C-665D-35A70956B367}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="596900" y="495300"/>
+          <a:ext cx="2271251" cy="752168"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="002060"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>761325</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>160871</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>327809</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>222655</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C31606DB-08F5-4C55-C55A-5B43BB4B8413}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="761325" y="618071"/>
+          <a:ext cx="518984" cy="518984"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>260878</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>161071</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>779862</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>222855</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="正方形/長方形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF8FDA70-7152-784F-1321-CB38B727F900}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2165878" y="618271"/>
+          <a:ext cx="518984" cy="518984"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>520370</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>161071</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>520370</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>222855</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="直線コネクタ 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4E7E0AF-1E8A-7203-B2E8-63A6F2BAB070}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="4" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2425370" y="618271"/>
+          <a:ext cx="0" cy="518984"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>260878</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>191963</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>779862</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>191963</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="直線コネクタ 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{832EC60B-7E8A-D1F9-1292-8B9F2A2511F6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="4" idx="1"/>
+          <a:endCxn id="4" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2165878" y="877763"/>
+          <a:ext cx="518984" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>501435</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>17872</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>87252</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>137054</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="右矢印 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B0935A4-EB66-834F-0514-A7E2DDAC6B0B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1453935" y="703672"/>
+          <a:ext cx="538317" cy="347782"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 42696"/>
+            <a:gd name="adj2" fmla="val 75563"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
@@ -20645,7 +21407,7 @@
       <c r="D8" s="7"/>
     </row>
     <row r="9" spans="2:4" ht="19" customHeight="1">
-      <c r="B9" s="48" t="s">
+      <c r="B9" s="47" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="4" t="s">
@@ -20656,7 +21418,7 @@
       </c>
     </row>
     <row r="10" spans="2:4" ht="19" customHeight="1">
-      <c r="B10" s="49"/>
+      <c r="B10" s="48"/>
       <c r="C10" s="4" t="s">
         <v>67</v>
       </c>
@@ -20665,7 +21427,7 @@
       </c>
     </row>
     <row r="11" spans="2:4" ht="19" customHeight="1">
-      <c r="B11" s="49"/>
+      <c r="B11" s="48"/>
       <c r="C11" s="4" t="s">
         <v>68</v>
       </c>
@@ -20695,7 +21457,7 @@
       <c r="D14" s="7"/>
     </row>
     <row r="15" spans="2:4">
-      <c r="B15" s="50" t="s">
+      <c r="B15" s="49" t="s">
         <v>25</v>
       </c>
       <c r="C15" s="7" t="s">
@@ -20706,7 +21468,7 @@
       </c>
     </row>
     <row r="16" spans="2:4">
-      <c r="B16" s="51"/>
+      <c r="B16" s="50"/>
       <c r="C16" s="3" t="s">
         <v>11</v>
       </c>
@@ -20716,11 +21478,11 @@
     </row>
     <row r="17" spans="2:4">
       <c r="B17" s="6"/>
-      <c r="C17" s="52"/>
-      <c r="D17" s="52"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="51"/>
     </row>
     <row r="18" spans="2:4">
-      <c r="B18" s="50" t="s">
+      <c r="B18" s="49" t="s">
         <v>13</v>
       </c>
       <c r="C18" s="7" t="s">
@@ -20731,7 +21493,7 @@
       </c>
     </row>
     <row r="19" spans="2:4">
-      <c r="B19" s="53"/>
+      <c r="B19" s="52"/>
       <c r="C19" s="7" t="s">
         <v>69</v>
       </c>
@@ -20740,7 +21502,7 @@
       </c>
     </row>
     <row r="20" spans="2:4">
-      <c r="B20" s="53"/>
+      <c r="B20" s="52"/>
       <c r="C20" s="7" t="s">
         <v>70</v>
       </c>
@@ -20749,7 +21511,7 @@
       </c>
     </row>
     <row r="21" spans="2:4">
-      <c r="B21" s="51"/>
+      <c r="B21" s="50"/>
       <c r="C21" s="7" t="s">
         <v>71</v>
       </c>
@@ -20759,8 +21521,8 @@
     </row>
     <row r="22" spans="2:4">
       <c r="B22" s="6"/>
-      <c r="C22" s="52"/>
-      <c r="D22" s="52"/>
+      <c r="C22" s="51"/>
+      <c r="D22" s="51"/>
     </row>
     <row r="23" spans="2:4">
       <c r="B23" s="6" t="s">
@@ -20774,60 +21536,55 @@
       </c>
     </row>
     <row r="24" spans="2:4">
-      <c r="C24" s="47"/>
-      <c r="D24" s="47"/>
+      <c r="C24" s="53"/>
+      <c r="D24" s="53"/>
     </row>
     <row r="25" spans="2:4">
-      <c r="C25" s="47"/>
-      <c r="D25" s="47"/>
+      <c r="C25" s="53"/>
+      <c r="D25" s="53"/>
     </row>
     <row r="26" spans="2:4">
-      <c r="C26" s="47"/>
-      <c r="D26" s="47"/>
+      <c r="C26" s="53"/>
+      <c r="D26" s="53"/>
     </row>
     <row r="27" spans="2:4">
-      <c r="C27" s="47"/>
-      <c r="D27" s="47"/>
+      <c r="C27" s="53"/>
+      <c r="D27" s="53"/>
     </row>
     <row r="28" spans="2:4">
-      <c r="C28" s="47"/>
-      <c r="D28" s="47"/>
+      <c r="C28" s="53"/>
+      <c r="D28" s="53"/>
     </row>
     <row r="29" spans="2:4">
-      <c r="C29" s="47"/>
-      <c r="D29" s="47"/>
+      <c r="C29" s="53"/>
+      <c r="D29" s="53"/>
     </row>
     <row r="30" spans="2:4">
-      <c r="C30" s="47"/>
-      <c r="D30" s="47"/>
+      <c r="C30" s="53"/>
+      <c r="D30" s="53"/>
     </row>
     <row r="31" spans="2:4">
-      <c r="C31" s="47"/>
-      <c r="D31" s="47"/>
+      <c r="C31" s="53"/>
+      <c r="D31" s="53"/>
     </row>
     <row r="32" spans="2:4">
-      <c r="C32" s="47"/>
-      <c r="D32" s="47"/>
+      <c r="C32" s="53"/>
+      <c r="D32" s="53"/>
     </row>
     <row r="33" spans="3:4">
-      <c r="C33" s="47"/>
-      <c r="D33" s="47"/>
+      <c r="C33" s="53"/>
+      <c r="D33" s="53"/>
     </row>
     <row r="34" spans="3:4">
-      <c r="C34" s="47"/>
-      <c r="D34" s="47"/>
+      <c r="C34" s="53"/>
+      <c r="D34" s="53"/>
     </row>
     <row r="35" spans="3:4">
-      <c r="C35" s="47"/>
-      <c r="D35" s="47"/>
+      <c r="C35" s="53"/>
+      <c r="D35" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="B18:B21"/>
     <mergeCell ref="C35:D35"/>
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="C25:D25"/>
@@ -20840,6 +21597,11 @@
     <mergeCell ref="C32:D32"/>
     <mergeCell ref="C33:D33"/>
     <mergeCell ref="C34:D34"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="B18:B21"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B2:B15 B17:B18 B22:B1048576">
@@ -21167,7 +21929,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{687D7CDE-3391-9D46-8031-EC40E3D62D72}">
   <dimension ref="B1:M188"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -26006,12 +26768,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81434722-8FF6-E642-86B5-A7960A0C0B92}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
